--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09B5F9-812A-47AF-BD3F-C68B98ECC176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C082251D-7125-4254-9741-4E6504B50036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -2173,9 +2173,6 @@
     <t>Swartboskloof</t>
   </si>
   <si>
-    <t>This is Ruprecht and Schofield (1989)</t>
-  </si>
-  <si>
     <t>Ruprecht and Schofield, 1989</t>
   </si>
   <si>
@@ -2490,6 +2487,9 @@
   </si>
   <si>
     <t>Completed 1, Incomplete 0</t>
+  </si>
+  <si>
+    <t>This is Ruprecht and Schofield (1989) rather than Ruprecht and Schofield (1991). Additionally Delta_Forest changed to -100% as the original paper clearly indicates "clearfelling"</t>
   </si>
 </sst>
 </file>
@@ -3189,10 +3189,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>780</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>781</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>543</v>
@@ -3207,7 +3207,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>471</v>
@@ -3222,16 +3222,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>624</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -6995,7 +6995,7 @@
     </row>
     <row r="63" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -7010,14 +7010,16 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="A1:U252"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.59765625" style="2" customWidth="1"/>
-    <col min="3" max="11" width="15.59765625" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.53125" style="2" customWidth="1"/>
+    <col min="3" max="10" width="15.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.59765625" style="16" customWidth="1"/>
     <col min="13" max="14" width="15.59765625" style="10" customWidth="1"/>
     <col min="15" max="17" width="15.59765625" style="2" customWidth="1"/>
@@ -7049,10 +7051,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>780</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>781</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>543</v>
@@ -7067,7 +7069,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>471</v>
@@ -7082,16 +7084,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T1" s="37" t="s">
         <v>624</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1" s="31"/>
     </row>
@@ -7156,7 +7158,7 @@
       </c>
       <c r="T2" s="16"/>
       <c r="U2" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V2" s="32"/>
     </row>
@@ -7221,7 +7223,7 @@
       </c>
       <c r="T3" s="16"/>
       <c r="U3" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V3" s="32"/>
     </row>
@@ -7432,7 +7434,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H7" s="6">
         <v>167.7</v>
@@ -7444,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L7" s="49">
         <v>1967</v>
@@ -7472,7 +7474,7 @@
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="34" t="s">
-        <v>696</v>
+        <v>798</v>
       </c>
       <c r="V7" s="32"/>
     </row>
@@ -7851,7 +7853,7 @@
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8041,7 +8043,7 @@
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8921,7 +8923,7 @@
         <v>1984</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S30" s="16">
         <v>1</v>
@@ -9672,7 +9674,7 @@
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -9988,7 +9990,7 @@
       </c>
       <c r="T47" s="16"/>
       <c r="U47" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10300,7 +10302,7 @@
         <v>1964</v>
       </c>
       <c r="R52" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S52" s="16">
         <v>1</v>
@@ -10371,7 +10373,7 @@
       </c>
       <c r="T53" s="16"/>
       <c r="U53" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10470,7 +10472,7 @@
         <v>12</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L55" s="16">
         <v>1263</v>
@@ -10498,7 +10500,7 @@
       </c>
       <c r="T55" s="16"/>
       <c r="U55" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10533,7 +10535,7 @@
         <v>12</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L56" s="16">
         <v>1306</v>
@@ -10561,7 +10563,7 @@
       </c>
       <c r="T56" s="16"/>
       <c r="U56" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10812,7 +10814,7 @@
       </c>
       <c r="T60" s="16"/>
       <c r="U60" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11437,7 +11439,7 @@
       </c>
       <c r="T70" s="16"/>
       <c r="U70" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12057,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="U80" s="34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14121,7 +14123,7 @@
         <v>12</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L113" s="16">
         <v>1217</v>
@@ -14147,7 +14149,7 @@
       </c>
       <c r="T113" s="16"/>
       <c r="U113" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14243,7 +14245,7 @@
         <v>12</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L115" s="16">
         <v>1217</v>
@@ -14272,7 +14274,7 @@
       </c>
       <c r="T115" s="16"/>
       <c r="U115" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="V115" s="32"/>
     </row>
@@ -14308,7 +14310,7 @@
         <v>12</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L116" s="16">
         <v>1217</v>
@@ -14337,7 +14339,7 @@
       </c>
       <c r="T116" s="16"/>
       <c r="U116" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14890,7 +14892,7 @@
       </c>
       <c r="T125" s="16"/>
       <c r="U125" s="34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="V125" s="32"/>
     </row>
@@ -15135,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="U129" s="34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V129" s="32"/>
     </row>
@@ -15393,7 +15395,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C134" s="6">
         <v>0.65</v>
@@ -15449,7 +15451,7 @@
       </c>
       <c r="T134" s="16"/>
       <c r="U134" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15512,7 +15514,7 @@
       </c>
       <c r="T135" s="16"/>
       <c r="U135" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15575,7 +15577,7 @@
       </c>
       <c r="T136" s="16"/>
       <c r="U136" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="13" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15742,7 +15744,7 @@
         <v>1990</v>
       </c>
       <c r="R139" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S139" s="16">
         <v>1</v>
@@ -15993,7 +15995,7 @@
       </c>
       <c r="T143" s="16"/>
       <c r="U143" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -16242,7 +16244,7 @@
       </c>
       <c r="T147" s="16"/>
       <c r="U147" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -16305,7 +16307,7 @@
       </c>
       <c r="T148" s="16"/>
       <c r="U148" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17051,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="U160" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17340,7 +17342,7 @@
         <v>12</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L165" s="16">
         <v>2701</v>
@@ -17366,7 +17368,7 @@
       </c>
       <c r="T165" s="16"/>
       <c r="U165" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V165" s="32"/>
     </row>
@@ -17375,7 +17377,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C166" s="6">
         <v>0.05</v>
@@ -17402,7 +17404,7 @@
         <v>12</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L166" s="16">
         <v>2701</v>
@@ -17430,7 +17432,7 @@
       </c>
       <c r="T166" s="16"/>
       <c r="U166" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17778,7 +17780,7 @@
         <v>12</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L172" s="16">
         <v>1491</v>
@@ -17806,7 +17808,7 @@
       </c>
       <c r="T172" s="16"/>
       <c r="U172" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17841,7 +17843,7 @@
         <v>12</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L173" s="16">
         <v>1429</v>
@@ -17863,7 +17865,7 @@
         <v>1983</v>
       </c>
       <c r="R173" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S173" s="16">
         <v>1</v>
@@ -17905,7 +17907,7 @@
         <v>12</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L174" s="16">
         <v>1429</v>
@@ -17927,7 +17929,7 @@
         <v>1983</v>
       </c>
       <c r="R174" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S174" s="16">
         <v>1</v>
@@ -17969,7 +17971,7 @@
         <v>12</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L175" s="16">
         <v>1429</v>
@@ -17991,7 +17993,7 @@
         <v>1983</v>
       </c>
       <c r="R175" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S175" s="16">
         <v>1</v>
@@ -18094,7 +18096,7 @@
         <v>12</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L177" s="16">
         <v>1429</v>
@@ -18116,7 +18118,7 @@
         <v>1983</v>
       </c>
       <c r="R177" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S177" s="16">
         <v>1</v>
@@ -18158,7 +18160,7 @@
         <v>12</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L178" s="16">
         <v>1491</v>
@@ -18186,7 +18188,7 @@
       </c>
       <c r="T178" s="16"/>
       <c r="U178" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19245,7 +19247,7 @@
       </c>
       <c r="T195" s="16"/>
       <c r="U195" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19301,7 +19303,7 @@
         <v>1990</v>
       </c>
       <c r="R196" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S196" s="16">
         <v>1</v>
@@ -19364,7 +19366,7 @@
         <v>1990</v>
       </c>
       <c r="R197" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S197" s="16">
         <v>1</v>
@@ -19563,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="U200" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20002,7 +20004,7 @@
       </c>
       <c r="T207" s="16"/>
       <c r="U207" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20128,7 +20130,7 @@
       </c>
       <c r="T209" s="16"/>
       <c r="U209" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20163,7 +20165,7 @@
         <v>12</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L210" s="16">
         <v>873</v>
@@ -20191,7 +20193,7 @@
       </c>
       <c r="T210" s="16"/>
       <c r="U210" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20502,7 +20504,7 @@
       </c>
       <c r="T215" s="16"/>
       <c r="U215" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20626,7 +20628,7 @@
       </c>
       <c r="T217" s="16"/>
       <c r="U217" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -21920,7 +21922,7 @@
       </c>
       <c r="T238" s="16"/>
       <c r="U238" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22107,7 +22109,7 @@
       </c>
       <c r="T241" s="16"/>
       <c r="U241" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22431,7 +22433,7 @@
         <v>1</v>
       </c>
       <c r="U246" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22744,7 +22746,7 @@
       </c>
       <c r="T251" s="16"/>
       <c r="U251" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="252" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -22807,7 +22809,7 @@
       </c>
       <c r="T252" s="42"/>
       <c r="U252" s="43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -22865,10 +22867,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>780</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>781</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>543</v>
@@ -22883,7 +22885,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N1" s="46" t="s">
         <v>471</v>
@@ -22898,16 +22900,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T1" s="48" t="s">
         <v>624</v>
       </c>
       <c r="U1" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V1" s="54"/>
       <c r="W1" s="54"/>
@@ -23974,7 +23976,7 @@
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24619,7 +24621,7 @@
         <v>340</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C29" s="16">
         <v>5800</v>
@@ -24644,7 +24646,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L29" s="49">
         <v>1567</v>
@@ -24666,14 +24668,14 @@
         <v>1975</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S29" s="16">
         <v>1</v>
       </c>
       <c r="T29" s="16"/>
       <c r="U29" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24682,7 +24684,7 @@
         <v>341</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C30" s="16">
         <v>7640</v>
@@ -24707,7 +24709,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L30" s="49">
         <v>1576</v>
@@ -24729,14 +24731,14 @@
         <v>1975</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S30" s="16">
         <v>1</v>
       </c>
       <c r="T30" s="16"/>
       <c r="U30" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24745,7 +24747,7 @@
         <v>342</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C31" s="16">
         <v>4790</v>
@@ -24770,7 +24772,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L31" s="49">
         <v>1566</v>
@@ -24792,14 +24794,14 @@
         <v>1975</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S31" s="16">
         <v>1</v>
       </c>
       <c r="T31" s="16"/>
       <c r="U31" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24808,7 +24810,7 @@
         <v>343</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C32" s="16">
         <v>2820</v>
@@ -24833,7 +24835,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L32" s="49">
         <v>1535</v>
@@ -24855,14 +24857,14 @@
         <v>1975</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S32" s="16">
         <v>1</v>
       </c>
       <c r="T32" s="16"/>
       <c r="U32" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24871,7 +24873,7 @@
         <v>344</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C33" s="16">
         <v>9195</v>
@@ -24896,7 +24898,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L33" s="49">
         <v>1491</v>
@@ -24918,14 +24920,14 @@
         <v>1975</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S33" s="16">
         <v>1</v>
       </c>
       <c r="T33" s="16"/>
       <c r="U33" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24934,7 +24936,7 @@
         <v>345</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C34" s="16">
         <v>19450</v>
@@ -24959,7 +24961,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L34" s="49">
         <v>1577</v>
@@ -24981,14 +24983,14 @@
         <v>1975</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S34" s="16">
         <v>1</v>
       </c>
       <c r="T34" s="16"/>
       <c r="U34" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24997,7 +24999,7 @@
         <v>346</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C35" s="16">
         <v>4300</v>
@@ -25022,7 +25024,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L35" s="49">
         <v>1467</v>
@@ -25044,14 +25046,14 @@
         <v>1975</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S35" s="16">
         <v>1</v>
       </c>
       <c r="T35" s="16"/>
       <c r="U35" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25060,7 +25062,7 @@
         <v>347</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C36" s="16">
         <v>3030</v>
@@ -25085,7 +25087,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L36" s="49">
         <v>1457</v>
@@ -25107,14 +25109,14 @@
         <v>1975</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S36" s="16">
         <v>1</v>
       </c>
       <c r="T36" s="16"/>
       <c r="U36" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25123,7 +25125,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C37" s="16">
         <v>6500</v>
@@ -25148,7 +25150,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L37" s="49">
         <v>1589</v>
@@ -25170,14 +25172,14 @@
         <v>1975</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S37" s="16">
         <v>1</v>
       </c>
       <c r="T37" s="16"/>
       <c r="U37" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25186,7 +25188,7 @@
         <v>349</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C38" s="16">
         <v>4200</v>
@@ -25211,7 +25213,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="L38" s="49">
         <v>1543</v>
@@ -25240,7 +25242,7 @@
       </c>
       <c r="T38" s="16"/>
       <c r="U38" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25249,7 +25251,7 @@
         <v>350</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C39" s="16">
         <v>1.5</v>
@@ -25276,7 +25278,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L39" s="49">
         <v>640</v>
@@ -25305,7 +25307,7 @@
       </c>
       <c r="T39" s="16"/>
       <c r="U39" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25314,7 +25316,7 @@
         <v>351</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C40" s="16">
         <v>267</v>
@@ -25342,7 +25344,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L40" s="49">
         <v>919</v>
@@ -25371,7 +25373,7 @@
       </c>
       <c r="T40" s="16"/>
       <c r="U40" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25380,7 +25382,7 @@
         <v>352</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C41" s="16">
         <v>1117</v>
@@ -25393,7 +25395,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H41" s="16">
         <v>-32</v>
@@ -25403,7 +25405,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L41" s="49">
         <v>1483</v>
@@ -25432,7 +25434,7 @@
       </c>
       <c r="T41" s="16"/>
       <c r="U41" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25441,7 +25443,7 @@
         <v>353</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C42" s="16">
         <v>0.19</v>
@@ -25468,7 +25470,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L42" s="49">
         <v>1060</v>
@@ -25497,7 +25499,7 @@
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25506,7 +25508,7 @@
         <v>354</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C43" s="16">
         <v>0.12</v>
@@ -25533,7 +25535,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L43" s="49">
         <v>1060</v>
@@ -25562,7 +25564,7 @@
       </c>
       <c r="T43" s="16"/>
       <c r="U43" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25571,7 +25573,7 @@
         <v>355</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C44" s="16">
         <v>13.3</v>
@@ -25598,7 +25600,7 @@
         <v>22</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L44" s="49">
         <v>2480</v>
@@ -25629,7 +25631,7 @@
       </c>
       <c r="T44" s="16"/>
       <c r="U44" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25638,7 +25640,7 @@
         <v>356</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C45" s="16">
         <v>200</v>
@@ -25667,7 +25669,7 @@
         <v>17</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L45" s="49">
         <v>1973</v>
@@ -25696,7 +25698,7 @@
       </c>
       <c r="T45" s="16"/>
       <c r="U45" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -25705,7 +25707,7 @@
         <v>357</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C46" s="42">
         <v>9.7000000000000003E-2</v>
@@ -25733,7 +25735,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L46" s="51">
         <v>1350</v>
@@ -25762,7 +25764,7 @@
       </c>
       <c r="T46" s="42"/>
       <c r="U46" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C082251D-7125-4254-9741-4E6504B50036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57624532-6894-45CE-A0DF-25CC11C05C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="801">
   <si>
     <t>Watershed #</t>
   </si>
@@ -1872,9 +1872,6 @@
     <t>Van Haveren (1988) does not give coordinates, but one of the original Bates and Hendry (1921)papers does: https://doi.org/10.1175/1520-0493(1921)49&lt;637:SAWWGC&gt;2.0.CO;2</t>
   </si>
   <si>
-    <t>The paper suggests a change in cover of 85% and also a negative value, not a positive. It also is not totally clear how the delta Q is calculated, presumably from Table 4 in the paper. Ths study period is also very short</t>
-  </si>
-  <si>
     <t>159, 160, 165, 239, 240 and 268 are all Yambulla state forest. The location details refer to the overall location not the individual catchments</t>
   </si>
   <si>
@@ -2490,6 +2487,15 @@
   </si>
   <si>
     <t>This is Ruprecht and Schofield (1989) rather than Ruprecht and Schofield (1991). Additionally Delta_Forest changed to -100% as the original paper clearly indicates "clearfelling"</t>
+  </si>
+  <si>
+    <t>The paper suggests a change in cover of 85% and also a negative value, not a positive. It also is not totally clear how the delta Q is calculated, presumably from Table 4 in the paper. Ths study period is also very short. Changed delta F to -85</t>
+  </si>
+  <si>
+    <t>Watson et al. 2001 clearly states that this is clearing followed by reseeding at different densities, changed to -75</t>
+  </si>
+  <si>
+    <t>Ruprecht et al 1989 says "clearfelling", so the change in forestry should be -100 not +100. Bari et al. also says "cleared".</t>
   </si>
 </sst>
 </file>
@@ -3189,10 +3195,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>779</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>780</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>543</v>
@@ -3207,7 +3213,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N1" s="37" t="s">
         <v>471</v>
@@ -3222,16 +3228,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S1" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -3294,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -6995,7 +7001,7 @@
     </row>
     <row r="63" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -7010,8 +7016,8 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H153" sqref="H153"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7051,10 +7057,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>778</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>779</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>780</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>543</v>
@@ -7069,7 +7075,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>471</v>
@@ -7084,16 +7090,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" s="36" t="s">
         <v>792</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>797</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>793</v>
       </c>
       <c r="V1" s="31"/>
     </row>
@@ -7158,7 +7164,7 @@
       </c>
       <c r="T2" s="16"/>
       <c r="U2" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V2" s="32"/>
     </row>
@@ -7223,7 +7229,7 @@
       </c>
       <c r="T3" s="16"/>
       <c r="U3" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V3" s="32"/>
     </row>
@@ -7446,7 +7452,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L7" s="49">
         <v>1967</v>
@@ -7474,7 +7480,7 @@
       </c>
       <c r="T7" s="16"/>
       <c r="U7" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V7" s="32"/>
     </row>
@@ -7538,7 +7544,7 @@
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V8" s="32"/>
     </row>
@@ -7602,7 +7608,7 @@
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -7853,7 +7859,7 @@
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -7951,7 +7957,7 @@
         <v>12</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L15" s="49">
         <v>510</v>
@@ -7979,7 +7985,7 @@
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8043,7 +8049,7 @@
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8106,7 +8112,7 @@
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8169,7 +8175,7 @@
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8232,7 +8238,7 @@
       </c>
       <c r="T19" s="16"/>
       <c r="U19" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8677,7 +8683,7 @@
       </c>
       <c r="T26" s="16"/>
       <c r="U26" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8740,7 +8746,7 @@
       </c>
       <c r="T27" s="16"/>
       <c r="U27" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8867,7 +8873,7 @@
       </c>
       <c r="T29" s="16"/>
       <c r="U29" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -8923,7 +8929,7 @@
         <v>1984</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S30" s="16">
         <v>1</v>
@@ -9056,7 +9062,7 @@
       </c>
       <c r="T32" s="16"/>
       <c r="U32" s="34" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -9278,7 +9284,7 @@
         <v>12</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L36" s="16">
         <v>1814</v>
@@ -9367,7 +9373,7 @@
       </c>
       <c r="T37" s="16"/>
       <c r="U37" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -9674,7 +9680,7 @@
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -9990,7 +9996,7 @@
       </c>
       <c r="T47" s="16"/>
       <c r="U47" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10025,7 +10031,7 @@
         <v>12</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L48" s="16">
         <v>1302</v>
@@ -10089,7 +10095,7 @@
         <v>12</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L49" s="16">
         <v>1302</v>
@@ -10181,7 +10187,7 @@
       </c>
       <c r="T50" s="16"/>
       <c r="U50" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10302,7 +10308,7 @@
         <v>1964</v>
       </c>
       <c r="R52" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S52" s="16">
         <v>1</v>
@@ -10373,7 +10379,7 @@
       </c>
       <c r="T53" s="16"/>
       <c r="U53" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10472,7 +10478,7 @@
         <v>12</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L55" s="16">
         <v>1263</v>
@@ -10500,7 +10506,7 @@
       </c>
       <c r="T55" s="16"/>
       <c r="U55" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10535,7 +10541,7 @@
         <v>12</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L56" s="16">
         <v>1306</v>
@@ -10563,7 +10569,7 @@
       </c>
       <c r="T56" s="16"/>
       <c r="U56" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10786,7 +10792,7 @@
         <v>12</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L60" s="16">
         <v>1736</v>
@@ -10814,7 +10820,7 @@
       </c>
       <c r="T60" s="16"/>
       <c r="U60" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -10849,7 +10855,7 @@
         <v>12</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L61" s="16">
         <v>1736</v>
@@ -10877,7 +10883,7 @@
       </c>
       <c r="T61" s="16"/>
       <c r="U61" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11002,7 +11008,7 @@
       </c>
       <c r="T63" s="16"/>
       <c r="U63" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11222,7 +11228,7 @@
         <v>12</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L67" s="16">
         <v>1747</v>
@@ -11250,7 +11256,7 @@
       </c>
       <c r="T67" s="16"/>
       <c r="U67" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11313,7 +11319,7 @@
       </c>
       <c r="T68" s="16"/>
       <c r="U68" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11376,7 +11382,7 @@
       </c>
       <c r="T69" s="16"/>
       <c r="U69" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11439,7 +11445,7 @@
       </c>
       <c r="T70" s="16"/>
       <c r="U70" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11565,7 +11571,7 @@
       </c>
       <c r="T72" s="16"/>
       <c r="U72" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -11939,7 +11945,7 @@
         <v>149</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C79" s="6">
         <v>0.24</v>
@@ -11966,7 +11972,7 @@
         <v>12</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L79" s="16">
         <v>1091</v>
@@ -11994,7 +12000,7 @@
       </c>
       <c r="T79" s="16"/>
       <c r="U79" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12002,7 +12008,7 @@
         <v>134</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C80" s="6">
         <v>0.15</v>
@@ -12059,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="U80" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12067,7 +12073,7 @@
         <v>137</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C81" s="6">
         <v>0.34</v>
@@ -12131,7 +12137,7 @@
         <v>139</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C82" s="6">
         <v>0.39</v>
@@ -12186,7 +12192,7 @@
       </c>
       <c r="T82" s="16"/>
       <c r="U82" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12194,7 +12200,7 @@
         <v>142</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C83" s="6">
         <v>0.22</v>
@@ -12249,7 +12255,7 @@
       </c>
       <c r="T83" s="16"/>
       <c r="U83" s="34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12257,7 +12263,7 @@
         <v>143</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C84" s="6">
         <v>0.24</v>
@@ -12318,7 +12324,7 @@
         <v>144</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C85" s="6">
         <v>0.3</v>
@@ -12373,7 +12379,7 @@
       </c>
       <c r="T85" s="16"/>
       <c r="U85" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12381,7 +12387,7 @@
         <v>145</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C86" s="6">
         <v>0.15</v>
@@ -12408,7 +12414,7 @@
         <v>12</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L86" s="16">
         <v>1089</v>
@@ -12438,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="U86" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12446,7 +12452,7 @@
         <v>146</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C87" s="6">
         <v>0.34</v>
@@ -12473,7 +12479,7 @@
         <v>12</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L87" s="16">
         <v>1089</v>
@@ -12503,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="U87" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12511,7 +12517,7 @@
         <v>147</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C88" s="6">
         <v>0.36</v>
@@ -12538,7 +12544,7 @@
         <v>12</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L88" s="16">
         <v>1089</v>
@@ -12566,7 +12572,7 @@
       </c>
       <c r="T88" s="16"/>
       <c r="U88" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -12574,7 +12580,7 @@
         <v>148</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C89" s="6">
         <v>0.22</v>
@@ -12601,7 +12607,7 @@
         <v>12</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L89" s="16">
         <v>1089</v>
@@ -12629,7 +12635,7 @@
       </c>
       <c r="T89" s="16"/>
       <c r="U89" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13271,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="U99" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13336,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="U100" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13399,7 +13405,7 @@
       </c>
       <c r="T101" s="16"/>
       <c r="U101" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13462,7 +13468,7 @@
       </c>
       <c r="T102" s="16"/>
       <c r="U102" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13525,7 +13531,7 @@
       </c>
       <c r="T103" s="16"/>
       <c r="U103" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13533,7 +13539,7 @@
         <v>164</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C104" s="6">
         <v>0.33</v>
@@ -13589,7 +13595,7 @@
       </c>
       <c r="T104" s="16"/>
       <c r="U104" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13654,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="U105" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -13717,7 +13723,7 @@
       </c>
       <c r="T106" s="16"/>
       <c r="U106" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14123,7 +14129,7 @@
         <v>12</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L113" s="16">
         <v>1217</v>
@@ -14149,7 +14155,7 @@
       </c>
       <c r="T113" s="16"/>
       <c r="U113" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14245,7 +14251,7 @@
         <v>12</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L115" s="16">
         <v>1217</v>
@@ -14274,7 +14280,7 @@
       </c>
       <c r="T115" s="16"/>
       <c r="U115" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V115" s="32"/>
     </row>
@@ -14310,7 +14316,7 @@
         <v>12</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L116" s="16">
         <v>1217</v>
@@ -14339,7 +14345,7 @@
       </c>
       <c r="T116" s="16"/>
       <c r="U116" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14402,7 +14408,7 @@
       </c>
       <c r="T117" s="16"/>
       <c r="U117" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:22" s="13" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14527,7 +14533,7 @@
       </c>
       <c r="T119" s="16"/>
       <c r="U119" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14591,7 +14597,7 @@
       </c>
       <c r="T120" s="16"/>
       <c r="U120" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14654,7 +14660,7 @@
       </c>
       <c r="T121" s="16"/>
       <c r="U121" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -14766,10 +14772,10 @@
         <v>5</v>
       </c>
       <c r="P123" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q123" s="16" t="s">
         <v>613</v>
-      </c>
-      <c r="Q123" s="16" t="s">
-        <v>614</v>
       </c>
       <c r="R123" s="33" t="s">
         <v>551</v>
@@ -14892,7 +14898,7 @@
       </c>
       <c r="T125" s="16"/>
       <c r="U125" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="V125" s="32"/>
     </row>
@@ -15017,7 +15023,7 @@
       </c>
       <c r="T127" s="16"/>
       <c r="U127" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15078,7 +15084,7 @@
       </c>
       <c r="T128" s="16"/>
       <c r="U128" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="13" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15137,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="U129" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V129" s="32"/>
     </row>
@@ -15395,7 +15401,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C134" s="6">
         <v>0.65</v>
@@ -15451,7 +15457,7 @@
       </c>
       <c r="T134" s="16"/>
       <c r="U134" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15514,7 +15520,7 @@
       </c>
       <c r="T135" s="16"/>
       <c r="U135" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15577,7 +15583,7 @@
       </c>
       <c r="T136" s="16"/>
       <c r="U136" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="13" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15626,7 +15632,7 @@
       </c>
       <c r="T137" s="16"/>
       <c r="U137" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V137" s="32"/>
     </row>
@@ -15744,7 +15750,7 @@
         <v>1990</v>
       </c>
       <c r="R139" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S139" s="16">
         <v>1</v>
@@ -15812,7 +15818,7 @@
       </c>
       <c r="T140" s="16"/>
       <c r="U140" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -15995,7 +16001,7 @@
       </c>
       <c r="T143" s="16"/>
       <c r="U143" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -16244,7 +16250,7 @@
       </c>
       <c r="T147" s="16"/>
       <c r="U147" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -16307,7 +16313,7 @@
       </c>
       <c r="T148" s="16"/>
       <c r="U148" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -16370,10 +16376,10 @@
       </c>
       <c r="T149" s="16"/>
       <c r="U149" s="34" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>210</v>
       </c>
@@ -16393,7 +16399,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="6">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H150" s="6">
         <v>147.6</v>
@@ -16433,7 +16439,9 @@
         <v>1</v>
       </c>
       <c r="T150" s="16"/>
-      <c r="U150" s="34"/>
+      <c r="U150" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="151" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6">
@@ -16559,7 +16567,7 @@
       <c r="T152" s="16"/>
       <c r="U152" s="34"/>
     </row>
-    <row r="153" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>213</v>
       </c>
@@ -16579,7 +16587,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="6">
-        <v>75</v>
+        <v>-75</v>
       </c>
       <c r="H153" s="6">
         <v>43</v>
@@ -16606,7 +16614,7 @@
         <v>12</v>
       </c>
       <c r="P153" s="16">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="Q153" s="16">
         <v>1996</v>
@@ -16618,9 +16626,11 @@
         <v>1</v>
       </c>
       <c r="T153" s="16"/>
-      <c r="U153" s="34"/>
-    </row>
-    <row r="154" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U153" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>214</v>
       </c>
@@ -16640,7 +16650,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="6">
-        <v>75</v>
+        <v>-75</v>
       </c>
       <c r="H154" s="6">
         <v>104</v>
@@ -16667,7 +16677,7 @@
         <v>12</v>
       </c>
       <c r="P154" s="16">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="Q154" s="16">
         <v>1996</v>
@@ -16679,9 +16689,11 @@
         <v>1</v>
       </c>
       <c r="T154" s="16"/>
-      <c r="U154" s="34"/>
-    </row>
-    <row r="155" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U154" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>215</v>
       </c>
@@ -16701,7 +16713,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="6">
-        <v>75</v>
+        <v>-75</v>
       </c>
       <c r="H155" s="6">
         <v>97</v>
@@ -16728,7 +16740,7 @@
         <v>12</v>
       </c>
       <c r="P155" s="16">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="Q155" s="16">
         <v>1996</v>
@@ -16740,7 +16752,9 @@
         <v>1</v>
       </c>
       <c r="T155" s="16"/>
-      <c r="U155" s="34"/>
+      <c r="U155" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="156" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="6">
@@ -16932,7 +16946,7 @@
         <v>219</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C159" s="6">
         <v>0.30499999999999999</v>
@@ -16988,7 +17002,7 @@
       </c>
       <c r="T159" s="16"/>
       <c r="U159" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17023,7 +17037,7 @@
         <v>12</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L160" s="16">
         <v>2087</v>
@@ -17053,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U160" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17088,7 +17102,7 @@
         <v>12</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L161" s="16">
         <v>1849</v>
@@ -17116,7 +17130,7 @@
       </c>
       <c r="T161" s="16"/>
       <c r="U161" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17151,7 +17165,7 @@
         <v>12</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L162" s="16">
         <v>1165</v>
@@ -17214,7 +17228,7 @@
         <v>12</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L163" s="16">
         <v>1165</v>
@@ -17342,7 +17356,7 @@
         <v>12</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L165" s="16">
         <v>2701</v>
@@ -17368,7 +17382,7 @@
       </c>
       <c r="T165" s="16"/>
       <c r="U165" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V165" s="32"/>
     </row>
@@ -17377,7 +17391,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C166" s="6">
         <v>0.05</v>
@@ -17404,7 +17418,7 @@
         <v>12</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L166" s="16">
         <v>2701</v>
@@ -17432,7 +17446,7 @@
       </c>
       <c r="T166" s="16"/>
       <c r="U166" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17533,7 +17547,7 @@
         <v>12</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L168" s="16">
         <v>1543</v>
@@ -17643,7 +17657,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="6">
-        <v>90</v>
+        <v>-85</v>
       </c>
       <c r="H170" s="6">
         <v>50</v>
@@ -17681,7 +17695,7 @@
       </c>
       <c r="T170" s="16"/>
       <c r="U170" s="34" t="s">
-        <v>600</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17780,7 +17794,7 @@
         <v>12</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L172" s="16">
         <v>1491</v>
@@ -17808,7 +17822,7 @@
       </c>
       <c r="T172" s="16"/>
       <c r="U172" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17843,7 +17857,7 @@
         <v>12</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L173" s="16">
         <v>1429</v>
@@ -17865,14 +17879,14 @@
         <v>1983</v>
       </c>
       <c r="R173" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S173" s="16">
         <v>1</v>
       </c>
       <c r="T173" s="16"/>
       <c r="U173" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17907,7 +17921,7 @@
         <v>12</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L174" s="16">
         <v>1429</v>
@@ -17929,14 +17943,14 @@
         <v>1983</v>
       </c>
       <c r="R174" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S174" s="16">
         <v>1</v>
       </c>
       <c r="T174" s="16"/>
       <c r="U174" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -17971,7 +17985,7 @@
         <v>12</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L175" s="16">
         <v>1429</v>
@@ -17993,14 +18007,14 @@
         <v>1983</v>
       </c>
       <c r="R175" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S175" s="16">
         <v>1</v>
       </c>
       <c r="T175" s="16"/>
       <c r="U175" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18096,7 +18110,7 @@
         <v>12</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L177" s="16">
         <v>1429</v>
@@ -18118,14 +18132,14 @@
         <v>1983</v>
       </c>
       <c r="R177" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S177" s="16">
         <v>1</v>
       </c>
       <c r="T177" s="16"/>
       <c r="U177" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18160,7 +18174,7 @@
         <v>12</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L178" s="16">
         <v>1491</v>
@@ -18188,7 +18202,7 @@
       </c>
       <c r="T178" s="16"/>
       <c r="U178" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18253,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="U179" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18318,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="U180" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18415,7 +18429,7 @@
         <v>12</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L182" s="16">
         <v>1408</v>
@@ -18568,7 +18582,7 @@
       </c>
       <c r="T184" s="16"/>
       <c r="U184" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18755,7 +18769,7 @@
       </c>
       <c r="T187" s="16"/>
       <c r="U187" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -18973,7 +18987,7 @@
         <v>12</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L191" s="16">
         <v>1974</v>
@@ -19001,7 +19015,7 @@
       </c>
       <c r="T191" s="16"/>
       <c r="U191" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19062,7 +19076,7 @@
       </c>
       <c r="T192" s="16"/>
       <c r="U192" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19123,7 +19137,7 @@
       </c>
       <c r="T193" s="16"/>
       <c r="U193" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19184,7 +19198,7 @@
       </c>
       <c r="T194" s="16"/>
       <c r="U194" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19247,7 +19261,7 @@
       </c>
       <c r="T195" s="16"/>
       <c r="U195" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19303,7 +19317,7 @@
         <v>1990</v>
       </c>
       <c r="R196" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S196" s="16">
         <v>1</v>
@@ -19366,7 +19380,7 @@
         <v>1990</v>
       </c>
       <c r="R197" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S197" s="16">
         <v>1</v>
@@ -19436,7 +19450,7 @@
       </c>
       <c r="T198" s="16"/>
       <c r="U198" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19444,7 +19458,7 @@
         <v>259</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C199" s="6">
         <v>8.08</v>
@@ -19500,7 +19514,7 @@
       </c>
       <c r="T199" s="16"/>
       <c r="U199" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19565,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="U200" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -19880,7 +19894,7 @@
         <v>1</v>
       </c>
       <c r="U205" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20004,7 +20018,7 @@
       </c>
       <c r="T207" s="16"/>
       <c r="U207" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20075,7 +20089,7 @@
         <v>269</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C209" s="6">
         <v>1.8</v>
@@ -20130,7 +20144,7 @@
       </c>
       <c r="T209" s="16"/>
       <c r="U209" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20165,7 +20179,7 @@
         <v>12</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L210" s="16">
         <v>873</v>
@@ -20193,7 +20207,7 @@
       </c>
       <c r="T210" s="16"/>
       <c r="U210" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20256,7 +20270,7 @@
       </c>
       <c r="T211" s="16"/>
       <c r="U211" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20319,7 +20333,7 @@
       </c>
       <c r="T212" s="16"/>
       <c r="U212" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20504,7 +20518,7 @@
       </c>
       <c r="T215" s="16"/>
       <c r="U215" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20628,7 +20642,7 @@
       </c>
       <c r="T217" s="16"/>
       <c r="U217" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -20993,7 +21007,7 @@
       </c>
       <c r="T223" s="16"/>
       <c r="U223" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -21641,7 +21655,7 @@
         <v>12</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L234" s="49">
         <v>1239</v>
@@ -21705,7 +21719,7 @@
         <v>12</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L235" s="49">
         <v>2256</v>
@@ -21733,7 +21747,7 @@
       </c>
       <c r="T235" s="16"/>
       <c r="U235" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -21922,7 +21936,7 @@
       </c>
       <c r="T238" s="16"/>
       <c r="U238" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22081,7 +22095,7 @@
         <v>12</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L241" s="49">
         <v>1746</v>
@@ -22109,7 +22123,7 @@
       </c>
       <c r="T241" s="16"/>
       <c r="U241" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22210,7 +22224,7 @@
         <v>12</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L243" s="49">
         <v>2087</v>
@@ -22340,7 +22354,7 @@
         <v>12</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L245" s="49">
         <v>2087</v>
@@ -22433,7 +22447,7 @@
         <v>1</v>
       </c>
       <c r="U246" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22496,7 +22510,7 @@
       </c>
       <c r="T247" s="16"/>
       <c r="U247" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22559,7 +22573,7 @@
       </c>
       <c r="T248" s="16"/>
       <c r="U248" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22622,7 +22636,7 @@
       </c>
       <c r="T249" s="16"/>
       <c r="U249" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="250" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22685,7 +22699,7 @@
       </c>
       <c r="T250" s="16"/>
       <c r="U250" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -22746,7 +22760,7 @@
       </c>
       <c r="T251" s="16"/>
       <c r="U251" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="252" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -22754,7 +22768,7 @@
         <v>312</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C252" s="8">
         <v>2.7</v>
@@ -22809,7 +22823,7 @@
       </c>
       <c r="T252" s="42"/>
       <c r="U252" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -22867,10 +22881,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>779</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>780</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>543</v>
@@ -22885,7 +22899,7 @@
         <v>473</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N1" s="46" t="s">
         <v>471</v>
@@ -22900,16 +22914,16 @@
         <v>542</v>
       </c>
       <c r="R1" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>796</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" s="46" t="s">
         <v>792</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>797</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>624</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>793</v>
       </c>
       <c r="V1" s="54"/>
       <c r="W1" s="54"/>
@@ -23976,7 +23990,7 @@
       </c>
       <c r="T18" s="16"/>
       <c r="U18" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24612,7 +24626,7 @@
       </c>
       <c r="T28" s="16"/>
       <c r="U28" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24621,7 +24635,7 @@
         <v>340</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C29" s="16">
         <v>5800</v>
@@ -24646,7 +24660,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L29" s="49">
         <v>1567</v>
@@ -24668,14 +24682,14 @@
         <v>1975</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S29" s="16">
         <v>1</v>
       </c>
       <c r="T29" s="16"/>
       <c r="U29" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24684,7 +24698,7 @@
         <v>341</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C30" s="16">
         <v>7640</v>
@@ -24709,7 +24723,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L30" s="49">
         <v>1576</v>
@@ -24731,14 +24745,14 @@
         <v>1975</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S30" s="16">
         <v>1</v>
       </c>
       <c r="T30" s="16"/>
       <c r="U30" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24747,7 +24761,7 @@
         <v>342</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C31" s="16">
         <v>4790</v>
@@ -24772,7 +24786,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L31" s="49">
         <v>1566</v>
@@ -24794,14 +24808,14 @@
         <v>1975</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S31" s="16">
         <v>1</v>
       </c>
       <c r="T31" s="16"/>
       <c r="U31" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24810,7 +24824,7 @@
         <v>343</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C32" s="16">
         <v>2820</v>
@@ -24835,7 +24849,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L32" s="49">
         <v>1535</v>
@@ -24857,14 +24871,14 @@
         <v>1975</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S32" s="16">
         <v>1</v>
       </c>
       <c r="T32" s="16"/>
       <c r="U32" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24873,7 +24887,7 @@
         <v>344</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C33" s="16">
         <v>9195</v>
@@ -24898,7 +24912,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L33" s="49">
         <v>1491</v>
@@ -24920,14 +24934,14 @@
         <v>1975</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S33" s="16">
         <v>1</v>
       </c>
       <c r="T33" s="16"/>
       <c r="U33" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24936,7 +24950,7 @@
         <v>345</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C34" s="16">
         <v>19450</v>
@@ -24961,7 +24975,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L34" s="49">
         <v>1577</v>
@@ -24983,14 +24997,14 @@
         <v>1975</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S34" s="16">
         <v>1</v>
       </c>
       <c r="T34" s="16"/>
       <c r="U34" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24999,7 +25013,7 @@
         <v>346</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C35" s="16">
         <v>4300</v>
@@ -25024,7 +25038,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L35" s="49">
         <v>1467</v>
@@ -25046,14 +25060,14 @@
         <v>1975</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S35" s="16">
         <v>1</v>
       </c>
       <c r="T35" s="16"/>
       <c r="U35" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25062,7 +25076,7 @@
         <v>347</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C36" s="16">
         <v>3030</v>
@@ -25087,7 +25101,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L36" s="49">
         <v>1457</v>
@@ -25109,14 +25123,14 @@
         <v>1975</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S36" s="16">
         <v>1</v>
       </c>
       <c r="T36" s="16"/>
       <c r="U36" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25125,7 +25139,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C37" s="16">
         <v>6500</v>
@@ -25150,7 +25164,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L37" s="49">
         <v>1589</v>
@@ -25172,14 +25186,14 @@
         <v>1975</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S37" s="16">
         <v>1</v>
       </c>
       <c r="T37" s="16"/>
       <c r="U37" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25188,7 +25202,7 @@
         <v>349</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C38" s="16">
         <v>4200</v>
@@ -25213,7 +25227,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L38" s="49">
         <v>1543</v>
@@ -25242,7 +25256,7 @@
       </c>
       <c r="T38" s="16"/>
       <c r="U38" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25251,7 +25265,7 @@
         <v>350</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C39" s="16">
         <v>1.5</v>
@@ -25278,7 +25292,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L39" s="49">
         <v>640</v>
@@ -25307,7 +25321,7 @@
       </c>
       <c r="T39" s="16"/>
       <c r="U39" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25316,7 +25330,7 @@
         <v>351</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C40" s="16">
         <v>267</v>
@@ -25344,7 +25358,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L40" s="49">
         <v>919</v>
@@ -25373,7 +25387,7 @@
       </c>
       <c r="T40" s="16"/>
       <c r="U40" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25382,7 +25396,7 @@
         <v>352</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C41" s="16">
         <v>1117</v>
@@ -25395,7 +25409,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H41" s="16">
         <v>-32</v>
@@ -25405,7 +25419,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L41" s="49">
         <v>1483</v>
@@ -25434,7 +25448,7 @@
       </c>
       <c r="T41" s="16"/>
       <c r="U41" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25443,7 +25457,7 @@
         <v>353</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C42" s="16">
         <v>0.19</v>
@@ -25470,7 +25484,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L42" s="49">
         <v>1060</v>
@@ -25499,7 +25513,7 @@
       </c>
       <c r="T42" s="16"/>
       <c r="U42" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25508,7 +25522,7 @@
         <v>354</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C43" s="16">
         <v>0.12</v>
@@ -25535,7 +25549,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L43" s="49">
         <v>1060</v>
@@ -25564,7 +25578,7 @@
       </c>
       <c r="T43" s="16"/>
       <c r="U43" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25573,7 +25587,7 @@
         <v>355</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C44" s="16">
         <v>13.3</v>
@@ -25600,7 +25614,7 @@
         <v>22</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L44" s="49">
         <v>2480</v>
@@ -25631,7 +25645,7 @@
       </c>
       <c r="T44" s="16"/>
       <c r="U44" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -25640,7 +25654,7 @@
         <v>356</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C45" s="16">
         <v>200</v>
@@ -25669,7 +25683,7 @@
         <v>17</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L45" s="49">
         <v>1973</v>
@@ -25698,7 +25712,7 @@
       </c>
       <c r="T45" s="16"/>
       <c r="U45" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -25707,7 +25721,7 @@
         <v>357</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C46" s="42">
         <v>9.7000000000000003E-2</v>
@@ -25735,7 +25749,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L46" s="51">
         <v>1350</v>
@@ -25764,7 +25778,7 @@
       </c>
       <c r="T46" s="42"/>
       <c r="U46" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82491655-3B3C-4BCD-8238-766AF99DCF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4EF6C8C-7562-471F-92E7-B9247E37EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{B1C3C98C-7119-441C-AC65-FC55BF675211}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LargeCatchments_T1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LargeCatchments_T1!$L$1:$L$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCatchments_T3!$L$1:$L$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SmallCatchments_T2!$L$1:$L$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SmallCatchments_T2!$H$1:$H$252</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="820">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2522,11 +2523,38 @@
   <si>
     <t>Correct name is Yerraminnup S..There is no Yerrami S in Zhou et al. This is originally from Ruprecht and Schofield (1989), but they are citing a WA water resources report, Dates confirmed in the original. Also, this is clearing, so should be -60% delta_F_perc</t>
   </si>
+  <si>
+    <t>Ferreto et al., 2021</t>
+  </si>
+  <si>
+    <t>PE30 = Old-EsW</t>
+  </si>
+  <si>
+    <t>PE100 = Young-EbW</t>
+  </si>
+  <si>
+    <t>Almeida et al., 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitored from 34 month before harvest, to 14 month after harvest. Pa &amp; DQf calculated fron discharge in Table II (mm) (433-483)/483=-10%. E0 from Table III. </t>
+  </si>
+  <si>
+    <t>Monitored 4 years after harvest and replanting. Also correcting Almeida´s %for is 30% of the 61% of eucalyptus area. Pa &amp; E0 from Table 2</t>
+  </si>
+  <si>
+    <t>Monitored 4 years after harvest and replanting. Also correcting Almeida´s %for is 100% of the 65% of eucalyptus area. Pa &amp; E0 from Table 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitored from 34 month before harvest, to 14 month after harvest. Pa &amp; DQf calculated fron discharge in Table II (mm) (459/424-248/1027)/(248/1027)=+85%. E0 from Table III. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2685,7 +2713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2851,6 +2879,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3164,15 +3195,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="12" width="15.59765625" style="2"/>
     <col min="13" max="14" width="15.59765625" style="4"/>
@@ -3182,7 +3213,7 @@
     <col min="23" max="16384" width="15.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3278,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3310,7 +3341,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3373,7 +3404,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3436,7 +3467,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3499,7 +3530,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3562,7 +3593,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3623,7 +3654,7 @@
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3684,7 +3715,7 @@
       </c>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3745,7 +3776,7 @@
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3808,7 +3839,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3869,7 +3900,7 @@
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3930,7 +3961,7 @@
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3991,7 +4022,7 @@
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -4054,7 +4085,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4115,7 +4146,7 @@
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4178,7 +4209,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4240,7 +4271,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4303,7 +4334,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4364,7 +4395,7 @@
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4425,7 +4456,7 @@
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4486,7 +4517,7 @@
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4549,7 +4580,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4612,7 +4643,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4675,7 +4706,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4737,7 +4768,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4800,7 +4831,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4859,7 +4890,7 @@
       </c>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4922,7 +4953,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4981,7 +5012,7 @@
       </c>
       <c r="U29" s="27"/>
     </row>
-    <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5042,7 +5073,7 @@
       </c>
       <c r="U30" s="27"/>
     </row>
-    <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5103,7 +5134,7 @@
       </c>
       <c r="U31" s="27"/>
     </row>
-    <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5164,7 +5195,7 @@
       </c>
       <c r="U32" s="27"/>
     </row>
-    <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5227,7 +5258,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5288,7 +5319,7 @@
       </c>
       <c r="U34" s="27"/>
     </row>
-    <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5347,7 +5378,7 @@
       </c>
       <c r="U35" s="27"/>
     </row>
-    <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5406,7 +5437,7 @@
       </c>
       <c r="U36" s="27"/>
     </row>
-    <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5467,7 +5498,7 @@
       </c>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5527,7 +5558,7 @@
       </c>
       <c r="U38" s="27"/>
     </row>
-    <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5588,7 +5619,7 @@
       </c>
       <c r="U39" s="27"/>
     </row>
-    <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5649,7 +5680,7 @@
       </c>
       <c r="U40" s="27"/>
     </row>
-    <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5710,7 +5741,7 @@
       </c>
       <c r="U41" s="27"/>
     </row>
-    <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5773,7 +5804,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5836,7 +5867,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5898,7 +5929,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5960,7 +5991,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6020,7 +6051,7 @@
       </c>
       <c r="U46" s="27"/>
     </row>
-    <row r="47" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6083,7 +6114,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6145,7 +6176,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6208,7 +6239,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6269,7 +6300,7 @@
       </c>
       <c r="U50" s="27"/>
     </row>
-    <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6332,7 +6363,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6395,7 +6426,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6456,7 +6487,7 @@
       </c>
       <c r="U53" s="27"/>
     </row>
-    <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6515,7 +6546,7 @@
       </c>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6578,7 +6609,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6639,7 +6670,7 @@
       </c>
       <c r="U56" s="27"/>
     </row>
-    <row r="57" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6700,7 +6731,7 @@
       </c>
       <c r="U57" s="27"/>
     </row>
-    <row r="58" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6759,7 +6790,7 @@
       </c>
       <c r="U58" s="27"/>
     </row>
-    <row r="59" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6820,7 +6851,7 @@
       </c>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6880,7 +6911,7 @@
       </c>
       <c r="U60" s="27"/>
     </row>
-    <row r="61" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6943,7 +6974,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -7006,33 +7037,31 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>761</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L63" xr:uid="{29CA6CB8-28F4-480A-8011-F310B3E1710B}"/>
+  <autoFilter ref="L1:L63" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AFE286-8638-404F-9DBC-2F4BDB10044C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A1:U252"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.53125" style="2" customWidth="1"/>
-    <col min="3" max="10" width="15.59765625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="15.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.59765625" style="15" customWidth="1"/>
     <col min="13" max="14" width="15.59765625" style="9" customWidth="1"/>
     <col min="15" max="17" width="15.59765625" style="2" customWidth="1"/>
@@ -7044,7 +7073,7 @@
     <col min="23" max="16384" width="10.59765625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7110,7 +7139,7 @@
       </c>
       <c r="V1" s="30"/>
     </row>
-    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>62</v>
       </c>
@@ -7174,7 +7203,7 @@
       </c>
       <c r="V2" s="31"/>
     </row>
-    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>63</v>
       </c>
@@ -7238,7 +7267,7 @@
       </c>
       <c r="V3" s="31"/>
     </row>
-    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>64</v>
       </c>
@@ -7300,7 +7329,7 @@
       <c r="U4"/>
       <c r="V4" s="31"/>
     </row>
-    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>65</v>
       </c>
@@ -7362,7 +7391,7 @@
       <c r="U5"/>
       <c r="V5" s="31"/>
     </row>
-    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>66</v>
       </c>
@@ -7424,7 +7453,7 @@
       <c r="U6"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>67</v>
       </c>
@@ -7488,7 +7517,7 @@
       </c>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>68</v>
       </c>
@@ -7552,7 +7581,7 @@
       </c>
       <c r="V8" s="31"/>
     </row>
-    <row r="9" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>69</v>
       </c>
@@ -7615,7 +7644,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>70</v>
       </c>
@@ -7678,7 +7707,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>71</v>
       </c>
@@ -7741,7 +7770,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>72</v>
       </c>
@@ -7804,7 +7833,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="66">
         <v>73</v>
       </c>
@@ -7867,7 +7896,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>74</v>
       </c>
@@ -7930,7 +7959,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>75</v>
       </c>
@@ -7993,7 +8022,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>76</v>
       </c>
@@ -8056,7 +8085,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>77</v>
       </c>
@@ -8119,7 +8148,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>78</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>79</v>
       </c>
@@ -8245,7 +8274,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>80</v>
       </c>
@@ -8308,7 +8337,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>81</v>
       </c>
@@ -8371,7 +8400,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>82</v>
       </c>
@@ -8434,7 +8463,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>83</v>
       </c>
@@ -8497,7 +8526,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>84</v>
       </c>
@@ -8558,7 +8587,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8623,7 +8652,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>86</v>
       </c>
@@ -8686,7 +8715,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>87</v>
       </c>
@@ -8749,7 +8778,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>88</v>
       </c>
@@ -8812,7 +8841,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="66">
         <v>89</v>
       </c>
@@ -8875,7 +8904,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>90</v>
       </c>
@@ -8938,7 +8967,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>91</v>
       </c>
@@ -8999,7 +9028,7 @@
       <c r="T31"/>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>92</v>
       </c>
@@ -9062,7 +9091,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>93</v>
       </c>
@@ -9127,7 +9156,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>94</v>
       </c>
@@ -9190,7 +9219,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>95</v>
       </c>
@@ -9253,7 +9282,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>96</v>
       </c>
@@ -9314,7 +9343,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="66">
         <v>97</v>
       </c>
@@ -9377,7 +9406,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>98</v>
       </c>
@@ -9438,7 +9467,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>99</v>
       </c>
@@ -9499,7 +9528,7 @@
       <c r="T39"/>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>100</v>
       </c>
@@ -9562,7 +9591,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>101</v>
       </c>
@@ -9623,7 +9652,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>102</v>
       </c>
@@ -9686,7 +9715,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>103</v>
       </c>
@@ -9749,7 +9778,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>104</v>
       </c>
@@ -9812,7 +9841,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>105</v>
       </c>
@@ -9875,7 +9904,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>106</v>
       </c>
@@ -9938,7 +9967,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>107</v>
       </c>
@@ -10001,7 +10030,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>108</v>
       </c>
@@ -10064,7 +10093,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>109</v>
       </c>
@@ -10127,7 +10156,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>110</v>
       </c>
@@ -10190,7 +10219,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>111</v>
       </c>
@@ -10253,7 +10282,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>112</v>
       </c>
@@ -10316,7 +10345,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>113</v>
       </c>
@@ -10379,7 +10408,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>114</v>
       </c>
@@ -10442,7 +10471,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>115</v>
       </c>
@@ -10505,7 +10534,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>116</v>
       </c>
@@ -10568,7 +10597,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>117</v>
       </c>
@@ -10631,7 +10660,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>118</v>
       </c>
@@ -10694,7 +10723,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>119</v>
       </c>
@@ -10755,7 +10784,7 @@
       <c r="T59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>120</v>
       </c>
@@ -10818,7 +10847,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>121</v>
       </c>
@@ -10881,7 +10910,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>122</v>
       </c>
@@ -10942,7 +10971,7 @@
       <c r="T62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="66">
         <v>123</v>
       </c>
@@ -11005,7 +11034,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>124</v>
       </c>
@@ -11068,7 +11097,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>125</v>
       </c>
@@ -11129,7 +11158,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>126</v>
       </c>
@@ -11190,7 +11219,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>127</v>
       </c>
@@ -11253,7 +11282,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>128</v>
       </c>
@@ -11316,7 +11345,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>129</v>
       </c>
@@ -11379,7 +11408,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>130</v>
       </c>
@@ -11442,7 +11471,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>131</v>
       </c>
@@ -11505,7 +11534,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="66">
         <v>132</v>
       </c>
@@ -11568,7 +11597,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>133</v>
       </c>
@@ -11629,7 +11658,7 @@
       <c r="T73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>134</v>
       </c>
@@ -11694,7 +11723,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>135</v>
       </c>
@@ -11755,7 +11784,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>136</v>
       </c>
@@ -11816,7 +11845,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>137</v>
       </c>
@@ -11879,7 +11908,7 @@
       </c>
       <c r="U77"/>
     </row>
-    <row r="78" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>138</v>
       </c>
@@ -11940,7 +11969,7 @@
       <c r="T78"/>
       <c r="U78"/>
     </row>
-    <row r="79" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>139</v>
       </c>
@@ -12003,7 +12032,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>140</v>
       </c>
@@ -12064,7 +12093,7 @@
       <c r="T80"/>
       <c r="U80"/>
     </row>
-    <row r="81" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>141</v>
       </c>
@@ -12125,7 +12154,7 @@
       <c r="T81"/>
       <c r="U81"/>
     </row>
-    <row r="82" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>142</v>
       </c>
@@ -12188,7 +12217,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>143</v>
       </c>
@@ -12249,7 +12278,7 @@
       <c r="T83"/>
       <c r="U83"/>
     </row>
-    <row r="84" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>144</v>
       </c>
@@ -12312,7 +12341,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>145</v>
       </c>
@@ -12377,7 +12406,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>146</v>
       </c>
@@ -12442,7 +12471,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>147</v>
       </c>
@@ -12505,7 +12534,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>148</v>
       </c>
@@ -12568,7 +12597,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>149</v>
       </c>
@@ -12631,7 +12660,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>150</v>
       </c>
@@ -12694,7 +12723,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>151</v>
       </c>
@@ -12759,7 +12788,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>152</v>
       </c>
@@ -12824,7 +12853,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>153</v>
       </c>
@@ -12889,7 +12918,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>154</v>
       </c>
@@ -12952,7 +12981,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>155</v>
       </c>
@@ -13015,7 +13044,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>156</v>
       </c>
@@ -13080,7 +13109,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>157</v>
       </c>
@@ -13145,7 +13174,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>158</v>
       </c>
@@ -13203,7 +13232,7 @@
       </c>
       <c r="V98" s="31"/>
     </row>
-    <row r="99" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>159</v>
       </c>
@@ -13268,7 +13297,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>160</v>
       </c>
@@ -13333,7 +13362,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="66">
         <v>161</v>
       </c>
@@ -13396,7 +13425,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="66">
         <v>162</v>
       </c>
@@ -13459,7 +13488,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="66">
         <v>163</v>
       </c>
@@ -13522,7 +13551,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>164</v>
       </c>
@@ -13585,7 +13614,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>165</v>
       </c>
@@ -13650,7 +13679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>166</v>
       </c>
@@ -13713,7 +13742,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>167</v>
       </c>
@@ -13774,7 +13803,7 @@
       <c r="T107"/>
       <c r="U107"/>
     </row>
-    <row r="108" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>168</v>
       </c>
@@ -13837,7 +13866,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>169</v>
       </c>
@@ -13898,7 +13927,7 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>170</v>
       </c>
@@ -13961,7 +13990,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>171</v>
       </c>
@@ -14022,7 +14051,7 @@
       <c r="T111"/>
       <c r="U111"/>
     </row>
-    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>172</v>
       </c>
@@ -14084,7 +14113,7 @@
       <c r="U112"/>
       <c r="V112" s="31"/>
     </row>
-    <row r="113" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>173</v>
       </c>
@@ -14145,7 +14174,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>174</v>
       </c>
@@ -14206,7 +14235,7 @@
       <c r="T114"/>
       <c r="U114"/>
     </row>
-    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>175</v>
       </c>
@@ -14270,7 +14299,7 @@
       </c>
       <c r="V115" s="31"/>
     </row>
-    <row r="116" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>176</v>
       </c>
@@ -14333,7 +14362,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>177</v>
       </c>
@@ -14396,7 +14425,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>178</v>
       </c>
@@ -14458,7 +14487,7 @@
       <c r="U118"/>
       <c r="V118" s="31"/>
     </row>
-    <row r="119" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>179</v>
       </c>
@@ -14521,7 +14550,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>180</v>
       </c>
@@ -14584,7 +14613,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="66">
         <v>181</v>
       </c>
@@ -14647,7 +14676,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>182</v>
       </c>
@@ -14708,7 +14737,7 @@
       <c r="T122"/>
       <c r="U122"/>
     </row>
-    <row r="123" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>183</v>
       </c>
@@ -14769,7 +14798,7 @@
       <c r="T123"/>
       <c r="U123"/>
     </row>
-    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>184</v>
       </c>
@@ -14835,7 +14864,7 @@
       </c>
       <c r="V124" s="31"/>
     </row>
-    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>185</v>
       </c>
@@ -14885,7 +14914,7 @@
       </c>
       <c r="V125" s="31"/>
     </row>
-    <row r="126" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>186</v>
       </c>
@@ -14946,7 +14975,7 @@
       <c r="T126"/>
       <c r="U126"/>
     </row>
-    <row r="127" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>187</v>
       </c>
@@ -15009,7 +15038,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="68">
         <v>188</v>
       </c>
@@ -15070,7 +15099,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>189</v>
       </c>
@@ -15130,7 +15159,7 @@
       </c>
       <c r="V129" s="31"/>
     </row>
-    <row r="130" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>190</v>
       </c>
@@ -15191,7 +15220,7 @@
       <c r="T130"/>
       <c r="U130"/>
     </row>
-    <row r="131" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>191</v>
       </c>
@@ -15254,7 +15283,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>192</v>
       </c>
@@ -15317,7 +15346,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>193</v>
       </c>
@@ -15378,7 +15407,7 @@
       <c r="T133"/>
       <c r="U133"/>
     </row>
-    <row r="134" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>194</v>
       </c>
@@ -15441,7 +15470,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>195</v>
       </c>
@@ -15504,7 +15533,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>196</v>
       </c>
@@ -15567,7 +15596,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>197</v>
       </c>
@@ -15617,7 +15646,7 @@
       </c>
       <c r="V137" s="31"/>
     </row>
-    <row r="138" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>198</v>
       </c>
@@ -15678,7 +15707,7 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
-    <row r="139" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>199</v>
       </c>
@@ -15741,7 +15770,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>200</v>
       </c>
@@ -15802,7 +15831,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>201</v>
       </c>
@@ -15861,7 +15890,7 @@
       <c r="T141"/>
       <c r="U141"/>
     </row>
-    <row r="142" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>202</v>
       </c>
@@ -15922,7 +15951,7 @@
       <c r="T142"/>
       <c r="U142"/>
     </row>
-    <row r="143" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>203</v>
       </c>
@@ -15985,7 +16014,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>204</v>
       </c>
@@ -16048,7 +16077,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>205</v>
       </c>
@@ -16109,7 +16138,7 @@
       <c r="T145"/>
       <c r="U145"/>
     </row>
-    <row r="146" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>206</v>
       </c>
@@ -16170,7 +16199,7 @@
       <c r="T146"/>
       <c r="U146"/>
     </row>
-    <row r="147" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>207</v>
       </c>
@@ -16233,7 +16262,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>208</v>
       </c>
@@ -16296,7 +16325,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>209</v>
       </c>
@@ -16359,7 +16388,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>210</v>
       </c>
@@ -16422,7 +16451,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>211</v>
       </c>
@@ -16483,7 +16512,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>212</v>
       </c>
@@ -16544,7 +16573,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>213</v>
       </c>
@@ -16607,7 +16636,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>214</v>
       </c>
@@ -16670,7 +16699,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>215</v>
       </c>
@@ -16733,7 +16762,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>216</v>
       </c>
@@ -16794,7 +16823,7 @@
       <c r="T156"/>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>217</v>
       </c>
@@ -16855,7 +16884,7 @@
       <c r="T157"/>
       <c r="U157"/>
     </row>
-    <row r="158" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>218</v>
       </c>
@@ -16916,7 +16945,7 @@
       <c r="T158"/>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>219</v>
       </c>
@@ -16979,7 +17008,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>220</v>
       </c>
@@ -17044,7 +17073,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>221</v>
       </c>
@@ -17107,7 +17136,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>222</v>
       </c>
@@ -17170,7 +17199,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>223</v>
       </c>
@@ -17235,7 +17264,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>224</v>
       </c>
@@ -17298,7 +17327,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>225</v>
       </c>
@@ -17362,7 +17391,7 @@
       </c>
       <c r="V165" s="31"/>
     </row>
-    <row r="166" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>226</v>
       </c>
@@ -17423,7 +17452,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>227</v>
       </c>
@@ -17488,7 +17517,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>228</v>
       </c>
@@ -17549,7 +17578,7 @@
       <c r="T168"/>
       <c r="U168"/>
     </row>
-    <row r="169" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>229</v>
       </c>
@@ -17610,7 +17639,7 @@
       <c r="T169"/>
       <c r="U169"/>
     </row>
-    <row r="170" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>230</v>
       </c>
@@ -17671,7 +17700,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>231</v>
       </c>
@@ -17734,7 +17763,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>232</v>
       </c>
@@ -17797,7 +17826,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>233</v>
       </c>
@@ -17860,7 +17889,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>234</v>
       </c>
@@ -17923,7 +17952,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>235</v>
       </c>
@@ -17986,7 +18015,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>236</v>
       </c>
@@ -18047,7 +18076,7 @@
       <c r="T176"/>
       <c r="U176"/>
     </row>
-    <row r="177" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>237</v>
       </c>
@@ -18110,7 +18139,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>238</v>
       </c>
@@ -18173,7 +18202,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>239</v>
       </c>
@@ -18238,7 +18267,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>240</v>
       </c>
@@ -18303,7 +18332,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>241</v>
       </c>
@@ -18364,7 +18393,7 @@
       <c r="T181"/>
       <c r="U181"/>
     </row>
-    <row r="182" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>242</v>
       </c>
@@ -18427,7 +18456,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>243</v>
       </c>
@@ -18488,7 +18517,7 @@
       <c r="T183"/>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="66">
         <v>244</v>
       </c>
@@ -18551,7 +18580,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>245</v>
       </c>
@@ -18612,7 +18641,7 @@
       <c r="T185"/>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>246</v>
       </c>
@@ -18673,7 +18702,7 @@
       <c r="T186"/>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>247</v>
       </c>
@@ -18736,7 +18765,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>248</v>
       </c>
@@ -18797,7 +18826,7 @@
       <c r="T188"/>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>249</v>
       </c>
@@ -18858,7 +18887,7 @@
       <c r="T189"/>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>250</v>
       </c>
@@ -18919,7 +18948,7 @@
       <c r="T190"/>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>251</v>
       </c>
@@ -18982,7 +19011,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>252</v>
       </c>
@@ -19043,7 +19072,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>253</v>
       </c>
@@ -19104,7 +19133,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="68">
         <v>254</v>
       </c>
@@ -19165,7 +19194,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>255</v>
       </c>
@@ -19228,7 +19257,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>256</v>
       </c>
@@ -19291,7 +19320,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>257</v>
       </c>
@@ -19354,7 +19383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>258</v>
       </c>
@@ -19417,7 +19446,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>259</v>
       </c>
@@ -19480,7 +19509,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>260</v>
       </c>
@@ -19545,7 +19574,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>261</v>
       </c>
@@ -19606,7 +19635,7 @@
       <c r="T201"/>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>262</v>
       </c>
@@ -19667,7 +19696,7 @@
       <c r="T202"/>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>263</v>
       </c>
@@ -19728,7 +19757,7 @@
       <c r="T203"/>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>264</v>
       </c>
@@ -19793,7 +19822,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>265</v>
       </c>
@@ -19858,7 +19887,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>266</v>
       </c>
@@ -19919,7 +19948,7 @@
       <c r="T206"/>
       <c r="U206"/>
     </row>
-    <row r="207" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>267</v>
       </c>
@@ -19982,7 +20011,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>268</v>
       </c>
@@ -20045,7 +20074,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>269</v>
       </c>
@@ -20108,7 +20137,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>270</v>
       </c>
@@ -20171,7 +20200,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="66">
         <v>271</v>
       </c>
@@ -20234,7 +20263,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>272</v>
       </c>
@@ -20297,7 +20326,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>273</v>
       </c>
@@ -20358,7 +20387,7 @@
       <c r="T213"/>
       <c r="U213"/>
     </row>
-    <row r="214" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>274</v>
       </c>
@@ -20419,7 +20448,7 @@
       <c r="T214"/>
       <c r="U214"/>
     </row>
-    <row r="215" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>275</v>
       </c>
@@ -20482,7 +20511,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>276</v>
       </c>
@@ -20543,7 +20572,7 @@
       <c r="T216"/>
       <c r="U216"/>
     </row>
-    <row r="217" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>277</v>
       </c>
@@ -20606,7 +20635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>278</v>
       </c>
@@ -20663,7 +20692,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>279</v>
       </c>
@@ -20724,7 +20753,7 @@
       <c r="T219"/>
       <c r="U219"/>
     </row>
-    <row r="220" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>280</v>
       </c>
@@ -20785,7 +20814,7 @@
       <c r="T220"/>
       <c r="U220"/>
     </row>
-    <row r="221" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>281</v>
       </c>
@@ -20846,7 +20875,7 @@
       <c r="T221"/>
       <c r="U221"/>
     </row>
-    <row r="222" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>282</v>
       </c>
@@ -20907,7 +20936,7 @@
       <c r="T222"/>
       <c r="U222"/>
     </row>
-    <row r="223" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="66">
         <v>283</v>
       </c>
@@ -20970,7 +20999,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>284</v>
       </c>
@@ -21031,7 +21060,7 @@
       <c r="T224"/>
       <c r="U224"/>
     </row>
-    <row r="225" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>285</v>
       </c>
@@ -21092,7 +21121,7 @@
       <c r="T225"/>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>286</v>
       </c>
@@ -21153,7 +21182,7 @@
       <c r="T226"/>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>287</v>
       </c>
@@ -21214,7 +21243,7 @@
       <c r="T227"/>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>288</v>
       </c>
@@ -21275,7 +21304,7 @@
       <c r="T228"/>
       <c r="U228"/>
     </row>
-    <row r="229" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>289</v>
       </c>
@@ -21336,7 +21365,7 @@
       <c r="T229"/>
       <c r="U229"/>
     </row>
-    <row r="230" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>290</v>
       </c>
@@ -21397,7 +21426,7 @@
       <c r="T230"/>
       <c r="U230"/>
     </row>
-    <row r="231" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>291</v>
       </c>
@@ -21460,7 +21489,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>292</v>
       </c>
@@ -21521,7 +21550,7 @@
       <c r="T232"/>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>293</v>
       </c>
@@ -21582,7 +21611,7 @@
       <c r="T233"/>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>294</v>
       </c>
@@ -21645,7 +21674,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>295</v>
       </c>
@@ -21708,7 +21737,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>296</v>
       </c>
@@ -21771,7 +21800,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>297</v>
       </c>
@@ -21832,7 +21861,7 @@
       <c r="T237"/>
       <c r="U237"/>
     </row>
-    <row r="238" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>298</v>
       </c>
@@ -21895,7 +21924,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>299</v>
       </c>
@@ -21956,7 +21985,7 @@
       <c r="T239"/>
       <c r="U239"/>
     </row>
-    <row r="240" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>300</v>
       </c>
@@ -22017,7 +22046,7 @@
       <c r="T240"/>
       <c r="U240"/>
     </row>
-    <row r="241" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>301</v>
       </c>
@@ -22080,7 +22109,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>302</v>
       </c>
@@ -22145,7 +22174,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>303</v>
       </c>
@@ -22210,7 +22239,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>304</v>
       </c>
@@ -22275,7 +22304,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>305</v>
       </c>
@@ -22338,7 +22367,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>306</v>
       </c>
@@ -22403,7 +22432,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>307</v>
       </c>
@@ -22466,7 +22495,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>308</v>
       </c>
@@ -22529,7 +22558,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>309</v>
       </c>
@@ -22592,7 +22621,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>310</v>
       </c>
@@ -22655,7 +22684,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>311</v>
       </c>
@@ -22716,7 +22745,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>312</v>
       </c>
@@ -22780,7 +22809,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L252" xr:uid="{32AFE286-8638-404F-9DBC-2F4BDB10044C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T253">
     <sortCondition ref="B65:B253"/>
   </sortState>
@@ -22791,15 +22819,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}">
-  <dimension ref="A1:AT46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="15.59765625" style="9"/>
     <col min="7" max="7" width="15.59765625" style="55"/>
@@ -22814,7 +22842,7 @@
     <col min="47" max="16384" width="15.59765625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -22904,7 +22932,7 @@
       <c r="AS1" s="49"/>
       <c r="AT1" s="49"/>
     </row>
-    <row r="2" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>313</v>
       </c>
@@ -22965,7 +22993,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>314</v>
       </c>
@@ -23026,7 +23054,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>315</v>
       </c>
@@ -23087,7 +23115,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="33"/>
     </row>
-    <row r="5" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>316</v>
       </c>
@@ -23148,7 +23176,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>317</v>
       </c>
@@ -23209,7 +23237,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>318</v>
       </c>
@@ -23270,7 +23298,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="33"/>
     </row>
-    <row r="8" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>319</v>
       </c>
@@ -23331,7 +23359,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="33"/>
     </row>
-    <row r="9" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>320</v>
       </c>
@@ -23392,7 +23420,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>321</v>
       </c>
@@ -23453,7 +23481,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>322</v>
       </c>
@@ -23514,7 +23542,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>323</v>
       </c>
@@ -23575,7 +23603,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>324</v>
       </c>
@@ -23640,7 +23668,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>325</v>
       </c>
@@ -23701,7 +23729,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>326</v>
       </c>
@@ -23762,7 +23790,7 @@
       <c r="T15" s="15"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>327</v>
       </c>
@@ -23823,7 +23851,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>328</v>
       </c>
@@ -23887,7 +23915,7 @@
       </c>
       <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>329</v>
       </c>
@@ -23946,7 +23974,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>330</v>
       </c>
@@ -24009,7 +24037,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>331</v>
       </c>
@@ -24072,7 +24100,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>332</v>
       </c>
@@ -24135,7 +24163,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>333</v>
       </c>
@@ -24196,7 +24224,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>334</v>
       </c>
@@ -24261,7 +24289,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>335</v>
       </c>
@@ -24324,7 +24352,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>336</v>
       </c>
@@ -24388,7 +24416,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>337</v>
       </c>
@@ -24453,7 +24481,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <f>A26+1</f>
         <v>338</v>
@@ -24517,9 +24545,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <f t="shared" ref="A28:A46" si="0">A27+1</f>
+        <f t="shared" ref="A28:A50" si="0">A27+1</f>
         <v>339</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -24582,7 +24610,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -24645,7 +24673,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -24708,7 +24736,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>342</v>
@@ -24771,7 +24799,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>343</v>
@@ -24834,7 +24862,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -24897,7 +24925,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>345</v>
@@ -24960,7 +24988,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>346</v>
@@ -25023,7 +25051,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>347</v>
@@ -25086,7 +25114,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>348</v>
@@ -25149,7 +25177,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>349</v>
@@ -25212,7 +25240,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -25277,7 +25305,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -25343,7 +25371,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>352</v>
@@ -25404,7 +25432,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>353</v>
@@ -25469,7 +25497,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>354</v>
@@ -25534,7 +25562,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>355</v>
@@ -25601,7 +25629,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>356</v>
@@ -25668,7 +25696,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37">
         <f t="shared" si="0"/>
         <v>357</v>
@@ -25734,8 +25762,244 @@
         <v>747</v>
       </c>
     </row>
+    <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="69">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>813</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1507</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="55">
+        <f>-0.3*61</f>
+        <v>-18.3</v>
+      </c>
+      <c r="H47" s="9">
+        <v>119</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1293</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-30.510100000000001</v>
+      </c>
+      <c r="N47" s="9">
+        <v>-54.165700000000001</v>
+      </c>
+      <c r="O47" s="9">
+        <v>4</v>
+      </c>
+      <c r="P47" s="9">
+        <v>2011</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>2015</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="V47" s="57"/>
+    </row>
+    <row r="48" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="69">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>814</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1388</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="55">
+        <f>-1*65</f>
+        <v>-65</v>
+      </c>
+      <c r="H48" s="9">
+        <v>348</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1293</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-30.506900000000002</v>
+      </c>
+      <c r="N48" s="9">
+        <v>-54.167900000000003</v>
+      </c>
+      <c r="O48" s="9">
+        <v>4</v>
+      </c>
+      <c r="P48" s="9">
+        <v>2011</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>2015</v>
+      </c>
+      <c r="U48" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="V48" s="57"/>
+    </row>
+    <row r="49" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="69">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>813</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2039</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="55">
+        <f>0.3*61</f>
+        <v>18.3</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="L49" s="9">
+        <v>1179</v>
+      </c>
+      <c r="M49" s="9">
+        <v>-30.510100000000001</v>
+      </c>
+      <c r="N49" s="9">
+        <v>-54.165700000000001</v>
+      </c>
+      <c r="O49" s="9">
+        <v>4</v>
+      </c>
+      <c r="P49" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U49" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="V49" s="71"/>
+    </row>
+    <row r="50" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="69">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2039</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="55">
+        <f>1*65</f>
+        <v>65</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-40</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1179</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-30.506900000000002</v>
+      </c>
+      <c r="N50" s="9">
+        <v>-54.167900000000003</v>
+      </c>
+      <c r="O50" s="9">
+        <v>4</v>
+      </c>
+      <c r="P50" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>2018</v>
+      </c>
+      <c r="U50" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="V50" s="57"/>
+    </row>
   </sheetData>
-  <autoFilter ref="L1:L46" xr:uid="{4BD75620-6F76-4BA6-A94E-CE93109D006F}"/>
+  <autoFilter ref="L1:L46" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4EF6C8C-7562-471F-92E7-B9247E37EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC989E-5239-49E6-8715-543A4F117350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LargeCatchments_T1" sheetId="1" r:id="rId1"/>
@@ -1312,9 +1312,6 @@
     <t>Thomson</t>
   </si>
   <si>
-    <t>Borg et at. , 1988</t>
-  </si>
-  <si>
     <t>Three Bar, Artz, USA, B</t>
   </si>
   <si>
@@ -2332,9 +2329,6 @@
   </si>
   <si>
     <t>From Bosh and Hawlett, 1982 In 1966 82% clearcut and burned in 1967</t>
-  </si>
-  <si>
-    <t>catchment B, in Beck 2013 time was calculated considering landuse maps and data availability, USGS ID 034000. (1996–1998 were excluded)</t>
   </si>
   <si>
     <t>Lambrechtsbos B</t>
@@ -2401,9 +2395,6 @@
 southwest of the Spout Springs Winter Recreation Area in https://www.fs.fed.us/pnw/pubs/pnw_rn361.pdf</t>
   </si>
   <si>
-    <t>This should a decreas in forest cover rather than an increase.</t>
-  </si>
-  <si>
     <t>Bosboukloof, see also notes on 184 and Slingsby et al. 2021 DOI: 10.1002/hyp.14101  The Scott paper only analyses 1 year after fire, so it should be a decrease in cover, changed to -80</t>
   </si>
   <si>
@@ -2546,6 +2537,15 @@
   </si>
   <si>
     <t xml:space="preserve">Monitored from 34 month before harvest, to 14 month after harvest. Pa &amp; DQf calculated fron discharge in Table II (mm) (459/424-248/1027)/(248/1027)=+85%. E0 from Table III. </t>
+  </si>
+  <si>
+    <t>Borg et al. , 1988</t>
+  </si>
+  <si>
+    <t>catchment B, in Beck 2013 time was calculated considering landuse maps and data availability, USGS ID 034000. (1996–1998 were excluded). Paper says results were insignificant</t>
+  </si>
+  <si>
+    <t>This should be a decrease in forest cover rather than an increase.</t>
   </si>
 </sst>
 </file>
@@ -3233,13 +3233,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>749</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>6</v>
@@ -3248,34 +3248,34 @@
         <v>7</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P1" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" s="35" t="s">
-        <v>536</v>
-      </c>
       <c r="R1" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="S1" s="35" t="s">
-        <v>764</v>
-      </c>
       <c r="T1" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3332,13 +3332,13 @@
         <v>1978</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S2" s="26">
         <v>1</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3395,13 +3395,13 @@
         <v>1990</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S3" s="26">
         <v>1</v>
       </c>
       <c r="U3" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3458,13 +3458,13 @@
         <v>1996</v>
       </c>
       <c r="R4" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="S4" s="26">
+        <v>1</v>
+      </c>
+      <c r="U4" s="27" t="s">
         <v>518</v>
-      </c>
-      <c r="S4" s="26">
-        <v>1</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3521,13 +3521,13 @@
         <v>2000</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S5" s="26">
         <v>1</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3584,13 +3584,13 @@
         <v>1955</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S6" s="26">
         <v>1</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3647,7 +3647,7 @@
         <v>2007</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S7" s="26">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>1979</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S8" s="26">
         <v>1</v>
@@ -3769,7 +3769,7 @@
         <v>2000</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S9" s="26">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L10" s="1">
         <v>1481</v>
@@ -3830,13 +3830,13 @@
         <v>2000</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S10" s="26">
         <v>1</v>
       </c>
       <c r="U10" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3893,7 +3893,7 @@
         <v>2000</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S11" s="26">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>2005</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S12" s="26">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>2000</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S13" s="26">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L14" s="1">
         <v>1414</v>
@@ -4076,13 +4076,13 @@
         <v>2000</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S14" s="26">
         <v>1</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4139,7 +4139,7 @@
         <v>2008</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S15" s="26">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L16" s="1">
         <v>1482</v>
@@ -4200,13 +4200,13 @@
         <v>2000</v>
       </c>
       <c r="R16" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="S16" s="26">
+        <v>1</v>
+      </c>
+      <c r="U16" s="27" t="s">
         <v>521</v>
-      </c>
-      <c r="S16" s="26">
-        <v>1</v>
-      </c>
-      <c r="U16" s="27" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4262,13 +4262,13 @@
         <v>2000</v>
       </c>
       <c r="R17" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="S17" s="26">
+        <v>1</v>
+      </c>
+      <c r="U17" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="S17" s="26">
-        <v>1</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4303,7 +4303,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L18" s="1">
         <v>1481</v>
@@ -4325,13 +4325,13 @@
         <v>2000</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S18" s="26">
         <v>1</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4388,7 +4388,7 @@
         <v>1999</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S19" s="26">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>2006</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S20" s="26">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>2006</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S21" s="26">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L22" s="1">
         <v>1444</v>
@@ -4571,13 +4571,13 @@
         <v>2000</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S22" s="26">
         <v>1</v>
       </c>
       <c r="U22" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4634,13 +4634,13 @@
         <v>1996</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S23" s="26">
         <v>1</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4697,13 +4697,13 @@
         <v>1996</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S24" s="26">
         <v>1</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4759,13 +4759,13 @@
         <v>1996</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S25" s="26">
         <v>1</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4822,13 +4822,13 @@
         <v>1997</v>
       </c>
       <c r="R26" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S26" s="26">
         <v>1</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4883,7 +4883,7 @@
         <v>1998</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S27" s="26">
         <v>1</v>
@@ -4944,13 +4944,13 @@
         <v>1998</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S28" s="26">
         <v>1</v>
       </c>
       <c r="U28" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5005,7 +5005,7 @@
         <v>1999</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S29" s="26">
         <v>1</v>
@@ -5066,7 +5066,7 @@
         <v>2000</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S30" s="26">
         <v>1</v>
@@ -5127,7 +5127,7 @@
         <v>1984</v>
       </c>
       <c r="R31" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S31" s="26">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>2006</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S32" s="26">
         <v>1</v>
@@ -5249,13 +5249,13 @@
         <v>1983</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S33" s="26">
         <v>1</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5312,7 +5312,7 @@
         <v>1993</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S34" s="26">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>2000</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S35" s="26">
         <v>1</v>
@@ -5430,7 +5430,7 @@
         <v>2001</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S36" s="26">
         <v>1</v>
@@ -5491,7 +5491,7 @@
         <v>1988</v>
       </c>
       <c r="R37" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S37" s="26">
         <v>1</v>
@@ -5551,7 +5551,7 @@
         <v>2000</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S38" s="26">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>2002</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S39" s="26">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>2001</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S40" s="26">
         <v>1</v>
@@ -5734,7 +5734,7 @@
         <v>1993</v>
       </c>
       <c r="R41" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S41" s="26">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>36</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L42" s="1">
         <v>1386</v>
@@ -5795,13 +5795,13 @@
         <v>2000</v>
       </c>
       <c r="R42" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S42" s="26">
         <v>1</v>
       </c>
       <c r="U42" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5836,7 +5836,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L43" s="1">
         <v>1396</v>
@@ -5858,13 +5858,13 @@
         <v>2000</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S43" s="26">
         <v>1</v>
       </c>
       <c r="U43" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5920,13 +5920,13 @@
         <v>2000</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S44" s="26">
         <v>1</v>
       </c>
       <c r="U44" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5982,13 +5982,13 @@
         <v>2000</v>
       </c>
       <c r="R45" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S45" s="26">
         <v>1</v>
       </c>
       <c r="U45" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6044,7 +6044,7 @@
         <v>1995</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S46" s="26">
         <v>1</v>
@@ -6105,13 +6105,13 @@
         <v>2009</v>
       </c>
       <c r="R47" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S47" s="26">
         <v>1</v>
       </c>
       <c r="U47" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6167,13 +6167,13 @@
         <v>2000</v>
       </c>
       <c r="R48" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S48" s="26">
         <v>1</v>
       </c>
       <c r="U48" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6230,13 +6230,13 @@
         <v>2008</v>
       </c>
       <c r="R49" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S49" s="26">
         <v>1</v>
       </c>
       <c r="U49" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6293,7 +6293,7 @@
         <v>1995</v>
       </c>
       <c r="R50" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S50" s="26">
         <v>1</v>
@@ -6354,13 +6354,13 @@
         <v>1993</v>
       </c>
       <c r="R51" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="S51" s="26">
+        <v>1</v>
+      </c>
+      <c r="U51" s="27" t="s">
         <v>515</v>
-      </c>
-      <c r="S51" s="26">
-        <v>1</v>
-      </c>
-      <c r="U51" s="27" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6417,13 +6417,13 @@
         <v>1996</v>
       </c>
       <c r="R52" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S52" s="26">
         <v>1</v>
       </c>
       <c r="U52" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6480,7 +6480,7 @@
         <v>2010</v>
       </c>
       <c r="R53" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S53" s="26">
         <v>1</v>
@@ -6539,7 +6539,7 @@
         <v>2002</v>
       </c>
       <c r="R54" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S54" s="26">
         <v>1</v>
@@ -6578,7 +6578,7 @@
         <v>36</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L55" s="1">
         <v>1440</v>
@@ -6600,13 +6600,13 @@
         <v>2000</v>
       </c>
       <c r="R55" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S55" s="26">
         <v>1</v>
       </c>
       <c r="U55" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6663,7 +6663,7 @@
         <v>2003</v>
       </c>
       <c r="R56" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S56" s="26">
         <v>1</v>
@@ -6724,7 +6724,7 @@
         <v>2000</v>
       </c>
       <c r="R57" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S57" s="26">
         <v>1</v>
@@ -6783,7 +6783,7 @@
         <v>2007</v>
       </c>
       <c r="R58" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S58" s="26">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>2010</v>
       </c>
       <c r="R59" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S59" s="26">
         <v>1</v>
@@ -6904,7 +6904,7 @@
         <v>2000</v>
       </c>
       <c r="R60" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S60" s="26">
         <v>1</v>
@@ -6943,7 +6943,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L61" s="1">
         <v>1433</v>
@@ -6965,13 +6965,13 @@
         <v>2000</v>
       </c>
       <c r="R61" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S61" s="26">
         <v>1</v>
       </c>
       <c r="U61" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7006,7 +7006,7 @@
         <v>36</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L62" s="21">
         <v>1306</v>
@@ -7028,18 +7028,18 @@
         <v>2000</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S62" s="22">
         <v>1</v>
       </c>
       <c r="U62" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -7053,9 +7053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U129" sqref="U129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7093,13 +7093,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1" t="s">
         <v>748</v>
       </c>
-      <c r="H1" t="s">
-        <v>749</v>
-      </c>
       <c r="I1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -7108,34 +7108,34 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" t="s">
-        <v>536</v>
-      </c>
       <c r="R1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="S1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V1" s="30"/>
     </row>
@@ -7192,14 +7192,14 @@
         <v>1970</v>
       </c>
       <c r="R2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2"/>
       <c r="U2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V2" s="31"/>
     </row>
@@ -7256,14 +7256,14 @@
         <v>1973</v>
       </c>
       <c r="R3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3"/>
       <c r="U3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V3" s="31"/>
     </row>
@@ -7320,7 +7320,7 @@
         <v>1974</v>
       </c>
       <c r="R4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -7382,7 +7382,7 @@
         <v>1974</v>
       </c>
       <c r="R5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -7444,7 +7444,7 @@
         <v>2007</v>
       </c>
       <c r="R6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -7485,7 +7485,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L7">
         <v>1967</v>
@@ -7506,14 +7506,14 @@
         <v>1985</v>
       </c>
       <c r="R7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7"/>
       <c r="U7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="V7" s="31"/>
     </row>
@@ -7570,14 +7570,14 @@
         <v>1979</v>
       </c>
       <c r="R8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8"/>
       <c r="U8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="V8" s="31"/>
     </row>
@@ -7634,14 +7634,14 @@
         <v>1979</v>
       </c>
       <c r="R9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9"/>
       <c r="U9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7697,14 +7697,14 @@
         <v>1989</v>
       </c>
       <c r="R10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10"/>
       <c r="U10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7712,7 +7712,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11">
         <v>7.7</v>
@@ -7760,14 +7760,14 @@
         <v>1989</v>
       </c>
       <c r="R11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11"/>
       <c r="U11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7823,14 +7823,14 @@
         <v>1999</v>
       </c>
       <c r="R12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7886,14 +7886,14 @@
         <v>2000</v>
       </c>
       <c r="R13" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S13" s="66">
         <v>1</v>
       </c>
       <c r="T13" s="66"/>
       <c r="U13" s="66" t="s">
-        <v>755</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7949,14 +7949,14 @@
         <v>1969</v>
       </c>
       <c r="R14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14"/>
       <c r="U14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7991,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L15">
         <v>510</v>
@@ -8012,14 +8012,14 @@
         <v>1968</v>
       </c>
       <c r="R15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15"/>
       <c r="U15" s="67" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8075,14 +8075,14 @@
         <v>1969</v>
       </c>
       <c r="R16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16"/>
       <c r="U16" s="67" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8138,14 +8138,14 @@
         <v>1963</v>
       </c>
       <c r="R17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17"/>
       <c r="U17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8201,14 +8201,14 @@
         <v>1985</v>
       </c>
       <c r="R18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18"/>
       <c r="U18" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8264,14 +8264,14 @@
         <v>1977</v>
       </c>
       <c r="R19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19"/>
       <c r="U19" s="67" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8327,14 +8327,14 @@
         <v>1982</v>
       </c>
       <c r="R20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20"/>
       <c r="U20" s="67" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8390,14 +8390,14 @@
         <v>1982</v>
       </c>
       <c r="R21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21"/>
       <c r="U21" s="67" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8453,14 +8453,14 @@
         <v>1982</v>
       </c>
       <c r="R22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22"/>
       <c r="U22" s="67" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8516,14 +8516,14 @@
         <v>1999</v>
       </c>
       <c r="R23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23"/>
       <c r="U23" t="s">
-        <v>775</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8579,7 +8579,7 @@
         <v>2001</v>
       </c>
       <c r="R24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -8640,7 +8640,7 @@
         <v>1987</v>
       </c>
       <c r="R25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8705,14 +8705,14 @@
         <v>1985</v>
       </c>
       <c r="R26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26"/>
       <c r="U26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8768,14 +8768,14 @@
         <v>1985</v>
       </c>
       <c r="R27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27"/>
       <c r="U27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8831,14 +8831,14 @@
         <v>1983</v>
       </c>
       <c r="R28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28"/>
       <c r="U28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8846,7 +8846,7 @@
         <v>89</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C29" s="66">
         <v>26.5</v>
@@ -8894,14 +8894,14 @@
         <v>2000</v>
       </c>
       <c r="R29" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S29" s="66">
         <v>1</v>
       </c>
       <c r="T29" s="66"/>
       <c r="U29" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8957,14 +8957,14 @@
         <v>1984</v>
       </c>
       <c r="R30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30"/>
       <c r="U30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9020,7 +9020,7 @@
         <v>1992</v>
       </c>
       <c r="R31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -9081,14 +9081,14 @@
         <v>1972</v>
       </c>
       <c r="R32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S32">
         <v>1</v>
       </c>
       <c r="T32"/>
       <c r="U32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9144,7 +9144,7 @@
         <v>1965</v>
       </c>
       <c r="R33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9209,14 +9209,14 @@
         <v>1958</v>
       </c>
       <c r="R34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
       <c r="T34"/>
       <c r="U34" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9272,14 +9272,14 @@
         <v>1958</v>
       </c>
       <c r="R35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35"/>
       <c r="U35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9314,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L36">
         <v>1814</v>
@@ -9335,7 +9335,7 @@
         <v>1978</v>
       </c>
       <c r="R36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -9396,14 +9396,14 @@
         <v>2000</v>
       </c>
       <c r="R37" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S37" s="66">
         <v>1</v>
       </c>
       <c r="T37" s="66"/>
       <c r="U37" s="66" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9459,7 +9459,7 @@
         <v>2007</v>
       </c>
       <c r="R38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -9520,7 +9520,7 @@
         <v>2007</v>
       </c>
       <c r="R39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -9581,14 +9581,14 @@
         <v>1988</v>
       </c>
       <c r="R40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="T41"/>
       <c r="U41" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9705,14 +9705,14 @@
         <v>1934</v>
       </c>
       <c r="R42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S42">
         <v>1</v>
       </c>
       <c r="T42"/>
       <c r="U42" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9768,14 +9768,14 @@
         <v>1985</v>
       </c>
       <c r="R43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9783,7 +9783,7 @@
         <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>0.18</v>
@@ -9831,14 +9831,14 @@
         <v>1957</v>
       </c>
       <c r="R44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S44">
         <v>1</v>
       </c>
       <c r="T44"/>
       <c r="U44" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9894,14 +9894,14 @@
         <v>2012</v>
       </c>
       <c r="R45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S45">
         <v>1</v>
       </c>
       <c r="T45"/>
       <c r="U45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9957,14 +9957,14 @@
         <v>1967</v>
       </c>
       <c r="R46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46"/>
       <c r="U46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10020,14 +10020,14 @@
         <v>1956</v>
       </c>
       <c r="R47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S47">
         <v>1</v>
       </c>
       <c r="T47"/>
       <c r="U47" s="67" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10062,7 +10062,7 @@
         <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L48">
         <v>1302</v>
@@ -10083,14 +10083,14 @@
         <v>1963</v>
       </c>
       <c r="R48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S48">
         <v>1</v>
       </c>
       <c r="T48"/>
       <c r="U48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10125,7 +10125,7 @@
         <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L49">
         <v>1302</v>
@@ -10146,14 +10146,14 @@
         <v>1967</v>
       </c>
       <c r="R49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49"/>
       <c r="U49" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10209,14 +10209,14 @@
         <v>1949</v>
       </c>
       <c r="R50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50"/>
       <c r="U50" s="67" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10272,14 +10272,14 @@
         <v>1967</v>
       </c>
       <c r="R51" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51"/>
       <c r="U51" s="67" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10335,14 +10335,14 @@
         <v>1964</v>
       </c>
       <c r="R52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52"/>
       <c r="U52" s="67" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10398,14 +10398,14 @@
         <v>1955</v>
       </c>
       <c r="R53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10461,14 +10461,14 @@
         <v>1984</v>
       </c>
       <c r="R54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54"/>
       <c r="U54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10503,7 +10503,7 @@
         <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L55">
         <v>1263</v>
@@ -10524,14 +10524,14 @@
         <v>1949</v>
       </c>
       <c r="R55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55"/>
       <c r="U55" s="67" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10566,7 +10566,7 @@
         <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L56">
         <v>1306</v>
@@ -10587,14 +10587,14 @@
         <v>1949</v>
       </c>
       <c r="R56" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56"/>
       <c r="U56" s="67" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10650,14 +10650,14 @@
         <v>1974</v>
       </c>
       <c r="R57" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57"/>
       <c r="U57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10713,14 +10713,14 @@
         <v>1983</v>
       </c>
       <c r="R58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S58">
         <v>1</v>
       </c>
       <c r="T58"/>
       <c r="U58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10776,7 +10776,7 @@
         <v>1976</v>
       </c>
       <c r="R59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -10816,7 +10816,7 @@
         <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L60">
         <v>1736</v>
@@ -10837,14 +10837,14 @@
         <v>1973</v>
       </c>
       <c r="R60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60"/>
       <c r="U60" s="67" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10879,7 +10879,7 @@
         <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L61">
         <v>1736</v>
@@ -10900,14 +10900,14 @@
         <v>1976</v>
       </c>
       <c r="R61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61"/>
       <c r="U61" s="67" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10963,7 +10963,7 @@
         <v>2008</v>
       </c>
       <c r="R62" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -11024,14 +11024,14 @@
         <v>2000</v>
       </c>
       <c r="R63" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S63" s="66">
         <v>1</v>
       </c>
       <c r="T63" s="66"/>
       <c r="U63" s="66" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11087,14 +11087,14 @@
         <v>2007</v>
       </c>
       <c r="R64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64"/>
       <c r="U64" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11150,7 +11150,7 @@
         <v>1993</v>
       </c>
       <c r="R65" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -11211,7 +11211,7 @@
         <v>1984</v>
       </c>
       <c r="R66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -11251,7 +11251,7 @@
         <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L67">
         <v>1747</v>
@@ -11272,14 +11272,14 @@
         <v>1973</v>
       </c>
       <c r="R67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67"/>
       <c r="U67" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11335,14 +11335,14 @@
         <v>1968</v>
       </c>
       <c r="R68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68"/>
       <c r="U68" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11398,14 +11398,14 @@
         <v>1973</v>
       </c>
       <c r="R69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69"/>
       <c r="U69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11461,14 +11461,14 @@
         <v>2009</v>
       </c>
       <c r="R70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70"/>
       <c r="U70" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11524,14 +11524,14 @@
         <v>1973</v>
       </c>
       <c r="R71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71"/>
       <c r="U71" s="67" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11587,14 +11587,14 @@
         <v>2000</v>
       </c>
       <c r="R72" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S72" s="66">
         <v>1</v>
       </c>
       <c r="T72" s="66"/>
       <c r="U72" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11650,7 +11650,7 @@
         <v>1960</v>
       </c>
       <c r="R73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -11663,7 +11663,7 @@
         <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C74">
         <v>0.15</v>
@@ -11711,7 +11711,7 @@
         <v>1958</v>
       </c>
       <c r="R74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="U74" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11776,7 +11776,7 @@
         <v>1960</v>
       </c>
       <c r="R75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -11837,7 +11837,7 @@
         <v>1960</v>
       </c>
       <c r="R76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -11850,7 +11850,7 @@
         <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C77">
         <v>0.34</v>
@@ -11898,7 +11898,7 @@
         <v>1976</v>
       </c>
       <c r="R77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>1960</v>
       </c>
       <c r="R78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -11974,7 +11974,7 @@
         <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79">
         <v>0.39</v>
@@ -12022,14 +12022,14 @@
         <v>1969</v>
       </c>
       <c r="R79" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S79">
         <v>1</v>
       </c>
       <c r="T79"/>
       <c r="U79" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12085,7 +12085,7 @@
         <v>1960</v>
       </c>
       <c r="R80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -12146,7 +12146,7 @@
         <v>1960</v>
       </c>
       <c r="R81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -12159,7 +12159,7 @@
         <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C82">
         <v>0.22</v>
@@ -12207,14 +12207,14 @@
         <v>1979</v>
       </c>
       <c r="R82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S82">
         <v>1</v>
       </c>
       <c r="T82"/>
       <c r="U82" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12222,7 +12222,7 @@
         <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C83">
         <v>0.24</v>
@@ -12270,7 +12270,7 @@
         <v>1979</v>
       </c>
       <c r="R83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -12283,7 +12283,7 @@
         <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C84">
         <v>0.3</v>
@@ -12331,14 +12331,14 @@
         <v>1977</v>
       </c>
       <c r="R84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S84">
         <v>1</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12346,7 +12346,7 @@
         <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C85">
         <v>0.15</v>
@@ -12373,7 +12373,7 @@
         <v>12</v>
       </c>
       <c r="K85" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L85">
         <v>1089</v>
@@ -12394,7 +12394,7 @@
         <v>1958</v>
       </c>
       <c r="R85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="U85" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12411,7 +12411,7 @@
         <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C86">
         <v>0.34</v>
@@ -12438,7 +12438,7 @@
         <v>12</v>
       </c>
       <c r="K86" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L86">
         <v>1089</v>
@@ -12459,7 +12459,7 @@
         <v>1958</v>
       </c>
       <c r="R86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -12468,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="U86" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12476,7 +12476,7 @@
         <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C87">
         <v>0.36</v>
@@ -12503,7 +12503,7 @@
         <v>12</v>
       </c>
       <c r="K87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L87">
         <v>1089</v>
@@ -12524,14 +12524,14 @@
         <v>1958</v>
       </c>
       <c r="R87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S87">
         <v>1</v>
       </c>
       <c r="T87"/>
       <c r="U87" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12539,7 +12539,7 @@
         <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C88">
         <v>0.22</v>
@@ -12566,7 +12566,7 @@
         <v>12</v>
       </c>
       <c r="K88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L88">
         <v>1089</v>
@@ -12587,14 +12587,14 @@
         <v>1969</v>
       </c>
       <c r="R88" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S88">
         <v>1</v>
       </c>
       <c r="T88"/>
       <c r="U88" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12602,7 +12602,7 @@
         <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C89">
         <v>0.24</v>
@@ -12629,7 +12629,7 @@
         <v>12</v>
       </c>
       <c r="K89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L89">
         <v>1091</v>
@@ -12650,14 +12650,14 @@
         <v>1969</v>
       </c>
       <c r="R89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="T89"/>
       <c r="U89" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12713,14 +12713,14 @@
         <v>2009</v>
       </c>
       <c r="R90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S90">
         <v>1</v>
       </c>
       <c r="T90"/>
       <c r="U90" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12776,7 +12776,7 @@
         <v>1983</v>
       </c>
       <c r="R91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="U91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12841,7 +12841,7 @@
         <v>1983</v>
       </c>
       <c r="R92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -12850,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="U92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12906,7 +12906,7 @@
         <v>1980</v>
       </c>
       <c r="R93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -12915,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="U93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12971,14 +12971,14 @@
         <v>1973</v>
       </c>
       <c r="R94" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94"/>
       <c r="U94" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13034,14 +13034,14 @@
         <v>1975</v>
       </c>
       <c r="R95" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S95">
         <v>1</v>
       </c>
       <c r="T95"/>
       <c r="U95" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13097,7 +13097,7 @@
         <v>1980</v>
       </c>
       <c r="R96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13162,7 +13162,7 @@
         <v>1980</v>
       </c>
       <c r="R97" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="U97" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13228,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="U98" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="V98" s="31"/>
     </row>
@@ -13285,7 +13285,7 @@
         <v>2007</v>
       </c>
       <c r="R99" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="U99" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13350,7 +13350,7 @@
         <v>2008</v>
       </c>
       <c r="R100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -13359,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="U100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13367,7 +13367,7 @@
         <v>161</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C101" s="66">
         <v>233</v>
@@ -13415,14 +13415,14 @@
         <v>2000</v>
       </c>
       <c r="R101" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S101" s="66">
         <v>1</v>
       </c>
       <c r="T101" s="66"/>
       <c r="U101" s="66" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13430,7 +13430,7 @@
         <v>162</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C102" s="66">
         <v>345.9</v>
@@ -13478,14 +13478,14 @@
         <v>2000</v>
       </c>
       <c r="R102" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S102" s="66">
         <v>1</v>
       </c>
       <c r="T102" s="66"/>
       <c r="U102" s="66" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13541,14 +13541,14 @@
         <v>2000</v>
       </c>
       <c r="R103" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S103" s="66">
         <v>1</v>
       </c>
       <c r="T103" s="66"/>
       <c r="U103" s="66" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13556,7 +13556,7 @@
         <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C104">
         <v>0.33</v>
@@ -13604,14 +13604,14 @@
         <v>1975</v>
       </c>
       <c r="R104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S104">
         <v>1</v>
       </c>
       <c r="T104"/>
       <c r="U104" s="67" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13667,7 +13667,7 @@
         <v>1982</v>
       </c>
       <c r="R105" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="U105" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13732,14 +13732,14 @@
         <v>2000</v>
       </c>
       <c r="R106" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S106">
         <v>1</v>
       </c>
       <c r="T106"/>
       <c r="U106" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13795,7 +13795,7 @@
         <v>1988</v>
       </c>
       <c r="R107" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -13856,14 +13856,14 @@
         <v>2013</v>
       </c>
       <c r="R108" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S108">
         <v>1</v>
       </c>
       <c r="T108"/>
       <c r="U108" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13919,7 +13919,7 @@
         <v>2013</v>
       </c>
       <c r="R109" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -13980,14 +13980,14 @@
         <v>2013</v>
       </c>
       <c r="R110" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S110">
         <v>1</v>
       </c>
       <c r="T110"/>
       <c r="U110" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14043,7 +14043,7 @@
         <v>2013</v>
       </c>
       <c r="R111" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -14104,7 +14104,7 @@
         <v>1973</v>
       </c>
       <c r="R112" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -14145,7 +14145,7 @@
         <v>12</v>
       </c>
       <c r="K113" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L113">
         <v>1217</v>
@@ -14164,14 +14164,14 @@
         <v>1967</v>
       </c>
       <c r="R113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S113">
         <v>1</v>
       </c>
       <c r="T113"/>
       <c r="U113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14227,7 +14227,7 @@
         <v>1973</v>
       </c>
       <c r="R114" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -14267,7 +14267,7 @@
         <v>12</v>
       </c>
       <c r="K115" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L115">
         <v>1217</v>
@@ -14288,14 +14288,14 @@
         <v>1967</v>
       </c>
       <c r="R115" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S115">
         <v>1</v>
       </c>
       <c r="T115"/>
       <c r="U115" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V115" s="31"/>
     </row>
@@ -14331,7 +14331,7 @@
         <v>12</v>
       </c>
       <c r="K116" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L116">
         <v>1217</v>
@@ -14352,14 +14352,14 @@
         <v>1967</v>
       </c>
       <c r="R116" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S116">
         <v>1</v>
       </c>
       <c r="T116"/>
       <c r="U116" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14415,14 +14415,14 @@
         <v>2000</v>
       </c>
       <c r="R117" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S117">
         <v>1</v>
       </c>
       <c r="T117"/>
       <c r="U117" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14478,7 +14478,7 @@
         <v>2006</v>
       </c>
       <c r="R118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -14540,14 +14540,14 @@
         <v>1967</v>
       </c>
       <c r="R119" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S119">
         <v>1</v>
       </c>
       <c r="T119"/>
       <c r="U119" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14603,14 +14603,14 @@
         <v>1969</v>
       </c>
       <c r="R120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S120">
         <v>1</v>
       </c>
       <c r="T120"/>
       <c r="U120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14618,7 +14618,7 @@
         <v>181</v>
       </c>
       <c r="B121" s="66" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C121" s="66">
         <v>24.5</v>
@@ -14666,14 +14666,14 @@
         <v>2000</v>
       </c>
       <c r="R121" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S121" s="66">
         <v>1</v>
       </c>
       <c r="T121" s="66"/>
       <c r="U121" s="66" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14729,7 +14729,7 @@
         <v>1999</v>
       </c>
       <c r="R122" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S122">
         <v>1</v>
@@ -14784,13 +14784,13 @@
         <v>5</v>
       </c>
       <c r="P123" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q123" t="s">
         <v>597</v>
       </c>
-      <c r="Q123" t="s">
-        <v>598</v>
-      </c>
       <c r="R123" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>184</v>
       </c>
       <c r="B124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -14851,7 +14851,7 @@
         <v>1973</v>
       </c>
       <c r="R124" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="U124" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V124" s="31"/>
     </row>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="T125"/>
       <c r="U125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V125" s="31"/>
     </row>
@@ -14967,7 +14967,7 @@
         <v>2001</v>
       </c>
       <c r="R126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -15028,14 +15028,14 @@
         <v>1960</v>
       </c>
       <c r="R127" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S127">
         <v>1</v>
       </c>
       <c r="T127"/>
       <c r="U127" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="T128" s="68"/>
       <c r="U128" s="68" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15146,7 +15146,7 @@
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="U129" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="V129" s="31"/>
     </row>
@@ -15212,7 +15212,7 @@
         <v>1985</v>
       </c>
       <c r="R130" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S130">
         <v>1</v>
@@ -15273,14 +15273,14 @@
         <v>1988</v>
       </c>
       <c r="R131" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S131">
         <v>1</v>
       </c>
       <c r="T131"/>
       <c r="U131" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15336,14 +15336,14 @@
         <v>1993</v>
       </c>
       <c r="R132" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S132">
         <v>1</v>
       </c>
       <c r="T132"/>
       <c r="U132" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15399,7 +15399,7 @@
         <v>2008</v>
       </c>
       <c r="R133" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -15412,7 +15412,7 @@
         <v>194</v>
       </c>
       <c r="B134" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C134">
         <v>0.65</v>
@@ -15460,14 +15460,14 @@
         <v>1987</v>
       </c>
       <c r="R134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S134">
         <v>1</v>
       </c>
       <c r="T134"/>
       <c r="U134" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15523,14 +15523,14 @@
         <v>2009</v>
       </c>
       <c r="R135" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S135">
         <v>1</v>
       </c>
       <c r="T135"/>
       <c r="U135" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15586,14 +15586,14 @@
         <v>1967</v>
       </c>
       <c r="R136" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S136">
         <v>1</v>
       </c>
       <c r="T136"/>
       <c r="U136" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15642,7 +15642,7 @@
       </c>
       <c r="T137"/>
       <c r="U137" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="V137" s="31"/>
     </row>
@@ -15699,7 +15699,7 @@
         <v>1983</v>
       </c>
       <c r="R138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S138">
         <v>1</v>
@@ -15760,14 +15760,14 @@
         <v>1990</v>
       </c>
       <c r="R139" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S139">
         <v>1</v>
       </c>
       <c r="T139"/>
       <c r="U139" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="T140"/>
       <c r="U140" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -15882,7 +15882,7 @@
         <v>2003</v>
       </c>
       <c r="R141" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -15943,7 +15943,7 @@
         <v>2010</v>
       </c>
       <c r="R142" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -15959,7 +15959,7 @@
         <v>324</v>
       </c>
       <c r="C143">
-        <v>293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D143">
         <v>834.5</v>
@@ -16004,14 +16004,14 @@
         <v>2012</v>
       </c>
       <c r="R143" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S143">
         <v>1</v>
       </c>
       <c r="T143"/>
       <c r="U143" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16067,14 +16067,14 @@
         <v>1990</v>
       </c>
       <c r="R144" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S144">
         <v>1</v>
       </c>
       <c r="T144"/>
       <c r="U144" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16130,7 +16130,7 @@
         <v>2009</v>
       </c>
       <c r="R145" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -16191,7 +16191,7 @@
         <v>2008</v>
       </c>
       <c r="R146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -16252,14 +16252,14 @@
         <v>1979</v>
       </c>
       <c r="R147" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S147">
         <v>1</v>
       </c>
       <c r="T147"/>
       <c r="U147" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16315,14 +16315,14 @@
         <v>1979</v>
       </c>
       <c r="R148" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S148">
         <v>1</v>
       </c>
       <c r="T148"/>
       <c r="U148" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16378,14 +16378,14 @@
         <v>1971</v>
       </c>
       <c r="R149" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S149">
         <v>1</v>
       </c>
       <c r="T149"/>
       <c r="U149" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16441,14 +16441,14 @@
         <v>1991</v>
       </c>
       <c r="R150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S150">
         <v>1</v>
       </c>
       <c r="T150"/>
       <c r="U150" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16504,7 +16504,7 @@
         <v>1969</v>
       </c>
       <c r="R151" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>1977</v>
       </c>
       <c r="R152" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -16626,14 +16626,14 @@
         <v>1996</v>
       </c>
       <c r="R153" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S153">
         <v>1</v>
       </c>
       <c r="T153"/>
       <c r="U153" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16689,14 +16689,14 @@
         <v>1996</v>
       </c>
       <c r="R154" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S154">
         <v>1</v>
       </c>
       <c r="T154"/>
       <c r="U154" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16752,14 +16752,14 @@
         <v>1996</v>
       </c>
       <c r="R155" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S155">
         <v>1</v>
       </c>
       <c r="T155"/>
       <c r="U155" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16767,7 +16767,7 @@
         <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C156">
         <v>0.63</v>
@@ -16815,7 +16815,7 @@
         <v>2005</v>
       </c>
       <c r="R156" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -16876,7 +16876,7 @@
         <v>2005</v>
       </c>
       <c r="R157" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -16937,7 +16937,7 @@
         <v>2005</v>
       </c>
       <c r="R158" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -16950,7 +16950,7 @@
         <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C159">
         <v>0.30499999999999999</v>
@@ -16998,14 +16998,14 @@
         <v>1987</v>
       </c>
       <c r="R159" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S159">
         <v>1</v>
       </c>
       <c r="T159"/>
       <c r="U159" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17040,7 +17040,7 @@
         <v>12</v>
       </c>
       <c r="K160" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L160">
         <v>2087</v>
@@ -17061,7 +17061,7 @@
         <v>1958</v>
       </c>
       <c r="R160" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -17070,7 +17070,7 @@
         <v>1</v>
       </c>
       <c r="U160" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17105,7 +17105,7 @@
         <v>12</v>
       </c>
       <c r="K161" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L161">
         <v>1849</v>
@@ -17126,14 +17126,14 @@
         <v>1973</v>
       </c>
       <c r="R161" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S161">
         <v>1</v>
       </c>
       <c r="T161"/>
       <c r="U161" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17168,7 +17168,7 @@
         <v>12</v>
       </c>
       <c r="K162" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L162">
         <v>1165</v>
@@ -17189,14 +17189,14 @@
         <v>1984</v>
       </c>
       <c r="R162" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S162">
         <v>1</v>
       </c>
       <c r="T162"/>
       <c r="U162" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17231,7 +17231,7 @@
         <v>12</v>
       </c>
       <c r="K163" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L163">
         <v>1165</v>
@@ -17252,7 +17252,7 @@
         <v>1984</v>
       </c>
       <c r="R163" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S163">
         <v>1</v>
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
       <c r="U163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17317,14 +17317,14 @@
         <v>2008</v>
       </c>
       <c r="R164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S164">
         <v>1</v>
       </c>
       <c r="T164"/>
       <c r="U164" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17332,7 +17332,7 @@
         <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C165">
         <v>0.05</v>
@@ -17359,7 +17359,7 @@
         <v>12</v>
       </c>
       <c r="K165" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L165">
         <v>2701</v>
@@ -17380,14 +17380,14 @@
         <v>1971</v>
       </c>
       <c r="R165" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S165">
         <v>1</v>
       </c>
       <c r="T165"/>
       <c r="U165" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V165" s="31"/>
     </row>
@@ -17396,7 +17396,7 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C166">
         <v>0.05</v>
@@ -17423,7 +17423,7 @@
         <v>12</v>
       </c>
       <c r="K166" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L166">
         <v>2701</v>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="T166"/>
       <c r="U166" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17505,7 +17505,7 @@
         <v>1973</v>
       </c>
       <c r="R167" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S167">
         <v>1</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="U167" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17549,7 +17549,7 @@
         <v>12</v>
       </c>
       <c r="K168" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L168">
         <v>1543</v>
@@ -17570,7 +17570,7 @@
         <v>1981</v>
       </c>
       <c r="R168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S168">
         <v>1</v>
@@ -17631,7 +17631,7 @@
         <v>2010</v>
       </c>
       <c r="R169" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -17690,14 +17690,14 @@
         <v>1992</v>
       </c>
       <c r="R170" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S170">
         <v>1</v>
       </c>
       <c r="T170"/>
       <c r="U170" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17753,14 +17753,14 @@
         <v>1993</v>
       </c>
       <c r="R171" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S171">
         <v>1</v>
       </c>
       <c r="T171"/>
       <c r="U171" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17795,7 +17795,7 @@
         <v>12</v>
       </c>
       <c r="K172" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L172">
         <v>1491</v>
@@ -17816,14 +17816,14 @@
         <v>1983</v>
       </c>
       <c r="R172" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S172">
         <v>1</v>
       </c>
       <c r="T172"/>
       <c r="U172" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17858,7 +17858,7 @@
         <v>12</v>
       </c>
       <c r="K173" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L173">
         <v>1429</v>
@@ -17879,14 +17879,14 @@
         <v>1983</v>
       </c>
       <c r="R173" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S173">
         <v>1</v>
       </c>
       <c r="T173"/>
       <c r="U173" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17921,7 +17921,7 @@
         <v>12</v>
       </c>
       <c r="K174" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L174">
         <v>1429</v>
@@ -17942,14 +17942,14 @@
         <v>1983</v>
       </c>
       <c r="R174" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S174">
         <v>1</v>
       </c>
       <c r="T174"/>
       <c r="U174" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -17984,7 +17984,7 @@
         <v>12</v>
       </c>
       <c r="K175" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L175">
         <v>1429</v>
@@ -18005,14 +18005,14 @@
         <v>1983</v>
       </c>
       <c r="R175" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S175">
         <v>1</v>
       </c>
       <c r="T175"/>
       <c r="U175" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18068,7 +18068,7 @@
         <v>1962</v>
       </c>
       <c r="R176" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S176">
         <v>1</v>
@@ -18108,7 +18108,7 @@
         <v>12</v>
       </c>
       <c r="K177" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L177">
         <v>1429</v>
@@ -18129,14 +18129,14 @@
         <v>1983</v>
       </c>
       <c r="R177" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S177">
         <v>1</v>
       </c>
       <c r="T177"/>
       <c r="U177" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18171,7 +18171,7 @@
         <v>12</v>
       </c>
       <c r="K178" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L178">
         <v>1491</v>
@@ -18192,14 +18192,14 @@
         <v>1983</v>
       </c>
       <c r="R178" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S178">
         <v>1</v>
       </c>
       <c r="T178"/>
       <c r="U178" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18255,7 +18255,7 @@
         <v>1986</v>
       </c>
       <c r="R179" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S179">
         <v>1</v>
@@ -18264,7 +18264,7 @@
         <v>1</v>
       </c>
       <c r="U179" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18320,7 +18320,7 @@
         <v>2006</v>
       </c>
       <c r="R180" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S180">
         <v>1</v>
@@ -18329,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="U180" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18385,7 +18385,7 @@
         <v>1996</v>
       </c>
       <c r="R181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S181">
         <v>1</v>
@@ -18425,7 +18425,7 @@
         <v>12</v>
       </c>
       <c r="K182" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L182">
         <v>1408</v>
@@ -18446,14 +18446,14 @@
         <v>1961</v>
       </c>
       <c r="R182" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S182">
         <v>1</v>
       </c>
       <c r="T182"/>
       <c r="U182" s="67" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18509,7 +18509,7 @@
         <v>1962</v>
       </c>
       <c r="R183" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S183">
         <v>1</v>
@@ -18570,14 +18570,14 @@
         <v>2000</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S184" s="66">
         <v>1</v>
       </c>
       <c r="T184" s="66"/>
       <c r="U184" s="66" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18633,7 +18633,7 @@
         <v>2005</v>
       </c>
       <c r="R185" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S185">
         <v>1</v>
@@ -18694,7 +18694,7 @@
         <v>2005</v>
       </c>
       <c r="R186" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S186">
         <v>1</v>
@@ -18755,14 +18755,14 @@
         <v>1990</v>
       </c>
       <c r="R187" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S187">
         <v>1</v>
       </c>
       <c r="T187"/>
       <c r="U187" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -18818,7 +18818,7 @@
         <v>2009</v>
       </c>
       <c r="R188" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S188">
         <v>1</v>
@@ -18879,7 +18879,7 @@
         <v>2013</v>
       </c>
       <c r="R189" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S189">
         <v>1</v>
@@ -18940,7 +18940,7 @@
         <v>1991</v>
       </c>
       <c r="R190" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S190">
         <v>1</v>
@@ -18980,7 +18980,7 @@
         <v>12</v>
       </c>
       <c r="K191" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L191">
         <v>1974</v>
@@ -19001,14 +19001,14 @@
         <v>1966</v>
       </c>
       <c r="R191" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S191">
         <v>1</v>
       </c>
       <c r="T191"/>
       <c r="U191" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19069,7 +19069,7 @@
       </c>
       <c r="T192"/>
       <c r="U192" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19130,7 +19130,7 @@
       </c>
       <c r="T193"/>
       <c r="U193" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="T194" s="68"/>
       <c r="U194" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19247,14 +19247,14 @@
         <v>1958</v>
       </c>
       <c r="R195" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S195">
         <v>1</v>
       </c>
       <c r="T195"/>
       <c r="U195" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19310,14 +19310,14 @@
         <v>1990</v>
       </c>
       <c r="R196" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S196">
         <v>1</v>
       </c>
       <c r="T196"/>
       <c r="U196" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19373,14 +19373,14 @@
         <v>1990</v>
       </c>
       <c r="R197" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S197">
         <v>1</v>
       </c>
       <c r="T197"/>
       <c r="U197" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19436,14 +19436,14 @@
         <v>2000</v>
       </c>
       <c r="R198" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S198">
         <v>1</v>
       </c>
       <c r="T198"/>
       <c r="U198" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19451,7 +19451,7 @@
         <v>259</v>
       </c>
       <c r="B199" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C199">
         <v>8.08</v>
@@ -19499,14 +19499,14 @@
         <v>1957</v>
       </c>
       <c r="R199" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S199">
         <v>1</v>
       </c>
       <c r="T199"/>
       <c r="U199" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19562,7 +19562,7 @@
         <v>1958</v>
       </c>
       <c r="R200" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S200">
         <v>1</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="U200" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19627,7 +19627,7 @@
         <v>1983</v>
       </c>
       <c r="R201" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S201">
         <v>1</v>
@@ -19688,7 +19688,7 @@
         <v>2010</v>
       </c>
       <c r="R202" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S202">
         <v>1</v>
@@ -19749,7 +19749,7 @@
         <v>2005</v>
       </c>
       <c r="R203" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S203">
         <v>1</v>
@@ -19810,7 +19810,7 @@
         <v>1980</v>
       </c>
       <c r="R204" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S204">
         <v>1</v>
@@ -19819,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="U204" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19875,7 +19875,7 @@
         <v>1980</v>
       </c>
       <c r="R205" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S205">
         <v>1</v>
@@ -19884,7 +19884,7 @@
         <v>1</v>
       </c>
       <c r="U205" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -19940,7 +19940,7 @@
         <v>2010</v>
       </c>
       <c r="R206" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S206">
         <v>1</v>
@@ -20001,14 +20001,14 @@
         <v>2007</v>
       </c>
       <c r="R207" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S207">
         <v>1</v>
       </c>
       <c r="T207"/>
       <c r="U207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20064,14 +20064,14 @@
         <v>1987</v>
       </c>
       <c r="R208" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S208">
         <v>1</v>
       </c>
       <c r="T208"/>
       <c r="U208" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20079,7 +20079,7 @@
         <v>269</v>
       </c>
       <c r="B209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C209">
         <v>1.8</v>
@@ -20127,14 +20127,14 @@
         <v>1987</v>
       </c>
       <c r="R209" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S209">
         <v>1</v>
       </c>
       <c r="T209"/>
       <c r="U209" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20169,7 +20169,7 @@
         <v>12</v>
       </c>
       <c r="K210" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L210">
         <v>873</v>
@@ -20190,14 +20190,14 @@
         <v>1954</v>
       </c>
       <c r="R210" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S210">
         <v>1</v>
       </c>
       <c r="T210"/>
       <c r="U210" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20205,7 +20205,7 @@
         <v>271</v>
       </c>
       <c r="B211" s="66" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C211" s="66">
         <v>47.1</v>
@@ -20253,14 +20253,14 @@
         <v>2000</v>
       </c>
       <c r="R211" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S211" s="66">
         <v>1</v>
       </c>
       <c r="T211" s="66"/>
       <c r="U211" s="66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20316,14 +20316,14 @@
         <v>2000</v>
       </c>
       <c r="R212" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S212">
         <v>1</v>
       </c>
       <c r="T212"/>
       <c r="U212" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20379,7 +20379,7 @@
         <v>1987</v>
       </c>
       <c r="R213" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S213">
         <v>1</v>
@@ -20419,7 +20419,7 @@
         <v>22</v>
       </c>
       <c r="K214" t="s">
-        <v>415</v>
+        <v>817</v>
       </c>
       <c r="L214">
         <v>1443</v>
@@ -20440,7 +20440,7 @@
         <v>1986</v>
       </c>
       <c r="R214" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S214">
         <v>1</v>
@@ -20453,7 +20453,7 @@
         <v>275</v>
       </c>
       <c r="B215" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C215">
         <v>0.19</v>
@@ -20480,7 +20480,7 @@
         <v>12</v>
       </c>
       <c r="K215" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L215">
         <v>2254</v>
@@ -20501,14 +20501,14 @@
         <v>1971</v>
       </c>
       <c r="R215" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S215">
         <v>0</v>
       </c>
       <c r="T215"/>
       <c r="U215" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20516,7 +20516,7 @@
         <v>276</v>
       </c>
       <c r="B216" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C216">
         <v>0.39</v>
@@ -20543,7 +20543,7 @@
         <v>12</v>
       </c>
       <c r="K216" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L216">
         <v>2254</v>
@@ -20564,7 +20564,7 @@
         <v>1971</v>
       </c>
       <c r="R216" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S216">
         <v>0</v>
@@ -20577,7 +20577,7 @@
         <v>277</v>
       </c>
       <c r="B217" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C217">
         <v>0.28000000000000003</v>
@@ -20604,7 +20604,7 @@
         <v>12</v>
       </c>
       <c r="K217" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L217">
         <v>2254</v>
@@ -20625,14 +20625,14 @@
         <v>1977</v>
       </c>
       <c r="R217" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S217">
         <v>0</v>
       </c>
       <c r="T217"/>
       <c r="U217" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20640,7 +20640,7 @@
         <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C218">
         <v>1.57</v>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="T218"/>
       <c r="U218" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20697,7 +20697,7 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C219">
         <v>0.55300000000000005</v>
@@ -20745,7 +20745,7 @@
         <v>2007</v>
       </c>
       <c r="R219" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S219">
         <v>1</v>
@@ -20758,7 +20758,7 @@
         <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C220">
         <v>0.55400000000000005</v>
@@ -20806,7 +20806,7 @@
         <v>2007</v>
       </c>
       <c r="R220" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S220">
         <v>1</v>
@@ -20819,7 +20819,7 @@
         <v>281</v>
       </c>
       <c r="B221" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -20846,7 +20846,7 @@
         <v>12</v>
       </c>
       <c r="K221" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L221">
         <v>963</v>
@@ -20867,7 +20867,7 @@
         <v>2007</v>
       </c>
       <c r="R221" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S221">
         <v>1</v>
@@ -20880,7 +20880,7 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -20907,7 +20907,7 @@
         <v>12</v>
       </c>
       <c r="K222" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L222">
         <v>963</v>
@@ -20928,7 +20928,7 @@
         <v>2000</v>
       </c>
       <c r="R222" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S222">
         <v>1</v>
@@ -20941,7 +20941,7 @@
         <v>283</v>
       </c>
       <c r="B223" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C223" s="66">
         <v>41.5</v>
@@ -20989,14 +20989,14 @@
         <v>2000</v>
       </c>
       <c r="R223" s="66" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S223" s="66">
         <v>1</v>
       </c>
       <c r="T223" s="66"/>
       <c r="U223" s="66" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21004,7 +21004,7 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C224">
         <v>0.54</v>
@@ -21052,7 +21052,7 @@
         <v>1985</v>
       </c>
       <c r="R224" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S224">
         <v>1</v>
@@ -21065,7 +21065,7 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C225">
         <v>252</v>
@@ -21092,7 +21092,7 @@
         <v>17</v>
       </c>
       <c r="K225" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L225">
         <v>1168</v>
@@ -21113,7 +21113,7 @@
         <v>2008</v>
       </c>
       <c r="R225" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S225">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C226">
         <v>1.32</v>
@@ -21174,7 +21174,7 @@
         <v>1987</v>
       </c>
       <c r="R226" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S226">
         <v>1</v>
@@ -21187,7 +21187,7 @@
         <v>287</v>
       </c>
       <c r="B227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C227">
         <v>19.46</v>
@@ -21214,7 +21214,7 @@
         <v>12</v>
       </c>
       <c r="K227" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L227">
         <v>1272</v>
@@ -21235,7 +21235,7 @@
         <v>2003</v>
       </c>
       <c r="R227" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S227">
         <v>1</v>
@@ -21248,7 +21248,7 @@
         <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C228">
         <v>8.25</v>
@@ -21275,7 +21275,7 @@
         <v>12</v>
       </c>
       <c r="K228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L228">
         <v>1272</v>
@@ -21296,7 +21296,7 @@
         <v>2003</v>
       </c>
       <c r="R228" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S228">
         <v>1</v>
@@ -21309,7 +21309,7 @@
         <v>289</v>
       </c>
       <c r="B229" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C229">
         <v>7.7</v>
@@ -21336,7 +21336,7 @@
         <v>12</v>
       </c>
       <c r="K229" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L229">
         <v>1272</v>
@@ -21357,7 +21357,7 @@
         <v>2003</v>
       </c>
       <c r="R229" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S229">
         <v>1</v>
@@ -21370,7 +21370,7 @@
         <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C230">
         <v>8.64</v>
@@ -21397,7 +21397,7 @@
         <v>12</v>
       </c>
       <c r="K230" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L230">
         <v>1272</v>
@@ -21418,7 +21418,7 @@
         <v>2003</v>
       </c>
       <c r="R230" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S230">
         <v>1</v>
@@ -21431,7 +21431,7 @@
         <v>291</v>
       </c>
       <c r="B231" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C231">
         <v>0.81</v>
@@ -21458,7 +21458,7 @@
         <v>12</v>
       </c>
       <c r="K231" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L231">
         <v>1905</v>
@@ -21479,14 +21479,14 @@
         <v>1926</v>
       </c>
       <c r="R231" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S231">
         <v>1</v>
       </c>
       <c r="T231"/>
       <c r="U231" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21494,7 +21494,7 @@
         <v>292</v>
       </c>
       <c r="B232" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C232">
         <v>0.81</v>
@@ -21521,7 +21521,7 @@
         <v>12</v>
       </c>
       <c r="K232" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L232">
         <v>1234</v>
@@ -21542,7 +21542,7 @@
         <v>1926</v>
       </c>
       <c r="R232" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S232">
         <v>1</v>
@@ -21555,7 +21555,7 @@
         <v>293</v>
       </c>
       <c r="B233" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C233">
         <v>249</v>
@@ -21582,7 +21582,7 @@
         <v>17</v>
       </c>
       <c r="K233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L233">
         <v>1005</v>
@@ -21603,7 +21603,7 @@
         <v>1987</v>
       </c>
       <c r="R233" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S233">
         <v>1</v>
@@ -21616,7 +21616,7 @@
         <v>294</v>
       </c>
       <c r="B234" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C234">
         <v>6.94</v>
@@ -21643,7 +21643,7 @@
         <v>12</v>
       </c>
       <c r="K234" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L234">
         <v>1239</v>
@@ -21664,14 +21664,14 @@
         <v>1960</v>
       </c>
       <c r="R234" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S234">
         <v>1</v>
       </c>
       <c r="T234"/>
       <c r="U234" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21679,7 +21679,7 @@
         <v>295</v>
       </c>
       <c r="B235" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -21706,7 +21706,7 @@
         <v>12</v>
       </c>
       <c r="K235" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L235">
         <v>2256</v>
@@ -21727,14 +21727,14 @@
         <v>1973</v>
       </c>
       <c r="R235" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S235">
         <v>1</v>
       </c>
       <c r="T235"/>
       <c r="U235" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21742,7 +21742,7 @@
         <v>296</v>
       </c>
       <c r="B236" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -21769,7 +21769,7 @@
         <v>12</v>
       </c>
       <c r="K236" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L236">
         <v>2051</v>
@@ -21790,14 +21790,14 @@
         <v>1973</v>
       </c>
       <c r="R236" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S236">
         <v>1</v>
       </c>
       <c r="T236"/>
       <c r="U236" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21805,7 +21805,7 @@
         <v>297</v>
       </c>
       <c r="B237" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C237">
         <v>0.68200000000000005</v>
@@ -21832,7 +21832,7 @@
         <v>12</v>
       </c>
       <c r="K237" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L237">
         <v>1404</v>
@@ -21853,7 +21853,7 @@
         <v>1997</v>
       </c>
       <c r="R237" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S237">
         <v>1</v>
@@ -21866,7 +21866,7 @@
         <v>298</v>
       </c>
       <c r="B238" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C238">
         <v>0.94</v>
@@ -21893,7 +21893,7 @@
         <v>12</v>
       </c>
       <c r="K238" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L238">
         <v>1751</v>
@@ -21914,14 +21914,14 @@
         <v>1983</v>
       </c>
       <c r="R238" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S238">
         <v>1</v>
       </c>
       <c r="T238"/>
       <c r="U238" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21929,7 +21929,7 @@
         <v>299</v>
       </c>
       <c r="B239" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C239">
         <v>0.77500000000000002</v>
@@ -21956,7 +21956,7 @@
         <v>12</v>
       </c>
       <c r="K239" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L239">
         <v>1335</v>
@@ -21977,7 +21977,7 @@
         <v>1993</v>
       </c>
       <c r="R239" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S239">
         <v>1</v>
@@ -21990,7 +21990,7 @@
         <v>300</v>
       </c>
       <c r="B240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C240">
         <v>0.85599999999999998</v>
@@ -22017,7 +22017,7 @@
         <v>12</v>
       </c>
       <c r="K240" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L240">
         <v>1404</v>
@@ -22038,7 +22038,7 @@
         <v>1997</v>
       </c>
       <c r="R240" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S240">
         <v>1</v>
@@ -22051,7 +22051,7 @@
         <v>301</v>
       </c>
       <c r="B241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C241">
         <v>0.6</v>
@@ -22078,7 +22078,7 @@
         <v>12</v>
       </c>
       <c r="K241" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L241">
         <v>1746</v>
@@ -22099,14 +22099,14 @@
         <v>1978</v>
       </c>
       <c r="R241" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S241">
         <v>1</v>
       </c>
       <c r="T241"/>
       <c r="U241" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22114,7 +22114,7 @@
         <v>302</v>
       </c>
       <c r="B242" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -22141,7 +22141,7 @@
         <v>12</v>
       </c>
       <c r="K242" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L242">
         <v>2087</v>
@@ -22162,7 +22162,7 @@
         <v>1966</v>
       </c>
       <c r="R242" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S242">
         <v>1</v>
@@ -22171,7 +22171,7 @@
         <v>1</v>
       </c>
       <c r="U242" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22179,7 +22179,7 @@
         <v>303</v>
       </c>
       <c r="B243" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -22206,7 +22206,7 @@
         <v>12</v>
       </c>
       <c r="K243" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L243">
         <v>2087</v>
@@ -22227,7 +22227,7 @@
         <v>1973</v>
       </c>
       <c r="R243" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S243">
         <v>1</v>
@@ -22236,7 +22236,7 @@
         <v>1</v>
       </c>
       <c r="U243" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22244,7 +22244,7 @@
         <v>304</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -22271,7 +22271,7 @@
         <v>12</v>
       </c>
       <c r="K244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L244">
         <v>2087</v>
@@ -22292,16 +22292,16 @@
         <v>1973</v>
       </c>
       <c r="R244" t="s">
+        <v>543</v>
+      </c>
+      <c r="S244">
+        <v>1</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244" t="s">
         <v>544</v>
-      </c>
-      <c r="S244">
-        <v>1</v>
-      </c>
-      <c r="T244">
-        <v>1</v>
-      </c>
-      <c r="U244" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22309,7 +22309,7 @@
         <v>305</v>
       </c>
       <c r="B245" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -22336,7 +22336,7 @@
         <v>12</v>
       </c>
       <c r="K245" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L245">
         <v>2087</v>
@@ -22357,14 +22357,14 @@
         <v>1973</v>
       </c>
       <c r="R245" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S245">
         <v>1</v>
       </c>
       <c r="T245"/>
       <c r="U245" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22372,7 +22372,7 @@
         <v>306</v>
       </c>
       <c r="B246" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -22399,7 +22399,7 @@
         <v>12</v>
       </c>
       <c r="K246" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L246">
         <v>2087</v>
@@ -22420,7 +22420,7 @@
         <v>1958</v>
       </c>
       <c r="R246" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S246">
         <v>1</v>
@@ -22429,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="U246" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22437,7 +22437,7 @@
         <v>307</v>
       </c>
       <c r="B247" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C247">
         <v>0.43</v>
@@ -22464,7 +22464,7 @@
         <v>12</v>
       </c>
       <c r="K247" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L247">
         <v>1121</v>
@@ -22485,14 +22485,14 @@
         <v>1977</v>
       </c>
       <c r="R247" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S247">
         <v>1</v>
       </c>
       <c r="T247"/>
       <c r="U247" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22500,7 +22500,7 @@
         <v>308</v>
       </c>
       <c r="B248" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C248">
         <v>0.43</v>
@@ -22527,7 +22527,7 @@
         <v>12</v>
       </c>
       <c r="K248" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L248">
         <v>1121</v>
@@ -22548,14 +22548,14 @@
         <v>1974</v>
       </c>
       <c r="R248" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S248">
         <v>1</v>
       </c>
       <c r="T248"/>
       <c r="U248" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22563,7 +22563,7 @@
         <v>309</v>
       </c>
       <c r="B249" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C249">
         <v>0.43</v>
@@ -22590,7 +22590,7 @@
         <v>12</v>
       </c>
       <c r="K249" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L249">
         <v>1121</v>
@@ -22611,14 +22611,14 @@
         <v>1976</v>
       </c>
       <c r="R249" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S249">
         <v>1</v>
       </c>
       <c r="T249"/>
       <c r="U249" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22626,7 +22626,7 @@
         <v>310</v>
       </c>
       <c r="B250" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C250">
         <v>0.36</v>
@@ -22653,7 +22653,7 @@
         <v>12</v>
       </c>
       <c r="K250" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L250">
         <v>930</v>
@@ -22674,14 +22674,14 @@
         <v>1974</v>
       </c>
       <c r="R250" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S250">
         <v>1</v>
       </c>
       <c r="T250"/>
       <c r="U250" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22689,7 +22689,7 @@
         <v>311</v>
       </c>
       <c r="B251" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C251">
         <v>149.43</v>
@@ -22735,14 +22735,14 @@
         <v>2009</v>
       </c>
       <c r="R251" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S251">
         <v>1</v>
       </c>
       <c r="T251"/>
       <c r="U251" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22750,7 +22750,7 @@
         <v>312</v>
       </c>
       <c r="B252" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C252">
         <v>2.7</v>
@@ -22798,14 +22798,14 @@
         <v>1985</v>
       </c>
       <c r="R252" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S252">
         <v>1</v>
       </c>
       <c r="T252"/>
       <c r="U252" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -22822,7 +22822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
     </sheetView>
@@ -22862,13 +22862,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>749</v>
-      </c>
       <c r="I1" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>6</v>
@@ -22877,34 +22877,34 @@
         <v>7</v>
       </c>
       <c r="L1" s="60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P1" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q1" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" s="41" t="s">
-        <v>536</v>
-      </c>
       <c r="R1" s="42" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T1" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="V1" s="49"/>
       <c r="W1" s="49"/>
@@ -22937,7 +22937,7 @@
         <v>313</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="15">
         <v>391</v>
@@ -22964,7 +22964,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L2" s="44">
         <v>1939</v>
@@ -22985,7 +22985,7 @@
         <v>2008</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S2" s="15">
         <v>1</v>
@@ -22998,7 +22998,7 @@
         <v>314</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="15">
         <v>16.64</v>
@@ -23025,7 +23025,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L3" s="44">
         <v>1835</v>
@@ -23046,7 +23046,7 @@
         <v>2008</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S3" s="15">
         <v>1</v>
@@ -23059,7 +23059,7 @@
         <v>315</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" s="15">
         <v>559</v>
@@ -23086,7 +23086,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L4" s="44">
         <v>1180</v>
@@ -23107,7 +23107,7 @@
         <v>2000</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S4" s="15">
         <v>1</v>
@@ -23120,7 +23120,7 @@
         <v>316</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C5" s="15">
         <v>0.6</v>
@@ -23147,7 +23147,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L5" s="44">
         <v>1647</v>
@@ -23168,7 +23168,7 @@
         <v>2007</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S5" s="15">
         <v>1</v>
@@ -23181,7 +23181,7 @@
         <v>317</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C6" s="15">
         <v>606</v>
@@ -23208,7 +23208,7 @@
         <v>36</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L6" s="44">
         <v>1340</v>
@@ -23229,7 +23229,7 @@
         <v>2009</v>
       </c>
       <c r="R6" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S6" s="15">
         <v>1</v>
@@ -23242,7 +23242,7 @@
         <v>318</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" s="15">
         <v>760</v>
@@ -23269,7 +23269,7 @@
         <v>36</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L7" s="44">
         <v>1315</v>
@@ -23290,7 +23290,7 @@
         <v>2009</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S7" s="15">
         <v>1</v>
@@ -23303,7 +23303,7 @@
         <v>319</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C8" s="15">
         <v>1135.7</v>
@@ -23330,7 +23330,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L8" s="44">
         <v>1303</v>
@@ -23351,7 +23351,7 @@
         <v>2000</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S8" s="15">
         <v>1</v>
@@ -23364,7 +23364,7 @@
         <v>320</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="15">
         <v>502</v>
@@ -23391,7 +23391,7 @@
         <v>36</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L9" s="44">
         <v>1296</v>
@@ -23412,7 +23412,7 @@
         <v>2008</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S9" s="15">
         <v>1</v>
@@ -23425,7 +23425,7 @@
         <v>321</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C10" s="15">
         <v>673</v>
@@ -23452,7 +23452,7 @@
         <v>36</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L10" s="44">
         <v>1658</v>
@@ -23473,7 +23473,7 @@
         <v>2008</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S10" s="15">
         <v>1</v>
@@ -23486,7 +23486,7 @@
         <v>322</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="15">
         <v>390</v>
@@ -23513,7 +23513,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L11" s="44">
         <v>1659</v>
@@ -23534,7 +23534,7 @@
         <v>2005</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S11" s="15">
         <v>1</v>
@@ -23547,7 +23547,7 @@
         <v>323</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C12" s="15">
         <v>3.2</v>
@@ -23574,7 +23574,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L12" s="44">
         <v>1469</v>
@@ -23595,7 +23595,7 @@
         <v>2005</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S12" s="15">
         <v>1</v>
@@ -23635,7 +23635,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L13" s="44">
         <v>1447</v>
@@ -23656,7 +23656,7 @@
         <v>2005</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S13" s="15">
         <v>1</v>
@@ -23665,7 +23665,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23673,7 +23673,7 @@
         <v>325</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C14" s="15">
         <v>89</v>
@@ -23700,7 +23700,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L14" s="44">
         <v>1325</v>
@@ -23721,7 +23721,7 @@
         <v>1999</v>
       </c>
       <c r="R14" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S14" s="15">
         <v>1</v>
@@ -23734,7 +23734,7 @@
         <v>326</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C15" s="15">
         <v>243</v>
@@ -23761,7 +23761,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L15" s="44">
         <v>1502</v>
@@ -23782,7 +23782,7 @@
         <v>2008</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S15" s="15">
         <v>1</v>
@@ -23795,7 +23795,7 @@
         <v>327</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C16" s="15">
         <v>26.35</v>
@@ -23822,7 +23822,7 @@
         <v>36</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L16" s="44">
         <v>1833</v>
@@ -23843,7 +23843,7 @@
         <v>2008</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S16" s="15">
         <v>1</v>
@@ -23856,7 +23856,7 @@
         <v>328</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="15">
         <f>196.4/100</f>
@@ -23884,7 +23884,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L17" s="44">
         <v>1749</v>
@@ -23905,7 +23905,7 @@
         <v>1983</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S17" s="15">
         <v>1</v>
@@ -23920,7 +23920,7 @@
         <v>329</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C18" s="15">
         <v>14500</v>
@@ -23947,7 +23947,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L18" s="44">
         <v>1812</v>
@@ -23964,14 +23964,14 @@
       <c r="P18" s="65"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S18" s="15">
         <v>0</v>
       </c>
       <c r="T18" s="15"/>
       <c r="U18" s="33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -23979,7 +23979,7 @@
         <v>330</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C19" s="15">
         <v>179752</v>
@@ -24006,7 +24006,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L19" s="44">
         <v>1343</v>
@@ -24027,14 +24027,14 @@
         <v>2006</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S19" s="15">
         <v>1</v>
       </c>
       <c r="T19" s="15"/>
       <c r="U19" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24042,7 +24042,7 @@
         <v>331</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C20" s="15">
         <v>3.44</v>
@@ -24069,7 +24069,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L20" s="44">
         <v>1818</v>
@@ -24090,14 +24090,14 @@
         <v>1997</v>
       </c>
       <c r="R20" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S20" s="15">
         <v>1</v>
       </c>
       <c r="T20" s="15"/>
       <c r="U20" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24105,7 +24105,7 @@
         <v>332</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C21" s="15">
         <v>3.1</v>
@@ -24132,7 +24132,7 @@
         <v>36</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L21" s="44">
         <v>1066</v>
@@ -24153,14 +24153,14 @@
         <v>2000</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S21" s="15">
         <v>1</v>
       </c>
       <c r="T21" s="15"/>
       <c r="U21" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24168,7 +24168,7 @@
         <v>333</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C22" s="15">
         <v>17299</v>
@@ -24195,7 +24195,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L22" s="44">
         <v>2216</v>
@@ -24216,7 +24216,7 @@
         <v>2007</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S22" s="15">
         <v>1</v>
@@ -24229,7 +24229,7 @@
         <v>334</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C23" s="15">
         <v>16440</v>
@@ -24256,7 +24256,7 @@
         <v>22</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L23" s="44">
         <v>2166</v>
@@ -24277,7 +24277,7 @@
         <v>2007</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S23" s="15">
         <v>1</v>
@@ -24286,7 +24286,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24294,7 +24294,7 @@
         <v>335</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C24" s="15">
         <v>33000</v>
@@ -24321,7 +24321,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L24" s="44">
         <v>1289</v>
@@ -24342,14 +24342,14 @@
         <v>2004</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S24" s="15">
         <v>1</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24357,7 +24357,7 @@
         <v>336</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C25" s="15">
         <f>11.7*10000/10^6</f>
@@ -24385,7 +24385,7 @@
         <v>12</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L25" s="44">
         <v>2083</v>
@@ -24406,14 +24406,14 @@
         <v>2003</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S25" s="15">
         <v>1</v>
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24421,7 +24421,7 @@
         <v>337</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C26" s="15">
         <v>104</v>
@@ -24471,14 +24471,14 @@
         <v>1988</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S26" s="15">
         <v>1</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24535,14 +24535,14 @@
         <v>1990</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S27" s="15">
         <v>1</v>
       </c>
       <c r="T27" s="15"/>
       <c r="U27" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24600,14 +24600,14 @@
         <v>2005</v>
       </c>
       <c r="R28" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S28" s="15">
         <v>1</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24616,7 +24616,7 @@
         <v>340</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C29" s="15">
         <v>5800</v>
@@ -24641,7 +24641,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L29" s="44">
         <v>1567</v>
@@ -24663,14 +24663,14 @@
         <v>1975</v>
       </c>
       <c r="R29" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S29" s="15">
         <v>1</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24679,7 +24679,7 @@
         <v>341</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C30" s="15">
         <v>7640</v>
@@ -24704,7 +24704,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L30" s="44">
         <v>1576</v>
@@ -24726,14 +24726,14 @@
         <v>1975</v>
       </c>
       <c r="R30" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S30" s="15">
         <v>1</v>
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="33" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24742,7 +24742,7 @@
         <v>342</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C31" s="15">
         <v>4790</v>
@@ -24767,7 +24767,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L31" s="44">
         <v>1566</v>
@@ -24789,14 +24789,14 @@
         <v>1975</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S31" s="15">
         <v>1</v>
       </c>
       <c r="T31" s="15"/>
       <c r="U31" s="33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24805,7 +24805,7 @@
         <v>343</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C32" s="15">
         <v>2820</v>
@@ -24830,7 +24830,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L32" s="44">
         <v>1535</v>
@@ -24852,14 +24852,14 @@
         <v>1975</v>
       </c>
       <c r="R32" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S32" s="15">
         <v>1</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24868,7 +24868,7 @@
         <v>344</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C33" s="15">
         <v>9195</v>
@@ -24893,7 +24893,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L33" s="44">
         <v>1491</v>
@@ -24915,14 +24915,14 @@
         <v>1975</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S33" s="15">
         <v>1</v>
       </c>
       <c r="T33" s="15"/>
       <c r="U33" s="33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24931,7 +24931,7 @@
         <v>345</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C34" s="15">
         <v>19450</v>
@@ -24956,7 +24956,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L34" s="44">
         <v>1577</v>
@@ -24978,14 +24978,14 @@
         <v>1975</v>
       </c>
       <c r="R34" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S34" s="15">
         <v>1</v>
       </c>
       <c r="T34" s="15"/>
       <c r="U34" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -24994,7 +24994,7 @@
         <v>346</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C35" s="15">
         <v>4300</v>
@@ -25019,7 +25019,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L35" s="44">
         <v>1467</v>
@@ -25041,14 +25041,14 @@
         <v>1975</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S35" s="15">
         <v>1</v>
       </c>
       <c r="T35" s="15"/>
       <c r="U35" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25057,7 +25057,7 @@
         <v>347</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C36" s="15">
         <v>3030</v>
@@ -25082,7 +25082,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L36" s="44">
         <v>1457</v>
@@ -25104,14 +25104,14 @@
         <v>1975</v>
       </c>
       <c r="R36" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S36" s="15">
         <v>1</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25120,7 +25120,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C37" s="15">
         <v>6500</v>
@@ -25145,7 +25145,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L37" s="44">
         <v>1589</v>
@@ -25167,14 +25167,14 @@
         <v>1975</v>
       </c>
       <c r="R37" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S37" s="15">
         <v>1</v>
       </c>
       <c r="T37" s="15"/>
       <c r="U37" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25183,7 +25183,7 @@
         <v>349</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C38" s="15">
         <v>4200</v>
@@ -25208,7 +25208,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L38" s="44">
         <v>1543</v>
@@ -25230,14 +25230,14 @@
         <v>1966</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S38" s="15">
         <v>1</v>
       </c>
       <c r="T38" s="15"/>
       <c r="U38" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25246,7 +25246,7 @@
         <v>350</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C39" s="15">
         <v>1.5</v>
@@ -25273,7 +25273,7 @@
         <v>22</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L39" s="44">
         <v>640</v>
@@ -25295,14 +25295,14 @@
         <v>2011</v>
       </c>
       <c r="R39" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S39" s="15">
         <v>1</v>
       </c>
       <c r="T39" s="15"/>
       <c r="U39" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25311,7 +25311,7 @@
         <v>351</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C40" s="15">
         <v>267</v>
@@ -25339,7 +25339,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L40" s="44">
         <v>919</v>
@@ -25361,14 +25361,14 @@
         <v>1993</v>
       </c>
       <c r="R40" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S40" s="15">
         <v>1</v>
       </c>
       <c r="T40" s="15"/>
       <c r="U40" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25377,7 +25377,7 @@
         <v>352</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C41" s="15">
         <v>1117</v>
@@ -25390,7 +25390,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H41" s="15">
         <v>-32</v>
@@ -25400,7 +25400,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L41" s="44">
         <v>1483</v>
@@ -25422,14 +25422,14 @@
         <v>1989</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S41" s="15">
         <v>0</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25438,7 +25438,7 @@
         <v>353</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C42" s="15">
         <v>0.19</v>
@@ -25465,7 +25465,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L42" s="44">
         <v>1060</v>
@@ -25487,14 +25487,14 @@
         <v>1971</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S42" s="15">
         <v>1</v>
       </c>
       <c r="T42" s="15"/>
       <c r="U42" s="33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25503,7 +25503,7 @@
         <v>354</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C43" s="15">
         <v>0.12</v>
@@ -25530,7 +25530,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L43" s="44">
         <v>1060</v>
@@ -25552,14 +25552,14 @@
         <v>1971</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S43" s="15">
         <v>1</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25568,7 +25568,7 @@
         <v>355</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C44" s="15">
         <v>13.3</v>
@@ -25595,7 +25595,7 @@
         <v>22</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L44" s="44">
         <v>2480</v>
@@ -25619,14 +25619,14 @@
         <v>1978</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S44" s="15">
         <v>1</v>
       </c>
       <c r="T44" s="15"/>
       <c r="U44" s="33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25635,7 +25635,7 @@
         <v>356</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C45" s="15">
         <v>200</v>
@@ -25664,7 +25664,7 @@
         <v>17</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L45" s="44">
         <v>1973</v>
@@ -25686,14 +25686,14 @@
         <v>1971</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S45" s="15">
         <v>1</v>
       </c>
       <c r="T45" s="15"/>
       <c r="U45" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -25702,7 +25702,7 @@
         <v>357</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C46" s="37">
         <v>9.7000000000000003E-2</v>
@@ -25730,7 +25730,7 @@
         <v>12</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L46" s="46">
         <v>1350</v>
@@ -25752,14 +25752,14 @@
         <v>2010</v>
       </c>
       <c r="R46" s="47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S46" s="37">
         <v>1</v>
       </c>
       <c r="T46" s="37"/>
       <c r="U46" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -25768,7 +25768,7 @@
         <v>358</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C47" s="9">
         <v>0.83</v>
@@ -25796,7 +25796,7 @@
         <v>12</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L47" s="9">
         <v>1293</v>
@@ -25817,7 +25817,7 @@
         <v>2015</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="V47" s="57"/>
     </row>
@@ -25827,7 +25827,7 @@
         <v>359</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C48" s="9">
         <v>0.8</v>
@@ -25855,7 +25855,7 @@
         <v>12</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="L48" s="9">
         <v>1293</v>
@@ -25876,7 +25876,7 @@
         <v>2015</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V48" s="57"/>
     </row>
@@ -25886,7 +25886,7 @@
         <v>360</v>
       </c>
       <c r="B49" s="70" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C49" s="9">
         <v>0.83</v>
@@ -25914,7 +25914,7 @@
         <v>12</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L49" s="9">
         <v>1179</v>
@@ -25935,7 +25935,7 @@
         <v>2018</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="V49" s="71"/>
     </row>
@@ -25945,7 +25945,7 @@
         <v>361</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C50" s="9">
         <v>0.8</v>
@@ -25973,7 +25973,7 @@
         <v>12</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="L50" s="9">
         <v>1179</v>
@@ -25994,7 +25994,7 @@
         <v>2018</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="V50" s="57"/>
     </row>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EC989E-5239-49E6-8715-543A4F117350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BE557-D706-4394-87BA-8DFFB0C55DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LargeCatchments_T1" sheetId="1" r:id="rId1"/>
@@ -7053,7 +7053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U129" sqref="U129"/>
     </sheetView>
@@ -22822,7 +22822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
     </sheetView>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BE557-D706-4394-87BA-8DFFB0C55DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD489F35-6602-42DE-B87C-9B289892676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LargeCatchments_T1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCatchments_T3!$L$1:$L$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SmallCatchments_T2!$H$1:$H$252</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -2713,7 +2711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2882,6 +2880,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3198,22 +3199,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="15.59765625" style="2"/>
-    <col min="13" max="14" width="15.59765625" style="4"/>
-    <col min="15" max="18" width="15.59765625" style="17"/>
-    <col min="19" max="19" width="15.59765625" style="4"/>
-    <col min="21" max="21" width="50.59765625" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="15.59765625" style="2"/>
+    <col min="1" max="12" width="15.6328125" style="2"/>
+    <col min="13" max="14" width="15.6328125" style="4"/>
+    <col min="15" max="18" width="15.6328125" style="17"/>
+    <col min="19" max="19" width="15.6328125" style="4"/>
+    <col min="21" max="21" width="50.6328125" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="15.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3654,7 +3655,7 @@
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3715,7 +3716,7 @@
       </c>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3776,7 +3777,7 @@
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3900,7 +3901,7 @@
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3961,7 +3962,7 @@
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4022,7 +4023,7 @@
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4395,7 +4396,7 @@
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4456,7 +4457,7 @@
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4517,7 +4518,7 @@
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4890,7 +4891,7 @@
       </c>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5012,7 +5013,7 @@
       </c>
       <c r="U29" s="27"/>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5073,7 +5074,7 @@
       </c>
       <c r="U30" s="27"/>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5134,7 +5135,7 @@
       </c>
       <c r="U31" s="27"/>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5195,7 +5196,7 @@
       </c>
       <c r="U32" s="27"/>
     </row>
-    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5319,7 +5320,7 @@
       </c>
       <c r="U34" s="27"/>
     </row>
-    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5378,7 +5379,7 @@
       </c>
       <c r="U35" s="27"/>
     </row>
-    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5437,7 +5438,7 @@
       </c>
       <c r="U36" s="27"/>
     </row>
-    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5498,7 +5499,7 @@
       </c>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5558,7 +5559,7 @@
       </c>
       <c r="U38" s="27"/>
     </row>
-    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="U39" s="27"/>
     </row>
-    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5680,7 +5681,7 @@
       </c>
       <c r="U40" s="27"/>
     </row>
-    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5741,7 +5742,7 @@
       </c>
       <c r="U41" s="27"/>
     </row>
-    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6051,7 +6052,7 @@
       </c>
       <c r="U46" s="27"/>
     </row>
-    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6300,7 +6301,7 @@
       </c>
       <c r="U50" s="27"/>
     </row>
-    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6487,7 +6488,7 @@
       </c>
       <c r="U53" s="27"/>
     </row>
-    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6647,10 +6648,10 @@
         <v>837</v>
       </c>
       <c r="M56" s="61">
+        <v>54.2</v>
+      </c>
+      <c r="N56" s="72">
         <v>-122.5</v>
-      </c>
-      <c r="N56" s="61">
-        <v>54.2</v>
       </c>
       <c r="O56" s="25">
         <f t="shared" si="3"/>
@@ -6670,7 +6671,7 @@
       </c>
       <c r="U56" s="27"/>
     </row>
-    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6731,7 +6732,7 @@
       </c>
       <c r="U57" s="27"/>
     </row>
-    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6790,7 +6791,7 @@
       </c>
       <c r="U58" s="27"/>
     </row>
-    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6851,7 +6852,7 @@
       </c>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6911,7 +6912,7 @@
       </c>
       <c r="U60" s="27"/>
     </row>
-    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>759</v>
       </c>
@@ -7053,27 +7054,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U129" sqref="U129"/>
+    <sheetView topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="15.59765625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" style="15" customWidth="1"/>
-    <col min="13" max="14" width="15.59765625" style="9" customWidth="1"/>
-    <col min="15" max="17" width="15.59765625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.59765625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="15.59765625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="15.59765625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="50.59765625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" style="31"/>
-    <col min="23" max="16384" width="10.59765625" style="10"/>
+    <col min="1" max="10" width="15.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" style="15" customWidth="1"/>
+    <col min="13" max="14" width="15.6328125" style="9" customWidth="1"/>
+    <col min="15" max="17" width="15.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="50.6328125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="31"/>
+    <col min="23" max="16384" width="10.6328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7139,7 +7140,7 @@
       </c>
       <c r="V1" s="30"/>
     </row>
-    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>62</v>
       </c>
@@ -7203,7 +7204,7 @@
       </c>
       <c r="V2" s="31"/>
     </row>
-    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>63</v>
       </c>
@@ -7267,7 +7268,7 @@
       </c>
       <c r="V3" s="31"/>
     </row>
-    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>64</v>
       </c>
@@ -7329,7 +7330,7 @@
       <c r="U4"/>
       <c r="V4" s="31"/>
     </row>
-    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>65</v>
       </c>
@@ -7391,7 +7392,7 @@
       <c r="U5"/>
       <c r="V5" s="31"/>
     </row>
-    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>66</v>
       </c>
@@ -7453,7 +7454,7 @@
       <c r="U6"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>67</v>
       </c>
@@ -7517,7 +7518,7 @@
       </c>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>68</v>
       </c>
@@ -7581,7 +7582,7 @@
       </c>
       <c r="V8" s="31"/>
     </row>
-    <row r="9" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>69</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>70</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>71</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>72</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="66">
         <v>73</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>74</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>75</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>76</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>77</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>78</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>79</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>80</v>
       </c>
@@ -8337,7 +8338,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>81</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>82</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>83</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>84</v>
       </c>
@@ -8587,7 +8588,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>86</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>87</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>88</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="66">
         <v>89</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>90</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>91</v>
       </c>
@@ -9028,7 +9029,7 @@
       <c r="T31"/>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>92</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>94</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>-29</v>
       </c>
       <c r="N34">
-        <v>-29.25</v>
+        <v>29.25</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -9219,7 +9220,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>95</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>96</v>
       </c>
@@ -9343,7 +9344,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="66">
         <v>97</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>98</v>
       </c>
@@ -9467,7 +9468,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>99</v>
       </c>
@@ -9528,7 +9529,7 @@
       <c r="T39"/>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>100</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>101</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>102</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>103</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>104</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>105</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>106</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>107</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>108</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>109</v>
       </c>
@@ -10156,7 +10157,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>110</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>111</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>112</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>113</v>
       </c>
@@ -10408,7 +10409,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>114</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>115</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>116</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>117</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>118</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>119</v>
       </c>
@@ -10784,7 +10785,7 @@
       <c r="T59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>120</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>121</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>122</v>
       </c>
@@ -10971,7 +10972,7 @@
       <c r="T62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="66">
         <v>123</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>124</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>125</v>
       </c>
@@ -11158,7 +11159,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>126</v>
       </c>
@@ -11219,7 +11220,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>127</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>128</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>129</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>130</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>131</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="66">
         <v>132</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>133</v>
       </c>
@@ -11658,7 +11659,7 @@
       <c r="T73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>134</v>
       </c>
@@ -11723,7 +11724,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>135</v>
       </c>
@@ -11784,7 +11785,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>136</v>
       </c>
@@ -11845,7 +11846,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>137</v>
       </c>
@@ -11908,7 +11909,7 @@
       </c>
       <c r="U77"/>
     </row>
-    <row r="78" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>138</v>
       </c>
@@ -11969,7 +11970,7 @@
       <c r="T78"/>
       <c r="U78"/>
     </row>
-    <row r="79" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>139</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>140</v>
       </c>
@@ -12093,7 +12094,7 @@
       <c r="T80"/>
       <c r="U80"/>
     </row>
-    <row r="81" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>141</v>
       </c>
@@ -12154,7 +12155,7 @@
       <c r="T81"/>
       <c r="U81"/>
     </row>
-    <row r="82" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>142</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>143</v>
       </c>
@@ -12278,7 +12279,7 @@
       <c r="T83"/>
       <c r="U83"/>
     </row>
-    <row r="84" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>144</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>145</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>146</v>
       </c>
@@ -12471,7 +12472,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>147</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>148</v>
       </c>
@@ -12597,7 +12598,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>149</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>150</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>151</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>152</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>153</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>154</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>155</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>156</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>157</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>158</v>
       </c>
@@ -13232,7 +13233,7 @@
       </c>
       <c r="V98" s="31"/>
     </row>
-    <row r="99" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>159</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>160</v>
       </c>
@@ -13362,7 +13363,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="66">
         <v>161</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="66">
         <v>162</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="66">
         <v>163</v>
       </c>
@@ -13551,7 +13552,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>164</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>165</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>166</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>167</v>
       </c>
@@ -13803,7 +13804,7 @@
       <c r="T107"/>
       <c r="U107"/>
     </row>
-    <row r="108" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>168</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>169</v>
       </c>
@@ -13927,7 +13928,7 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>170</v>
       </c>
@@ -13990,7 +13991,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>171</v>
       </c>
@@ -14051,7 +14052,7 @@
       <c r="T111"/>
       <c r="U111"/>
     </row>
-    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>172</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="U112"/>
       <c r="V112" s="31"/>
     </row>
-    <row r="113" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>173</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>174</v>
       </c>
@@ -14235,7 +14236,7 @@
       <c r="T114"/>
       <c r="U114"/>
     </row>
-    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>175</v>
       </c>
@@ -14299,7 +14300,7 @@
       </c>
       <c r="V115" s="31"/>
     </row>
-    <row r="116" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>176</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>177</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>178</v>
       </c>
@@ -14487,7 +14488,7 @@
       <c r="U118"/>
       <c r="V118" s="31"/>
     </row>
-    <row r="119" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>179</v>
       </c>
@@ -14550,7 +14551,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>180</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="66">
         <v>181</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>182</v>
       </c>
@@ -14737,7 +14738,7 @@
       <c r="T122"/>
       <c r="U122"/>
     </row>
-    <row r="123" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>183</v>
       </c>
@@ -14798,7 +14799,7 @@
       <c r="T123"/>
       <c r="U123"/>
     </row>
-    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>184</v>
       </c>
@@ -14864,7 +14865,7 @@
       </c>
       <c r="V124" s="31"/>
     </row>
-    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>185</v>
       </c>
@@ -14914,7 +14915,7 @@
       </c>
       <c r="V125" s="31"/>
     </row>
-    <row r="126" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>186</v>
       </c>
@@ -14975,7 +14976,7 @@
       <c r="T126"/>
       <c r="U126"/>
     </row>
-    <row r="127" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>187</v>
       </c>
@@ -15038,7 +15039,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="68">
         <v>188</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>189</v>
       </c>
@@ -15159,7 +15160,7 @@
       </c>
       <c r="V129" s="31"/>
     </row>
-    <row r="130" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>190</v>
       </c>
@@ -15220,7 +15221,7 @@
       <c r="T130"/>
       <c r="U130"/>
     </row>
-    <row r="131" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>191</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>192</v>
       </c>
@@ -15346,7 +15347,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>193</v>
       </c>
@@ -15407,7 +15408,7 @@
       <c r="T133"/>
       <c r="U133"/>
     </row>
-    <row r="134" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>194</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>195</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>196</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>197</v>
       </c>
@@ -15646,7 +15647,7 @@
       </c>
       <c r="V137" s="31"/>
     </row>
-    <row r="138" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>198</v>
       </c>
@@ -15707,7 +15708,7 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
-    <row r="139" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>199</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>200</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>201</v>
       </c>
@@ -15890,7 +15891,7 @@
       <c r="T141"/>
       <c r="U141"/>
     </row>
-    <row r="142" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>202</v>
       </c>
@@ -15951,7 +15952,7 @@
       <c r="T142"/>
       <c r="U142"/>
     </row>
-    <row r="143" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>203</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>204</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>205</v>
       </c>
@@ -16138,7 +16139,7 @@
       <c r="T145"/>
       <c r="U145"/>
     </row>
-    <row r="146" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>206</v>
       </c>
@@ -16199,7 +16200,7 @@
       <c r="T146"/>
       <c r="U146"/>
     </row>
-    <row r="147" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>207</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>208</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>209</v>
       </c>
@@ -16388,7 +16389,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>210</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>211</v>
       </c>
@@ -16512,7 +16513,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>212</v>
       </c>
@@ -16573,7 +16574,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>213</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>214</v>
       </c>
@@ -16699,7 +16700,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>215</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>216</v>
       </c>
@@ -16823,7 +16824,7 @@
       <c r="T156"/>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>217</v>
       </c>
@@ -16884,7 +16885,7 @@
       <c r="T157"/>
       <c r="U157"/>
     </row>
-    <row r="158" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>218</v>
       </c>
@@ -16945,7 +16946,7 @@
       <c r="T158"/>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>219</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>220</v>
       </c>
@@ -17073,7 +17074,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>221</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>222</v>
       </c>
@@ -17199,7 +17200,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>223</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>224</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>225</v>
       </c>
@@ -17391,7 +17392,7 @@
       </c>
       <c r="V165" s="31"/>
     </row>
-    <row r="166" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>226</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>227</v>
       </c>
@@ -17517,7 +17518,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>228</v>
       </c>
@@ -17578,7 +17579,7 @@
       <c r="T168"/>
       <c r="U168"/>
     </row>
-    <row r="169" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>229</v>
       </c>
@@ -17639,7 +17640,7 @@
       <c r="T169"/>
       <c r="U169"/>
     </row>
-    <row r="170" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>230</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>231</v>
       </c>
@@ -17763,7 +17764,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>232</v>
       </c>
@@ -17826,7 +17827,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>233</v>
       </c>
@@ -17889,7 +17890,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>234</v>
       </c>
@@ -17952,7 +17953,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>235</v>
       </c>
@@ -18015,7 +18016,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>236</v>
       </c>
@@ -18076,7 +18077,7 @@
       <c r="T176"/>
       <c r="U176"/>
     </row>
-    <row r="177" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>237</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>238</v>
       </c>
@@ -18202,7 +18203,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>239</v>
       </c>
@@ -18267,7 +18268,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>240</v>
       </c>
@@ -18332,7 +18333,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>241</v>
       </c>
@@ -18393,7 +18394,7 @@
       <c r="T181"/>
       <c r="U181"/>
     </row>
-    <row r="182" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>242</v>
       </c>
@@ -18456,7 +18457,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>243</v>
       </c>
@@ -18517,7 +18518,7 @@
       <c r="T183"/>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="66">
         <v>244</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>245</v>
       </c>
@@ -18641,7 +18642,7 @@
       <c r="T185"/>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>246</v>
       </c>
@@ -18702,7 +18703,7 @@
       <c r="T186"/>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>247</v>
       </c>
@@ -18765,7 +18766,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>248</v>
       </c>
@@ -18826,7 +18827,7 @@
       <c r="T188"/>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>249</v>
       </c>
@@ -18887,7 +18888,7 @@
       <c r="T189"/>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>250</v>
       </c>
@@ -18948,7 +18949,7 @@
       <c r="T190"/>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>251</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>252</v>
       </c>
@@ -19072,7 +19073,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>253</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="68">
         <v>254</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>255</v>
       </c>
@@ -19257,7 +19258,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>256</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>257</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>258</v>
       </c>
@@ -19446,7 +19447,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>259</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>260</v>
       </c>
@@ -19574,7 +19575,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>261</v>
       </c>
@@ -19635,7 +19636,7 @@
       <c r="T201"/>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>262</v>
       </c>
@@ -19696,7 +19697,7 @@
       <c r="T202"/>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>263</v>
       </c>
@@ -19757,7 +19758,7 @@
       <c r="T203"/>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>264</v>
       </c>
@@ -19822,7 +19823,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>265</v>
       </c>
@@ -19887,7 +19888,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>266</v>
       </c>
@@ -19948,7 +19949,7 @@
       <c r="T206"/>
       <c r="U206"/>
     </row>
-    <row r="207" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>267</v>
       </c>
@@ -20011,7 +20012,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>268</v>
       </c>
@@ -20074,7 +20075,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>269</v>
       </c>
@@ -20137,7 +20138,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>270</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="66">
         <v>271</v>
       </c>
@@ -20263,7 +20264,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>272</v>
       </c>
@@ -20326,7 +20327,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>273</v>
       </c>
@@ -20387,7 +20388,7 @@
       <c r="T213"/>
       <c r="U213"/>
     </row>
-    <row r="214" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>274</v>
       </c>
@@ -20448,7 +20449,7 @@
       <c r="T214"/>
       <c r="U214"/>
     </row>
-    <row r="215" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>275</v>
       </c>
@@ -20511,7 +20512,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>276</v>
       </c>
@@ -20572,7 +20573,7 @@
       <c r="T216"/>
       <c r="U216"/>
     </row>
-    <row r="217" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>277</v>
       </c>
@@ -20635,7 +20636,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>278</v>
       </c>
@@ -20692,7 +20693,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>279</v>
       </c>
@@ -20753,7 +20754,7 @@
       <c r="T219"/>
       <c r="U219"/>
     </row>
-    <row r="220" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>280</v>
       </c>
@@ -20814,7 +20815,7 @@
       <c r="T220"/>
       <c r="U220"/>
     </row>
-    <row r="221" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>281</v>
       </c>
@@ -20875,7 +20876,7 @@
       <c r="T221"/>
       <c r="U221"/>
     </row>
-    <row r="222" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>282</v>
       </c>
@@ -20936,7 +20937,7 @@
       <c r="T222"/>
       <c r="U222"/>
     </row>
-    <row r="223" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="66">
         <v>283</v>
       </c>
@@ -20999,7 +21000,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>284</v>
       </c>
@@ -21060,7 +21061,7 @@
       <c r="T224"/>
       <c r="U224"/>
     </row>
-    <row r="225" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>285</v>
       </c>
@@ -21121,7 +21122,7 @@
       <c r="T225"/>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>286</v>
       </c>
@@ -21182,7 +21183,7 @@
       <c r="T226"/>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>287</v>
       </c>
@@ -21243,7 +21244,7 @@
       <c r="T227"/>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>288</v>
       </c>
@@ -21304,7 +21305,7 @@
       <c r="T228"/>
       <c r="U228"/>
     </row>
-    <row r="229" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>289</v>
       </c>
@@ -21365,7 +21366,7 @@
       <c r="T229"/>
       <c r="U229"/>
     </row>
-    <row r="230" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>290</v>
       </c>
@@ -21426,7 +21427,7 @@
       <c r="T230"/>
       <c r="U230"/>
     </row>
-    <row r="231" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>291</v>
       </c>
@@ -21489,7 +21490,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>292</v>
       </c>
@@ -21550,7 +21551,7 @@
       <c r="T232"/>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>293</v>
       </c>
@@ -21611,7 +21612,7 @@
       <c r="T233"/>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>294</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>295</v>
       </c>
@@ -21737,7 +21738,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>296</v>
       </c>
@@ -21800,7 +21801,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>297</v>
       </c>
@@ -21861,7 +21862,7 @@
       <c r="T237"/>
       <c r="U237"/>
     </row>
-    <row r="238" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>298</v>
       </c>
@@ -21924,7 +21925,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>299</v>
       </c>
@@ -21985,7 +21986,7 @@
       <c r="T239"/>
       <c r="U239"/>
     </row>
-    <row r="240" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>300</v>
       </c>
@@ -22046,7 +22047,7 @@
       <c r="T240"/>
       <c r="U240"/>
     </row>
-    <row r="241" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>301</v>
       </c>
@@ -22109,7 +22110,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>302</v>
       </c>
@@ -22174,7 +22175,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>303</v>
       </c>
@@ -22239,7 +22240,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>304</v>
       </c>
@@ -22304,7 +22305,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>305</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>306</v>
       </c>
@@ -22432,7 +22433,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>307</v>
       </c>
@@ -22495,7 +22496,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>308</v>
       </c>
@@ -22558,7 +22559,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>309</v>
       </c>
@@ -22621,7 +22622,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>310</v>
       </c>
@@ -22684,7 +22685,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>311</v>
       </c>
@@ -22745,7 +22746,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>312</v>
       </c>
@@ -22822,27 +22823,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.59765625" style="9"/>
-    <col min="7" max="7" width="15.59765625" style="55"/>
-    <col min="8" max="9" width="15.59765625" style="9"/>
-    <col min="10" max="10" width="15.59765625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="8"/>
-    <col min="12" max="17" width="15.59765625" style="9"/>
-    <col min="18" max="18" width="15.59765625" style="14"/>
-    <col min="19" max="20" width="15.59765625" style="9"/>
-    <col min="21" max="21" width="50.59765625" style="8" customWidth="1"/>
-    <col min="22" max="46" width="15.59765625" style="15"/>
-    <col min="47" max="16384" width="15.59765625" style="9"/>
+    <col min="1" max="6" width="15.6328125" style="9"/>
+    <col min="7" max="7" width="15.6328125" style="55"/>
+    <col min="8" max="9" width="15.6328125" style="9"/>
+    <col min="10" max="10" width="15.6328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" style="8"/>
+    <col min="12" max="17" width="15.6328125" style="9"/>
+    <col min="18" max="18" width="15.6328125" style="14"/>
+    <col min="19" max="20" width="15.6328125" style="9"/>
+    <col min="21" max="21" width="50.6328125" style="8" customWidth="1"/>
+    <col min="22" max="46" width="15.6328125" style="15"/>
+    <col min="47" max="16384" width="15.6328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -22932,7 +22933,7 @@
       <c r="AS1" s="49"/>
       <c r="AT1" s="49"/>
     </row>
-    <row r="2" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>313</v>
       </c>
@@ -22993,7 +22994,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>314</v>
       </c>
@@ -23054,7 +23055,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>315</v>
       </c>
@@ -23115,7 +23116,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="33"/>
     </row>
-    <row r="5" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>316</v>
       </c>
@@ -23176,7 +23177,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>317</v>
       </c>
@@ -23237,7 +23238,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>318</v>
       </c>
@@ -23298,7 +23299,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="33"/>
     </row>
-    <row r="8" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>319</v>
       </c>
@@ -23359,7 +23360,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="33"/>
     </row>
-    <row r="9" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>320</v>
       </c>
@@ -23420,7 +23421,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>321</v>
       </c>
@@ -23481,7 +23482,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>322</v>
       </c>
@@ -23542,7 +23543,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>323</v>
       </c>
@@ -23603,7 +23604,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>324</v>
       </c>
@@ -23668,7 +23669,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>325</v>
       </c>
@@ -23729,7 +23730,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>326</v>
       </c>
@@ -23790,7 +23791,7 @@
       <c r="T15" s="15"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>327</v>
       </c>
@@ -23851,7 +23852,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>328</v>
       </c>
@@ -23915,7 +23916,7 @@
       </c>
       <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>329</v>
       </c>
@@ -23974,7 +23975,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>330</v>
       </c>
@@ -24037,7 +24038,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>331</v>
       </c>
@@ -24100,7 +24101,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>332</v>
       </c>
@@ -24163,7 +24164,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>333</v>
       </c>
@@ -24224,7 +24225,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>334</v>
       </c>
@@ -24289,7 +24290,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>335</v>
       </c>
@@ -24352,7 +24353,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>336</v>
       </c>
@@ -24416,7 +24417,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>337</v>
       </c>
@@ -24481,7 +24482,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f>A26+1</f>
         <v>338</v>
@@ -24545,7 +24546,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f t="shared" ref="A28:A50" si="0">A27+1</f>
         <v>339</v>
@@ -24610,7 +24611,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -24673,7 +24674,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -24736,7 +24737,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>342</v>
@@ -24799,7 +24800,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>343</v>
@@ -24862,7 +24863,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -24925,7 +24926,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>345</v>
@@ -24988,7 +24989,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>346</v>
@@ -25051,7 +25052,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>347</v>
@@ -25114,7 +25115,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>348</v>
@@ -25177,7 +25178,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>349</v>
@@ -25240,7 +25241,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -25305,7 +25306,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -25371,7 +25372,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>352</v>
@@ -25432,7 +25433,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>353</v>
@@ -25497,7 +25498,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>354</v>
@@ -25562,7 +25563,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>355</v>
@@ -25629,7 +25630,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>356</v>
@@ -25696,7 +25697,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <f t="shared" si="0"/>
         <v>357</v>
@@ -25762,7 +25763,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="69">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -25821,7 +25822,7 @@
       </c>
       <c r="V47" s="57"/>
     </row>
-    <row r="48" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="69">
         <f t="shared" si="0"/>
         <v>359</v>
@@ -25880,7 +25881,7 @@
       </c>
       <c r="V48" s="57"/>
     </row>
-    <row r="49" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -25939,7 +25940,7 @@
       </c>
       <c r="V49" s="71"/>
     </row>
-    <row r="50" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="69">
         <f t="shared" si="0"/>
         <v>361</v>

--- a/data/AllData_Catchments.xlsx
+++ b/data/AllData_Catchments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Dropbox (Sydney Uni)\Research\Forest_and_water\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD489F35-6602-42DE-B87C-9B289892676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D8179A-21D5-462D-98F1-9FF12ABFA37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LargeCatchments_T1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCatchments_T3!$L$1:$L$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SmallCatchments_T2!$H$1:$H$252</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="829">
   <si>
     <t>Watershed #</t>
   </si>
@@ -2544,6 +2546,33 @@
   </si>
   <si>
     <t>This should be a decrease in forest cover rather than an increase.</t>
+  </si>
+  <si>
+    <t>Don Tomas</t>
+  </si>
+  <si>
+    <t>Silveira et al., 2016</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>DeltaQf_perc calculated from Table II as (QsNatural grasslands-QsForest/QsNatural grasslands) and yearly averaged</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t>Iroumé A, O Mayen, A Huber. 2006. Runoff and peak flow responses to timber harvest and forest age in southern Chile. Hydrological Processes 20: 37-50. DOI: 10.1002/ hyp.5897</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Andrés Iroumé, Hardin Palacios, Afforestation and changes in forest composition affect runoff in large river basins with pluvial regime and Mediterranean climate, Chile, Journal of Hydrology, Volume 505, 2013, Pages 113-125, ISSN 0022-1694, https://doi.org/10.1016/j.jhydrol.2013.09.031.</t>
+  </si>
+  <si>
+    <t>Iroumé y Palacios., 2013</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2883,6 +2912,20 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3199,22 +3242,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="12" width="15.6328125" style="2"/>
-    <col min="13" max="14" width="15.6328125" style="4"/>
-    <col min="15" max="18" width="15.6328125" style="17"/>
-    <col min="19" max="19" width="15.6328125" style="4"/>
-    <col min="21" max="21" width="50.6328125" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="15.6328125" style="2"/>
+    <col min="1" max="12" width="15.59765625" style="2"/>
+    <col min="13" max="14" width="15.59765625" style="4"/>
+    <col min="15" max="18" width="15.59765625" style="17"/>
+    <col min="19" max="19" width="15.59765625" style="4"/>
+    <col min="21" max="21" width="50.59765625" style="23" customWidth="1"/>
+    <col min="23" max="16384" width="15.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3322,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3342,7 +3385,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3405,7 +3448,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3468,7 +3511,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3531,7 +3574,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3594,7 +3637,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3655,7 +3698,7 @@
       </c>
       <c r="U7" s="27"/>
     </row>
-    <row r="8" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3716,7 +3759,7 @@
       </c>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3777,7 +3820,7 @@
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3840,7 +3883,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3901,7 +3944,7 @@
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3962,7 +4005,7 @@
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4023,7 +4066,7 @@
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -4086,7 +4129,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4147,7 +4190,7 @@
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4210,7 +4253,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4272,7 +4315,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4335,7 +4378,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4396,7 +4439,7 @@
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4457,7 +4500,7 @@
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4518,7 +4561,7 @@
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4581,7 +4624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4644,7 +4687,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4707,7 +4750,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4769,7 +4812,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4832,7 +4875,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4891,7 +4934,7 @@
       </c>
       <c r="U27" s="27"/>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4954,7 +4997,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5013,7 +5056,7 @@
       </c>
       <c r="U29" s="27"/>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5074,7 +5117,7 @@
       </c>
       <c r="U30" s="27"/>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5135,7 +5178,7 @@
       </c>
       <c r="U31" s="27"/>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5196,7 +5239,7 @@
       </c>
       <c r="U32" s="27"/>
     </row>
-    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5259,7 +5302,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5320,7 +5363,7 @@
       </c>
       <c r="U34" s="27"/>
     </row>
-    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5379,7 +5422,7 @@
       </c>
       <c r="U35" s="27"/>
     </row>
-    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5438,7 +5481,7 @@
       </c>
       <c r="U36" s="27"/>
     </row>
-    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5499,7 +5542,7 @@
       </c>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5559,7 +5602,7 @@
       </c>
       <c r="U38" s="27"/>
     </row>
-    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5620,7 +5663,7 @@
       </c>
       <c r="U39" s="27"/>
     </row>
-    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5681,7 +5724,7 @@
       </c>
       <c r="U40" s="27"/>
     </row>
-    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5742,7 +5785,7 @@
       </c>
       <c r="U41" s="27"/>
     </row>
-    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5805,7 +5848,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5868,7 +5911,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5930,7 +5973,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5992,7 +6035,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6052,7 +6095,7 @@
       </c>
       <c r="U46" s="27"/>
     </row>
-    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6115,7 +6158,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6177,7 +6220,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6240,7 +6283,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6301,7 +6344,7 @@
       </c>
       <c r="U50" s="27"/>
     </row>
-    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6364,7 +6407,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6427,7 +6470,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6488,7 +6531,7 @@
       </c>
       <c r="U53" s="27"/>
     </row>
-    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6547,7 +6590,7 @@
       </c>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6610,7 +6653,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6671,7 +6714,7 @@
       </c>
       <c r="U56" s="27"/>
     </row>
-    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6732,7 +6775,7 @@
       </c>
       <c r="U57" s="27"/>
     </row>
-    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6791,7 +6834,7 @@
       </c>
       <c r="U58" s="27"/>
     </row>
-    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6852,7 +6895,7 @@
       </c>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6912,7 +6955,7 @@
       </c>
       <c r="U60" s="27"/>
     </row>
-    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6975,7 +7018,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -7038,7 +7081,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>759</v>
       </c>
@@ -7059,22 +7102,22 @@
       <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="15.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="15.6328125" style="9" customWidth="1"/>
-    <col min="15" max="17" width="15.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="50.6328125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="31"/>
-    <col min="23" max="16384" width="10.6328125" style="10"/>
+    <col min="1" max="10" width="15.59765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" style="15" customWidth="1"/>
+    <col min="13" max="14" width="15.59765625" style="9" customWidth="1"/>
+    <col min="15" max="17" width="15.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.59765625" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.59765625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="15.59765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="50.59765625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.59765625" style="31"/>
+    <col min="23" max="16384" width="10.59765625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7140,7 +7183,7 @@
       </c>
       <c r="V1" s="30"/>
     </row>
-    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>62</v>
       </c>
@@ -7204,7 +7247,7 @@
       </c>
       <c r="V2" s="31"/>
     </row>
-    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>63</v>
       </c>
@@ -7268,7 +7311,7 @@
       </c>
       <c r="V3" s="31"/>
     </row>
-    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>64</v>
       </c>
@@ -7330,7 +7373,7 @@
       <c r="U4"/>
       <c r="V4" s="31"/>
     </row>
-    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>65</v>
       </c>
@@ -7392,7 +7435,7 @@
       <c r="U5"/>
       <c r="V5" s="31"/>
     </row>
-    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>66</v>
       </c>
@@ -7454,7 +7497,7 @@
       <c r="U6"/>
       <c r="V6" s="31"/>
     </row>
-    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>67</v>
       </c>
@@ -7518,7 +7561,7 @@
       </c>
       <c r="V7" s="31"/>
     </row>
-    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="40" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>68</v>
       </c>
@@ -7582,7 +7625,7 @@
       </c>
       <c r="V8" s="31"/>
     </row>
-    <row r="9" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>69</v>
       </c>
@@ -7645,7 +7688,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>70</v>
       </c>
@@ -7708,7 +7751,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>71</v>
       </c>
@@ -7771,7 +7814,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>72</v>
       </c>
@@ -7834,7 +7877,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="66">
         <v>73</v>
       </c>
@@ -7897,7 +7940,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>74</v>
       </c>
@@ -7960,7 +8003,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>75</v>
       </c>
@@ -8023,7 +8066,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>76</v>
       </c>
@@ -8086,7 +8129,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>77</v>
       </c>
@@ -8149,7 +8192,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>78</v>
       </c>
@@ -8212,7 +8255,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>79</v>
       </c>
@@ -8275,7 +8318,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>80</v>
       </c>
@@ -8338,7 +8381,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>81</v>
       </c>
@@ -8401,7 +8444,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>82</v>
       </c>
@@ -8464,7 +8507,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>83</v>
       </c>
@@ -8527,7 +8570,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>84</v>
       </c>
@@ -8588,7 +8631,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8653,7 +8696,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>86</v>
       </c>
@@ -8716,7 +8759,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>87</v>
       </c>
@@ -8779,7 +8822,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>88</v>
       </c>
@@ -8842,7 +8885,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="66">
         <v>89</v>
       </c>
@@ -8905,7 +8948,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>90</v>
       </c>
@@ -8968,7 +9011,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>91</v>
       </c>
@@ -9029,7 +9072,7 @@
       <c r="T31"/>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>92</v>
       </c>
@@ -9092,7 +9135,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>93</v>
       </c>
@@ -9157,7 +9200,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>94</v>
       </c>
@@ -9220,7 +9263,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>95</v>
       </c>
@@ -9283,7 +9326,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>96</v>
       </c>
@@ -9344,7 +9387,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="66">
         <v>97</v>
       </c>
@@ -9407,7 +9450,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>98</v>
       </c>
@@ -9468,7 +9511,7 @@
       <c r="T38"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>99</v>
       </c>
@@ -9529,7 +9572,7 @@
       <c r="T39"/>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>100</v>
       </c>
@@ -9592,7 +9635,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>101</v>
       </c>
@@ -9653,7 +9696,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>102</v>
       </c>
@@ -9716,7 +9759,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>103</v>
       </c>
@@ -9779,7 +9822,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>104</v>
       </c>
@@ -9842,7 +9885,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>105</v>
       </c>
@@ -9905,7 +9948,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>106</v>
       </c>
@@ -9968,7 +10011,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>107</v>
       </c>
@@ -10031,7 +10074,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>108</v>
       </c>
@@ -10094,7 +10137,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>109</v>
       </c>
@@ -10157,7 +10200,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>110</v>
       </c>
@@ -10220,7 +10263,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>111</v>
       </c>
@@ -10283,7 +10326,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>112</v>
       </c>
@@ -10346,7 +10389,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>113</v>
       </c>
@@ -10409,7 +10452,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>114</v>
       </c>
@@ -10472,7 +10515,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>115</v>
       </c>
@@ -10535,7 +10578,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>116</v>
       </c>
@@ -10598,7 +10641,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>117</v>
       </c>
@@ -10661,7 +10704,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>118</v>
       </c>
@@ -10724,7 +10767,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>119</v>
       </c>
@@ -10785,7 +10828,7 @@
       <c r="T59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>120</v>
       </c>
@@ -10848,7 +10891,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>121</v>
       </c>
@@ -10911,7 +10954,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>122</v>
       </c>
@@ -10972,7 +11015,7 @@
       <c r="T62"/>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="66">
         <v>123</v>
       </c>
@@ -11035,7 +11078,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>124</v>
       </c>
@@ -11098,7 +11141,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>125</v>
       </c>
@@ -11159,7 +11202,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>126</v>
       </c>
@@ -11220,7 +11263,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>127</v>
       </c>
@@ -11283,7 +11326,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>128</v>
       </c>
@@ -11346,7 +11389,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>129</v>
       </c>
@@ -11409,7 +11452,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>130</v>
       </c>
@@ -11472,7 +11515,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>131</v>
       </c>
@@ -11535,7 +11578,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="66">
         <v>132</v>
       </c>
@@ -11598,7 +11641,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>133</v>
       </c>
@@ -11659,7 +11702,7 @@
       <c r="T73"/>
       <c r="U73"/>
     </row>
-    <row r="74" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>134</v>
       </c>
@@ -11724,7 +11767,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>135</v>
       </c>
@@ -11785,7 +11828,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>136</v>
       </c>
@@ -11846,7 +11889,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>137</v>
       </c>
@@ -11909,7 +11952,7 @@
       </c>
       <c r="U77"/>
     </row>
-    <row r="78" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>138</v>
       </c>
@@ -11970,7 +12013,7 @@
       <c r="T78"/>
       <c r="U78"/>
     </row>
-    <row r="79" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>139</v>
       </c>
@@ -12033,7 +12076,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>140</v>
       </c>
@@ -12094,7 +12137,7 @@
       <c r="T80"/>
       <c r="U80"/>
     </row>
-    <row r="81" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>141</v>
       </c>
@@ -12155,7 +12198,7 @@
       <c r="T81"/>
       <c r="U81"/>
     </row>
-    <row r="82" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>142</v>
       </c>
@@ -12218,7 +12261,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>143</v>
       </c>
@@ -12279,7 +12322,7 @@
       <c r="T83"/>
       <c r="U83"/>
     </row>
-    <row r="84" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>144</v>
       </c>
@@ -12342,7 +12385,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>145</v>
       </c>
@@ -12407,7 +12450,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>146</v>
       </c>
@@ -12472,7 +12515,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>147</v>
       </c>
@@ -12535,7 +12578,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>148</v>
       </c>
@@ -12598,7 +12641,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>149</v>
       </c>
@@ -12661,7 +12704,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>150</v>
       </c>
@@ -12724,7 +12767,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>151</v>
       </c>
@@ -12789,7 +12832,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>152</v>
       </c>
@@ -12854,7 +12897,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>153</v>
       </c>
@@ -12919,7 +12962,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>154</v>
       </c>
@@ -12982,7 +13025,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>155</v>
       </c>
@@ -13045,7 +13088,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>156</v>
       </c>
@@ -13110,7 +13153,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>157</v>
       </c>
@@ -13175,7 +13218,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>158</v>
       </c>
@@ -13233,7 +13276,7 @@
       </c>
       <c r="V98" s="31"/>
     </row>
-    <row r="99" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>159</v>
       </c>
@@ -13298,7 +13341,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>160</v>
       </c>
@@ -13363,7 +13406,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="66">
         <v>161</v>
       </c>
@@ -13426,7 +13469,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="66">
         <v>162</v>
       </c>
@@ -13489,7 +13532,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="66">
         <v>163</v>
       </c>
@@ -13552,7 +13595,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>164</v>
       </c>
@@ -13615,7 +13658,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>165</v>
       </c>
@@ -13680,7 +13723,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>166</v>
       </c>
@@ -13743,7 +13786,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>167</v>
       </c>
@@ -13804,7 +13847,7 @@
       <c r="T107"/>
       <c r="U107"/>
     </row>
-    <row r="108" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>168</v>
       </c>
@@ -13867,7 +13910,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>169</v>
       </c>
@@ -13928,7 +13971,7 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>170</v>
       </c>
@@ -13991,7 +14034,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>171</v>
       </c>
@@ -14052,7 +14095,7 @@
       <c r="T111"/>
       <c r="U111"/>
     </row>
-    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>172</v>
       </c>
@@ -14114,7 +14157,7 @@
       <c r="U112"/>
       <c r="V112" s="31"/>
     </row>
-    <row r="113" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>173</v>
       </c>
@@ -14175,7 +14218,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>174</v>
       </c>
@@ -14236,7 +14279,7 @@
       <c r="T114"/>
       <c r="U114"/>
     </row>
-    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>175</v>
       </c>
@@ -14300,7 +14343,7 @@
       </c>
       <c r="V115" s="31"/>
     </row>
-    <row r="116" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>176</v>
       </c>
@@ -14363,7 +14406,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>177</v>
       </c>
@@ -14426,7 +14469,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>178</v>
       </c>
@@ -14488,7 +14531,7 @@
       <c r="U118"/>
       <c r="V118" s="31"/>
     </row>
-    <row r="119" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>179</v>
       </c>
@@ -14551,7 +14594,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>180</v>
       </c>
@@ -14614,7 +14657,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="66">
         <v>181</v>
       </c>
@@ -14677,7 +14720,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>182</v>
       </c>
@@ -14738,7 +14781,7 @@
       <c r="T122"/>
       <c r="U122"/>
     </row>
-    <row r="123" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>183</v>
       </c>
@@ -14799,7 +14842,7 @@
       <c r="T123"/>
       <c r="U123"/>
     </row>
-    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" s="13" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>184</v>
       </c>
@@ -14865,7 +14908,7 @@
       </c>
       <c r="V124" s="31"/>
     </row>
-    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>185</v>
       </c>
@@ -14915,7 +14958,7 @@
       </c>
       <c r="V125" s="31"/>
     </row>
-    <row r="126" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>186</v>
       </c>
@@ -14976,7 +15019,7 @@
       <c r="T126"/>
       <c r="U126"/>
     </row>
-    <row r="127" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>187</v>
       </c>
@@ -15039,7 +15082,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="68">
         <v>188</v>
       </c>
@@ -15100,7 +15143,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>189</v>
       </c>
@@ -15160,7 +15203,7 @@
       </c>
       <c r="V129" s="31"/>
     </row>
-    <row r="130" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>190</v>
       </c>
@@ -15221,7 +15264,7 @@
       <c r="T130"/>
       <c r="U130"/>
     </row>
-    <row r="131" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>191</v>
       </c>
@@ -15284,7 +15327,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>192</v>
       </c>
@@ -15347,7 +15390,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>193</v>
       </c>
@@ -15408,7 +15451,7 @@
       <c r="T133"/>
       <c r="U133"/>
     </row>
-    <row r="134" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>194</v>
       </c>
@@ -15471,7 +15514,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>195</v>
       </c>
@@ -15534,7 +15577,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>196</v>
       </c>
@@ -15597,7 +15640,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:22" s="12" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>197</v>
       </c>
@@ -15647,7 +15690,7 @@
       </c>
       <c r="V137" s="31"/>
     </row>
-    <row r="138" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>198</v>
       </c>
@@ -15708,7 +15751,7 @@
       <c r="T138"/>
       <c r="U138"/>
     </row>
-    <row r="139" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>199</v>
       </c>
@@ -15771,7 +15814,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>200</v>
       </c>
@@ -15832,7 +15875,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>201</v>
       </c>
@@ -15891,7 +15934,7 @@
       <c r="T141"/>
       <c r="U141"/>
     </row>
-    <row r="142" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>202</v>
       </c>
@@ -15952,7 +15995,7 @@
       <c r="T142"/>
       <c r="U142"/>
     </row>
-    <row r="143" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>203</v>
       </c>
@@ -16015,7 +16058,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>204</v>
       </c>
@@ -16078,7 +16121,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>205</v>
       </c>
@@ -16139,7 +16182,7 @@
       <c r="T145"/>
       <c r="U145"/>
     </row>
-    <row r="146" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>206</v>
       </c>
@@ -16200,7 +16243,7 @@
       <c r="T146"/>
       <c r="U146"/>
     </row>
-    <row r="147" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>207</v>
       </c>
@@ -16263,7 +16306,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>208</v>
       </c>
@@ -16326,7 +16369,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>209</v>
       </c>
@@ -16389,7 +16432,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>210</v>
       </c>
@@ -16452,7 +16495,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>211</v>
       </c>
@@ -16513,7 +16556,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>212</v>
       </c>
@@ -16574,7 +16617,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>213</v>
       </c>
@@ -16637,7 +16680,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>214</v>
       </c>
@@ -16700,7 +16743,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>215</v>
       </c>
@@ -16763,7 +16806,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>216</v>
       </c>
@@ -16824,7 +16867,7 @@
       <c r="T156"/>
       <c r="U156"/>
     </row>
-    <row r="157" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>217</v>
       </c>
@@ -16885,7 +16928,7 @@
       <c r="T157"/>
       <c r="U157"/>
     </row>
-    <row r="158" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>218</v>
       </c>
@@ -16946,7 +16989,7 @@
       <c r="T158"/>
       <c r="U158"/>
     </row>
-    <row r="159" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>219</v>
       </c>
@@ -17009,7 +17052,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>220</v>
       </c>
@@ -17074,7 +17117,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>221</v>
       </c>
@@ -17137,7 +17180,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>222</v>
       </c>
@@ -17200,7 +17243,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>223</v>
       </c>
@@ -17265,7 +17308,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>224</v>
       </c>
@@ -17328,7 +17371,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:22" s="11" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>225</v>
       </c>
@@ -17392,7 +17435,7 @@
       </c>
       <c r="V165" s="31"/>
     </row>
-    <row r="166" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>226</v>
       </c>
@@ -17453,7 +17496,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>227</v>
       </c>
@@ -17518,7 +17561,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>228</v>
       </c>
@@ -17579,7 +17622,7 @@
       <c r="T168"/>
       <c r="U168"/>
     </row>
-    <row r="169" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>229</v>
       </c>
@@ -17640,7 +17683,7 @@
       <c r="T169"/>
       <c r="U169"/>
     </row>
-    <row r="170" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>230</v>
       </c>
@@ -17701,7 +17744,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>231</v>
       </c>
@@ -17764,7 +17807,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>232</v>
       </c>
@@ -17827,7 +17870,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>233</v>
       </c>
@@ -17890,7 +17933,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>234</v>
       </c>
@@ -17953,7 +17996,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>235</v>
       </c>
@@ -18016,7 +18059,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>236</v>
       </c>
@@ -18077,7 +18120,7 @@
       <c r="T176"/>
       <c r="U176"/>
     </row>
-    <row r="177" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>237</v>
       </c>
@@ -18140,7 +18183,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>238</v>
       </c>
@@ -18203,7 +18246,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>239</v>
       </c>
@@ -18268,7 +18311,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>240</v>
       </c>
@@ -18333,7 +18376,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>241</v>
       </c>
@@ -18394,7 +18437,7 @@
       <c r="T181"/>
       <c r="U181"/>
     </row>
-    <row r="182" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>242</v>
       </c>
@@ -18457,7 +18500,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>243</v>
       </c>
@@ -18518,7 +18561,7 @@
       <c r="T183"/>
       <c r="U183"/>
     </row>
-    <row r="184" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="66">
         <v>244</v>
       </c>
@@ -18581,7 +18624,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>245</v>
       </c>
@@ -18642,7 +18685,7 @@
       <c r="T185"/>
       <c r="U185"/>
     </row>
-    <row r="186" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>246</v>
       </c>
@@ -18703,7 +18746,7 @@
       <c r="T186"/>
       <c r="U186"/>
     </row>
-    <row r="187" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>247</v>
       </c>
@@ -18766,7 +18809,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>248</v>
       </c>
@@ -18827,7 +18870,7 @@
       <c r="T188"/>
       <c r="U188"/>
     </row>
-    <row r="189" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>249</v>
       </c>
@@ -18888,7 +18931,7 @@
       <c r="T189"/>
       <c r="U189"/>
     </row>
-    <row r="190" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>250</v>
       </c>
@@ -18949,7 +18992,7 @@
       <c r="T190"/>
       <c r="U190"/>
     </row>
-    <row r="191" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>251</v>
       </c>
@@ -19012,7 +19055,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>252</v>
       </c>
@@ -19073,7 +19116,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>253</v>
       </c>
@@ -19134,7 +19177,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="68">
         <v>254</v>
       </c>
@@ -19195,7 +19238,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>255</v>
       </c>
@@ -19258,7 +19301,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>256</v>
       </c>
@@ -19321,7 +19364,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>257</v>
       </c>
@@ -19384,7 +19427,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>258</v>
       </c>
@@ -19447,7 +19490,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>259</v>
       </c>
@@ -19510,7 +19553,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>260</v>
       </c>
@@ -19575,7 +19618,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>261</v>
       </c>
@@ -19636,7 +19679,7 @@
       <c r="T201"/>
       <c r="U201"/>
     </row>
-    <row r="202" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>262</v>
       </c>
@@ -19697,7 +19740,7 @@
       <c r="T202"/>
       <c r="U202"/>
     </row>
-    <row r="203" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>263</v>
       </c>
@@ -19758,7 +19801,7 @@
       <c r="T203"/>
       <c r="U203"/>
     </row>
-    <row r="204" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>264</v>
       </c>
@@ -19823,7 +19866,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>265</v>
       </c>
@@ -19888,7 +19931,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>266</v>
       </c>
@@ -19949,7 +19992,7 @@
       <c r="T206"/>
       <c r="U206"/>
     </row>
-    <row r="207" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>267</v>
       </c>
@@ -20012,7 +20055,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>268</v>
       </c>
@@ -20075,7 +20118,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>269</v>
       </c>
@@ -20138,7 +20181,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>270</v>
       </c>
@@ -20201,7 +20244,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="66">
         <v>271</v>
       </c>
@@ -20264,7 +20307,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>272</v>
       </c>
@@ -20327,7 +20370,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>273</v>
       </c>
@@ -20388,7 +20431,7 @@
       <c r="T213"/>
       <c r="U213"/>
     </row>
-    <row r="214" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>274</v>
       </c>
@@ -20449,7 +20492,7 @@
       <c r="T214"/>
       <c r="U214"/>
     </row>
-    <row r="215" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>275</v>
       </c>
@@ -20512,7 +20555,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>276</v>
       </c>
@@ -20573,7 +20616,7 @@
       <c r="T216"/>
       <c r="U216"/>
     </row>
-    <row r="217" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>277</v>
       </c>
@@ -20636,7 +20679,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>278</v>
       </c>
@@ -20693,7 +20736,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>279</v>
       </c>
@@ -20754,7 +20797,7 @@
       <c r="T219"/>
       <c r="U219"/>
     </row>
-    <row r="220" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>280</v>
       </c>
@@ -20815,7 +20858,7 @@
       <c r="T220"/>
       <c r="U220"/>
     </row>
-    <row r="221" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>281</v>
       </c>
@@ -20876,7 +20919,7 @@
       <c r="T221"/>
       <c r="U221"/>
     </row>
-    <row r="222" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>282</v>
       </c>
@@ -20937,7 +20980,7 @@
       <c r="T222"/>
       <c r="U222"/>
     </row>
-    <row r="223" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="66">
         <v>283</v>
       </c>
@@ -21000,7 +21043,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>284</v>
       </c>
@@ -21061,7 +21104,7 @@
       <c r="T224"/>
       <c r="U224"/>
     </row>
-    <row r="225" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>285</v>
       </c>
@@ -21122,7 +21165,7 @@
       <c r="T225"/>
       <c r="U225"/>
     </row>
-    <row r="226" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>286</v>
       </c>
@@ -21183,7 +21226,7 @@
       <c r="T226"/>
       <c r="U226"/>
     </row>
-    <row r="227" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>287</v>
       </c>
@@ -21244,7 +21287,7 @@
       <c r="T227"/>
       <c r="U227"/>
     </row>
-    <row r="228" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>288</v>
       </c>
@@ -21305,7 +21348,7 @@
       <c r="T228"/>
       <c r="U228"/>
     </row>
-    <row r="229" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>289</v>
       </c>
@@ -21366,7 +21409,7 @@
       <c r="T229"/>
       <c r="U229"/>
     </row>
-    <row r="230" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>290</v>
       </c>
@@ -21427,7 +21470,7 @@
       <c r="T230"/>
       <c r="U230"/>
     </row>
-    <row r="231" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>291</v>
       </c>
@@ -21490,7 +21533,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>292</v>
       </c>
@@ -21551,7 +21594,7 @@
       <c r="T232"/>
       <c r="U232"/>
     </row>
-    <row r="233" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>293</v>
       </c>
@@ -21612,7 +21655,7 @@
       <c r="T233"/>
       <c r="U233"/>
     </row>
-    <row r="234" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>294</v>
       </c>
@@ -21675,7 +21718,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>295</v>
       </c>
@@ -21738,7 +21781,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>296</v>
       </c>
@@ -21801,7 +21844,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>297</v>
       </c>
@@ -21862,7 +21905,7 @@
       <c r="T237"/>
       <c r="U237"/>
     </row>
-    <row r="238" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>298</v>
       </c>
@@ -21925,7 +21968,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>299</v>
       </c>
@@ -21986,7 +22029,7 @@
       <c r="T239"/>
       <c r="U239"/>
     </row>
-    <row r="240" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>300</v>
       </c>
@@ -22047,7 +22090,7 @@
       <c r="T240"/>
       <c r="U240"/>
     </row>
-    <row r="241" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>301</v>
       </c>
@@ -22110,7 +22153,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>302</v>
       </c>
@@ -22175,7 +22218,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>303</v>
       </c>
@@ -22240,7 +22283,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>304</v>
       </c>
@@ -22305,7 +22348,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>305</v>
       </c>
@@ -22368,7 +22411,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>306</v>
       </c>
@@ -22433,7 +22476,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>307</v>
       </c>
@@ -22496,7 +22539,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>308</v>
       </c>
@@ -22559,7 +22602,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>309</v>
       </c>
@@ -22622,7 +22665,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>310</v>
       </c>
@@ -22685,7 +22728,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>311</v>
       </c>
@@ -22746,7 +22789,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>312</v>
       </c>
@@ -22821,29 +22864,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AT50"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X49" sqref="X49"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52:L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="15.6328125" style="9"/>
-    <col min="7" max="7" width="15.6328125" style="55"/>
-    <col min="8" max="9" width="15.6328125" style="9"/>
-    <col min="10" max="10" width="15.6328125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" style="8"/>
-    <col min="12" max="17" width="15.6328125" style="9"/>
-    <col min="18" max="18" width="15.6328125" style="14"/>
-    <col min="19" max="20" width="15.6328125" style="9"/>
-    <col min="21" max="21" width="50.6328125" style="8" customWidth="1"/>
-    <col min="22" max="46" width="15.6328125" style="15"/>
-    <col min="47" max="16384" width="15.6328125" style="9"/>
+    <col min="1" max="6" width="15.59765625" style="9"/>
+    <col min="7" max="7" width="15.59765625" style="55"/>
+    <col min="8" max="9" width="15.59765625" style="9"/>
+    <col min="10" max="10" width="15.59765625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="8"/>
+    <col min="12" max="17" width="15.59765625" style="9"/>
+    <col min="18" max="18" width="15.59765625" style="14"/>
+    <col min="19" max="20" width="15.59765625" style="9"/>
+    <col min="21" max="21" width="50.59765625" style="8" customWidth="1"/>
+    <col min="22" max="46" width="15.59765625" style="15"/>
+    <col min="47" max="16384" width="15.59765625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="50" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -22933,7 +22976,7 @@
       <c r="AS1" s="49"/>
       <c r="AT1" s="49"/>
     </row>
-    <row r="2" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>313</v>
       </c>
@@ -22994,7 +23037,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>314</v>
       </c>
@@ -23055,7 +23098,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="33"/>
     </row>
-    <row r="4" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>315</v>
       </c>
@@ -23116,7 +23159,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="33"/>
     </row>
-    <row r="5" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>316</v>
       </c>
@@ -23177,7 +23220,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>317</v>
       </c>
@@ -23238,7 +23281,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>318</v>
       </c>
@@ -23299,7 +23342,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="33"/>
     </row>
-    <row r="8" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>319</v>
       </c>
@@ -23360,7 +23403,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="33"/>
     </row>
-    <row r="9" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>320</v>
       </c>
@@ -23421,7 +23464,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>321</v>
       </c>
@@ -23482,7 +23525,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>322</v>
       </c>
@@ -23543,7 +23586,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>323</v>
       </c>
@@ -23604,7 +23647,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>324</v>
       </c>
@@ -23669,7 +23712,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>325</v>
       </c>
@@ -23730,7 +23773,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>326</v>
       </c>
@@ -23791,7 +23834,7 @@
       <c r="T15" s="15"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>327</v>
       </c>
@@ -23852,7 +23895,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>328</v>
       </c>
@@ -23916,7 +23959,7 @@
       </c>
       <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>329</v>
       </c>
@@ -23975,7 +24018,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>330</v>
       </c>
@@ -24038,7 +24081,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>331</v>
       </c>
@@ -24101,7 +24144,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>332</v>
       </c>
@@ -24164,7 +24207,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>333</v>
       </c>
@@ -24225,7 +24268,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>334</v>
       </c>
@@ -24290,7 +24333,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>335</v>
       </c>
@@ -24353,7 +24396,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>336</v>
       </c>
@@ -24417,7 +24460,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>337</v>
       </c>
@@ -24482,7 +24525,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <f>A26+1</f>
         <v>338</v>
@@ -24546,9 +24589,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <f t="shared" ref="A28:A50" si="0">A27+1</f>
+        <f t="shared" ref="A28:A55" si="0">A27+1</f>
         <v>339</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -24611,7 +24654,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -24674,7 +24717,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -24737,7 +24780,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>342</v>
@@ -24800,7 +24843,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>343</v>
@@ -24863,7 +24906,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -24926,7 +24969,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>345</v>
@@ -24989,7 +25032,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>346</v>
@@ -25052,7 +25095,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>347</v>
@@ -25115,7 +25158,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>348</v>
@@ -25178,7 +25221,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>349</v>
@@ -25241,7 +25284,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -25306,7 +25349,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -25372,7 +25415,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>352</v>
@@ -25433,7 +25476,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>353</v>
@@ -25498,7 +25541,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>354</v>
@@ -25563,7 +25606,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>355</v>
@@ -25630,7 +25673,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>356</v>
@@ -25697,7 +25740,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37">
         <f t="shared" si="0"/>
         <v>357</v>
@@ -25763,7 +25806,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -25822,7 +25865,7 @@
       </c>
       <c r="V47" s="57"/>
     </row>
-    <row r="48" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69">
         <f t="shared" si="0"/>
         <v>359</v>
@@ -25881,7 +25924,7 @@
       </c>
       <c r="V48" s="57"/>
     </row>
-    <row r="49" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -25940,7 +25983,7 @@
       </c>
       <c r="V49" s="71"/>
     </row>
-    <row r="50" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69">
         <f t="shared" si="0"/>
         <v>361</v>
@@ -25998,6 +26041,318 @@
         <v>815</v>
       </c>
       <c r="V50" s="57"/>
+    </row>
+    <row r="51" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="78">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="B51" s="79" t="s">
+        <v>820</v>
+      </c>
+      <c r="C51" s="75">
+        <v>2.12</v>
+      </c>
+      <c r="D51" s="75">
+        <v>1468</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="77">
+        <v>56</v>
+      </c>
+      <c r="H51" s="75">
+        <v>-43</v>
+      </c>
+      <c r="I51" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="74" t="s">
+        <v>821</v>
+      </c>
+      <c r="L51" s="75">
+        <v>1496</v>
+      </c>
+      <c r="M51" s="75">
+        <v>-32.249000000000002</v>
+      </c>
+      <c r="N51" s="75">
+        <v>-57.646999999999998</v>
+      </c>
+      <c r="O51" s="75">
+        <v>8</v>
+      </c>
+      <c r="P51" s="75">
+        <v>2006</v>
+      </c>
+      <c r="Q51" s="75">
+        <v>2014</v>
+      </c>
+      <c r="R51" s="76" t="s">
+        <v>822</v>
+      </c>
+      <c r="S51" s="75">
+        <v>1</v>
+      </c>
+      <c r="T51" s="73"/>
+      <c r="U51" s="74" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="78">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="B52" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="C52" s="75">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D52" s="75">
+        <v>2596</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="77">
+        <v>-79.400000000000006</v>
+      </c>
+      <c r="H52" s="75">
+        <v>110</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="74" t="s">
+        <v>825</v>
+      </c>
+      <c r="L52" s="80">
+        <v>1255</v>
+      </c>
+      <c r="M52" s="75">
+        <v>-40.343000000000004</v>
+      </c>
+      <c r="N52" s="75">
+        <v>-73.453000000000003</v>
+      </c>
+      <c r="O52" s="75">
+        <v>6</v>
+      </c>
+      <c r="P52" s="75">
+        <v>1997</v>
+      </c>
+      <c r="Q52" s="75">
+        <v>2002</v>
+      </c>
+      <c r="R52" s="76" t="s">
+        <v>826</v>
+      </c>
+      <c r="S52" s="75">
+        <v>1</v>
+      </c>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+    </row>
+    <row r="53" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="78">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="B53" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="75">
+        <v>1595</v>
+      </c>
+      <c r="D53" s="75">
+        <v>1660</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="77">
+        <v>15.9</v>
+      </c>
+      <c r="H53" s="75">
+        <v>-22.2</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="74" t="s">
+        <v>827</v>
+      </c>
+      <c r="L53" s="80">
+        <v>871</v>
+      </c>
+      <c r="M53" s="75">
+        <v>-37.585000000000001</v>
+      </c>
+      <c r="N53" s="75">
+        <v>-72.147999999999996</v>
+      </c>
+      <c r="O53" s="75">
+        <v>44</v>
+      </c>
+      <c r="P53" s="75">
+        <v>1962</v>
+      </c>
+      <c r="Q53" s="75">
+        <v>2005</v>
+      </c>
+      <c r="R53" s="76" t="s">
+        <v>826</v>
+      </c>
+      <c r="S53" s="75">
+        <v>1</v>
+      </c>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+    </row>
+    <row r="54" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="78">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B54" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="75">
+        <v>94</v>
+      </c>
+      <c r="D54" s="75">
+        <v>1170</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="77">
+        <v>18.7</v>
+      </c>
+      <c r="H54" s="75">
+        <v>-6.4</v>
+      </c>
+      <c r="I54" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="74" t="s">
+        <v>828</v>
+      </c>
+      <c r="L54" s="80">
+        <v>1188</v>
+      </c>
+      <c r="M54" s="75">
+        <v>-37.68</v>
+      </c>
+      <c r="N54" s="75">
+        <v>-73.23</v>
+      </c>
+      <c r="O54" s="75">
+        <v>31</v>
+      </c>
+      <c r="P54" s="75">
+        <v>1962</v>
+      </c>
+      <c r="Q54" s="75">
+        <v>1992</v>
+      </c>
+      <c r="R54" s="76" t="s">
+        <v>826</v>
+      </c>
+      <c r="S54" s="75">
+        <v>1</v>
+      </c>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+    </row>
+    <row r="55" spans="1:22" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="78">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="B55" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C55" s="75">
+        <v>434</v>
+      </c>
+      <c r="D55" s="75">
+        <v>1660</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="77">
+        <v>50</v>
+      </c>
+      <c r="H55" s="75">
+        <v>-25.5</v>
+      </c>
+      <c r="I55" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="74" t="s">
+        <v>828</v>
+      </c>
+      <c r="L55" s="80">
+        <v>1029</v>
+      </c>
+      <c r="M55" s="75">
+        <v>-37.905000000000001</v>
+      </c>
+      <c r="N55" s="75">
+        <v>-72.033000000000001</v>
+      </c>
+      <c r="O55" s="75">
+        <v>44</v>
+      </c>
+      <c r="P55" s="75">
+        <v>1962</v>
+      </c>
+      <c r="Q55" s="75">
+        <v>2005</v>
+      </c>
+      <c r="R55" s="76" t="s">
+        <v>826</v>
+      </c>
+      <c r="S55" s="75">
+        <v>1</v>
+      </c>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L46" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
